--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DFB09F-94C6-EC48-B4A4-2CB565D1CFEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CA2DAA-6C0C-BD41-BDC4-A6063FB7F1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7880" yWindow="2380" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="159">
   <si>
     <t>locus_numeric_id</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>proto.158-Macropus</t>
-  </si>
-  <si>
-    <t>proto.158-Phascolarctos</t>
   </si>
   <si>
     <t>proto.159-Vombatus</t>
@@ -999,11 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8698D365-2C1A-1149-A6A3-1E01E9655E89}">
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1083,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1137,7 +1134,7 @@
         <v>22</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>18</v>
@@ -1157,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1199,7 +1196,7 @@
         <v>22</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>18</v>
@@ -1261,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>18</v>
@@ -1272,7 +1269,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -1281,7 +1278,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1323,7 +1320,7 @@
         <v>22</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>18</v>
@@ -1334,7 +1331,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="10">
         <v>4</v>
@@ -1343,7 +1340,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1385,7 +1382,7 @@
         <v>22</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>18</v>
@@ -1396,7 +1393,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="17">
         <v>101</v>
@@ -1405,7 +1402,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>19</v>
@@ -1414,22 +1411,22 @@
         <v>19</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>22</v>
@@ -1447,7 +1444,7 @@
         <v>22</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>18</v>
@@ -1458,7 +1455,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="17">
         <v>102</v>
@@ -1467,7 +1464,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>19</v>
@@ -1509,7 +1506,7 @@
         <v>22</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>18</v>
@@ -1529,7 +1526,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>19</v>
@@ -1538,22 +1535,22 @@
         <v>19</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>22</v>
@@ -1571,7 +1568,7 @@
         <v>22</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>18</v>
@@ -1591,7 +1588,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>19</v>
@@ -1600,22 +1597,22 @@
         <v>19</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>22</v>
@@ -1633,7 +1630,7 @@
         <v>22</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>18</v>
@@ -1644,16 +1641,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="17">
         <v>108</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>19</v>
@@ -1662,22 +1659,22 @@
         <v>19</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>22</v>
@@ -1695,7 +1692,7 @@
         <v>22</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>18</v>
@@ -1715,7 +1712,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>19</v>
@@ -1724,22 +1721,22 @@
         <v>19</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>22</v>
@@ -1757,7 +1754,7 @@
         <v>22</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>18</v>
@@ -1768,16 +1765,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B13" s="17">
         <v>120</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>19</v>
@@ -1786,22 +1783,22 @@
         <v>19</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>22</v>
@@ -1819,7 +1816,7 @@
         <v>22</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>18</v>
@@ -1830,7 +1827,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="17">
         <v>121</v>
@@ -1839,7 +1836,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>19</v>
@@ -1848,22 +1845,22 @@
         <v>19</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>22</v>
@@ -1881,7 +1878,7 @@
         <v>22</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>18</v>
@@ -1892,16 +1889,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="17">
         <v>122</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>19</v>
@@ -1910,22 +1907,22 @@
         <v>19</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>22</v>
@@ -1943,7 +1940,7 @@
         <v>22</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>18</v>
@@ -1963,7 +1960,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>19</v>
@@ -1972,22 +1969,22 @@
         <v>19</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>22</v>
@@ -2005,7 +2002,7 @@
         <v>22</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>18</v>
@@ -2022,11 +2019,11 @@
         <v>126</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>72</v>
-      </c>
       <c r="E17" s="18" t="s">
         <v>19</v>
       </c>
@@ -2034,22 +2031,22 @@
         <v>19</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>22</v>
@@ -2067,7 +2064,7 @@
         <v>22</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>18</v>
@@ -2087,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>19</v>
@@ -2096,22 +2093,22 @@
         <v>19</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>22</v>
@@ -2129,7 +2126,7 @@
         <v>22</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>18</v>
@@ -2149,7 +2146,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>19</v>
@@ -2158,22 +2155,22 @@
         <v>19</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>22</v>
@@ -2191,7 +2188,7 @@
         <v>22</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>18</v>
@@ -2211,7 +2208,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>19</v>
@@ -2220,22 +2217,22 @@
         <v>19</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>22</v>
@@ -2253,7 +2250,7 @@
         <v>22</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>18</v>
@@ -2264,16 +2261,16 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="17">
         <v>130</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>19</v>
@@ -2282,22 +2279,22 @@
         <v>19</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>22</v>
@@ -2315,7 +2312,7 @@
         <v>22</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>18</v>
@@ -2332,10 +2329,10 @@
         <v>131</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>19</v>
@@ -2344,22 +2341,22 @@
         <v>19</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>22</v>
@@ -2377,7 +2374,7 @@
         <v>22</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>18</v>
@@ -2397,7 +2394,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>19</v>
@@ -2406,22 +2403,22 @@
         <v>19</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>22</v>
@@ -2439,7 +2436,7 @@
         <v>22</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>18</v>
@@ -2456,10 +2453,10 @@
         <v>133</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>19</v>
@@ -2468,22 +2465,22 @@
         <v>19</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>22</v>
@@ -2501,7 +2498,7 @@
         <v>22</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>18</v>
@@ -2521,7 +2518,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>19</v>
@@ -2530,22 +2527,22 @@
         <v>19</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>22</v>
@@ -2563,7 +2560,7 @@
         <v>22</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S25" s="11" t="s">
         <v>18</v>
@@ -2580,10 +2577,10 @@
         <v>135</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>19</v>
@@ -2592,22 +2589,22 @@
         <v>19</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>22</v>
@@ -2625,7 +2622,7 @@
         <v>22</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>18</v>
@@ -2642,11 +2639,11 @@
         <v>136</v>
       </c>
       <c r="C27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>72</v>
-      </c>
       <c r="E27" s="18" t="s">
         <v>19</v>
       </c>
@@ -2654,22 +2651,22 @@
         <v>19</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>22</v>
@@ -2687,7 +2684,7 @@
         <v>22</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S27" s="11" t="s">
         <v>18</v>
@@ -2707,7 +2704,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>19</v>
@@ -2716,22 +2713,22 @@
         <v>19</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>22</v>
@@ -2749,7 +2746,7 @@
         <v>22</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S28" s="11" t="s">
         <v>18</v>
@@ -2769,7 +2766,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>19</v>
@@ -2778,22 +2775,22 @@
         <v>19</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>22</v>
@@ -2811,7 +2808,7 @@
         <v>22</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>18</v>
@@ -2831,7 +2828,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>19</v>
@@ -2840,22 +2837,22 @@
         <v>19</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>22</v>
@@ -2873,7 +2870,7 @@
         <v>22</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>18</v>
@@ -2893,7 +2890,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>19</v>
@@ -2902,22 +2899,22 @@
         <v>19</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>22</v>
@@ -2935,7 +2932,7 @@
         <v>22</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>18</v>
@@ -2955,7 +2952,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>19</v>
@@ -2964,22 +2961,22 @@
         <v>19</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>22</v>
@@ -2997,7 +2994,7 @@
         <v>22</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>18</v>
@@ -3017,7 +3014,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>19</v>
@@ -3026,22 +3023,22 @@
         <v>19</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>22</v>
@@ -3059,7 +3056,7 @@
         <v>22</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>18</v>
@@ -3079,7 +3076,7 @@
         <v>23</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>19</v>
@@ -3088,22 +3085,22 @@
         <v>19</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>22</v>
@@ -3121,7 +3118,7 @@
         <v>22</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>18</v>
@@ -3141,7 +3138,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>19</v>
@@ -3150,22 +3147,22 @@
         <v>19</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>22</v>
@@ -3183,7 +3180,7 @@
         <v>22</v>
       </c>
       <c r="R35" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>18</v>
@@ -3194,17 +3191,17 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" s="17">
         <v>151</v>
       </c>
       <c r="C36" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>159</v>
-      </c>
       <c r="E36" s="18" t="s">
         <v>19</v>
       </c>
@@ -3212,22 +3209,22 @@
         <v>19</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>22</v>
@@ -3245,7 +3242,7 @@
         <v>22</v>
       </c>
       <c r="R36" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S36" s="11" t="s">
         <v>18</v>
@@ -3265,7 +3262,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>19</v>
@@ -3274,22 +3271,22 @@
         <v>19</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>22</v>
@@ -3307,7 +3304,7 @@
         <v>22</v>
       </c>
       <c r="R37" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>18</v>
@@ -3324,10 +3321,10 @@
         <v>153</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>19</v>
@@ -3336,22 +3333,22 @@
         <v>19</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>22</v>
@@ -3369,7 +3366,7 @@
         <v>22</v>
       </c>
       <c r="R38" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S38" s="11" t="s">
         <v>18</v>
@@ -3389,7 +3386,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>19</v>
@@ -3398,22 +3395,22 @@
         <v>19</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>22</v>
@@ -3431,7 +3428,7 @@
         <v>22</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>18</v>
@@ -3451,7 +3448,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>19</v>
@@ -3460,22 +3457,22 @@
         <v>19</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>22</v>
@@ -3493,7 +3490,7 @@
         <v>22</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>18</v>
@@ -3513,7 +3510,7 @@
         <v>23</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>19</v>
@@ -3522,22 +3519,22 @@
         <v>19</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>22</v>
@@ -3555,7 +3552,7 @@
         <v>22</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S41" s="11" t="s">
         <v>18</v>
@@ -3575,7 +3572,7 @@
         <v>23</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>19</v>
@@ -3584,22 +3581,22 @@
         <v>19</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>22</v>
@@ -3617,7 +3614,7 @@
         <v>22</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>18</v>
@@ -3637,7 +3634,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>19</v>
@@ -3646,22 +3643,22 @@
         <v>19</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>22</v>
@@ -3679,7 +3676,7 @@
         <v>22</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S43" s="11" t="s">
         <v>18</v>
@@ -3693,13 +3690,13 @@
         <v>57</v>
       </c>
       <c r="B44" s="17">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>19</v>
@@ -3708,22 +3705,22 @@
         <v>19</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>22</v>
@@ -3741,7 +3738,7 @@
         <v>22</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S44" s="11" t="s">
         <v>18</v>
@@ -3755,13 +3752,13 @@
         <v>58</v>
       </c>
       <c r="B45" s="17">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>19</v>
@@ -3770,22 +3767,22 @@
         <v>19</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>22</v>
@@ -3803,7 +3800,7 @@
         <v>22</v>
       </c>
       <c r="R45" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S45" s="11" t="s">
         <v>18</v>
@@ -3817,13 +3814,13 @@
         <v>59</v>
       </c>
       <c r="B46" s="17">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>19</v>
@@ -3832,22 +3829,22 @@
         <v>19</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>22</v>
@@ -3865,7 +3862,7 @@
         <v>22</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S46" s="11" t="s">
         <v>18</v>
@@ -3879,13 +3876,13 @@
         <v>60</v>
       </c>
       <c r="B47" s="17">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>19</v>
@@ -3894,22 +3891,22 @@
         <v>19</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>22</v>
@@ -3927,7 +3924,7 @@
         <v>22</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S47" s="11" t="s">
         <v>18</v>
@@ -3941,13 +3938,13 @@
         <v>61</v>
       </c>
       <c r="B48" s="17">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>19</v>
@@ -3956,22 +3953,22 @@
         <v>19</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>22</v>
@@ -3989,7 +3986,7 @@
         <v>22</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S48" s="11" t="s">
         <v>18</v>
@@ -4003,13 +4000,13 @@
         <v>62</v>
       </c>
       <c r="B49" s="17">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>19</v>
@@ -4018,22 +4015,22 @@
         <v>19</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>22</v>
@@ -4051,7 +4048,7 @@
         <v>22</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S49" s="11" t="s">
         <v>18</v>
@@ -4065,7 +4062,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="17">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>23</v>
@@ -4080,22 +4077,22 @@
         <v>19</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>22</v>
@@ -4113,7 +4110,7 @@
         <v>22</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>18</v>
@@ -4127,13 +4124,13 @@
         <v>64</v>
       </c>
       <c r="B51" s="17">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>19</v>
@@ -4142,22 +4139,22 @@
         <v>19</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>22</v>
@@ -4175,7 +4172,7 @@
         <v>22</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>18</v>
@@ -4186,16 +4183,16 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B52" s="17">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>19</v>
@@ -4204,22 +4201,22 @@
         <v>19</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>22</v>
@@ -4237,7 +4234,7 @@
         <v>22</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S52" s="11" t="s">
         <v>18</v>
@@ -4248,16 +4245,16 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B53" s="17">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>19</v>
@@ -4266,22 +4263,22 @@
         <v>19</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>22</v>
@@ -4299,7 +4296,7 @@
         <v>22</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S53" s="11" t="s">
         <v>18</v>
@@ -4313,13 +4310,13 @@
         <v>93</v>
       </c>
       <c r="B54" s="17">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>19</v>
@@ -4328,22 +4325,22 @@
         <v>19</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>22</v>
@@ -4361,7 +4358,7 @@
         <v>22</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S54" s="11" t="s">
         <v>18</v>
@@ -4375,13 +4372,13 @@
         <v>94</v>
       </c>
       <c r="B55" s="17">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>19</v>
@@ -4390,22 +4387,22 @@
         <v>19</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>22</v>
@@ -4423,7 +4420,7 @@
         <v>22</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S55" s="11" t="s">
         <v>18</v>
@@ -4437,13 +4434,13 @@
         <v>95</v>
       </c>
       <c r="B56" s="17">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>19</v>
@@ -4452,22 +4449,22 @@
         <v>19</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>22</v>
@@ -4485,7 +4482,7 @@
         <v>22</v>
       </c>
       <c r="R56" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S56" s="11" t="s">
         <v>18</v>
@@ -4499,13 +4496,13 @@
         <v>96</v>
       </c>
       <c r="B57" s="17">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>19</v>
@@ -4514,22 +4511,22 @@
         <v>19</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>22</v>
@@ -4547,7 +4544,7 @@
         <v>22</v>
       </c>
       <c r="R57" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S57" s="11" t="s">
         <v>18</v>
@@ -4561,13 +4558,13 @@
         <v>97</v>
       </c>
       <c r="B58" s="17">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>19</v>
@@ -4576,22 +4573,22 @@
         <v>19</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>22</v>
@@ -4609,7 +4606,7 @@
         <v>22</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S58" s="11" t="s">
         <v>18</v>
@@ -4623,13 +4620,13 @@
         <v>98</v>
       </c>
       <c r="B59" s="17">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>19</v>
@@ -4638,22 +4635,22 @@
         <v>19</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>22</v>
@@ -4671,7 +4668,7 @@
         <v>22</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S59" s="11" t="s">
         <v>18</v>
@@ -4685,13 +4682,13 @@
         <v>99</v>
       </c>
       <c r="B60" s="17">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>19</v>
@@ -4700,22 +4697,22 @@
         <v>19</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>22</v>
@@ -4733,7 +4730,7 @@
         <v>22</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S60" s="11" t="s">
         <v>18</v>
@@ -4747,13 +4744,13 @@
         <v>100</v>
       </c>
       <c r="B61" s="17">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>19</v>
@@ -4762,22 +4759,22 @@
         <v>19</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>22</v>
@@ -4795,7 +4792,7 @@
         <v>22</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S61" s="11" t="s">
         <v>18</v>
@@ -4809,13 +4806,13 @@
         <v>101</v>
       </c>
       <c r="B62" s="17">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>19</v>
@@ -4824,22 +4821,22 @@
         <v>19</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>22</v>
@@ -4857,7 +4854,7 @@
         <v>22</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S62" s="11" t="s">
         <v>18</v>
@@ -4871,13 +4868,13 @@
         <v>102</v>
       </c>
       <c r="B63" s="17">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>19</v>
@@ -4886,22 +4883,22 @@
         <v>19</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>22</v>
@@ -4919,7 +4916,7 @@
         <v>22</v>
       </c>
       <c r="R63" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S63" s="11" t="s">
         <v>18</v>
@@ -4933,13 +4930,13 @@
         <v>103</v>
       </c>
       <c r="B64" s="17">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>19</v>
@@ -4948,22 +4945,22 @@
         <v>19</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>22</v>
@@ -4981,7 +4978,7 @@
         <v>22</v>
       </c>
       <c r="R64" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S64" s="11" t="s">
         <v>18</v>
@@ -4995,13 +4992,13 @@
         <v>104</v>
       </c>
       <c r="B65" s="17">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>19</v>
@@ -5010,22 +5007,22 @@
         <v>19</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>22</v>
@@ -5043,7 +5040,7 @@
         <v>22</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S65" s="11" t="s">
         <v>18</v>
@@ -5057,13 +5054,13 @@
         <v>105</v>
       </c>
       <c r="B66" s="17">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>19</v>
@@ -5072,22 +5069,22 @@
         <v>19</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>22</v>
@@ -5105,7 +5102,7 @@
         <v>22</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S66" s="11" t="s">
         <v>18</v>
@@ -5119,13 +5116,13 @@
         <v>106</v>
       </c>
       <c r="B67" s="17">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>19</v>
@@ -5134,22 +5131,22 @@
         <v>19</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>22</v>
@@ -5167,7 +5164,7 @@
         <v>22</v>
       </c>
       <c r="R67" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S67" s="11" t="s">
         <v>18</v>
@@ -5181,13 +5178,13 @@
         <v>107</v>
       </c>
       <c r="B68" s="17">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>19</v>
@@ -5196,22 +5193,22 @@
         <v>19</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>22</v>
@@ -5229,7 +5226,7 @@
         <v>22</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S68" s="11" t="s">
         <v>18</v>
@@ -5243,13 +5240,13 @@
         <v>108</v>
       </c>
       <c r="B69" s="17">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>19</v>
@@ -5258,22 +5255,22 @@
         <v>19</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>22</v>
@@ -5291,7 +5288,7 @@
         <v>22</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S69" s="11" t="s">
         <v>18</v>
@@ -5305,13 +5302,13 @@
         <v>109</v>
       </c>
       <c r="B70" s="17">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>19</v>
@@ -5320,22 +5317,22 @@
         <v>19</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>22</v>
@@ -5353,7 +5350,7 @@
         <v>22</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S70" s="11" t="s">
         <v>18</v>
@@ -5364,16 +5361,16 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="B71" s="17">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>19</v>
@@ -5382,22 +5379,22 @@
         <v>19</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>22</v>
@@ -5415,7 +5412,7 @@
         <v>22</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S71" s="11" t="s">
         <v>18</v>
@@ -5426,16 +5423,16 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B72" s="17">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>19</v>
@@ -5444,22 +5441,22 @@
         <v>19</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>22</v>
@@ -5477,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S72" s="11" t="s">
         <v>18</v>
@@ -5491,13 +5488,13 @@
         <v>111</v>
       </c>
       <c r="B73" s="17">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>19</v>
@@ -5506,22 +5503,22 @@
         <v>19</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>22</v>
@@ -5539,7 +5536,7 @@
         <v>22</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S73" s="11" t="s">
         <v>18</v>
@@ -5553,13 +5550,13 @@
         <v>112</v>
       </c>
       <c r="B74" s="17">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>19</v>
@@ -5568,22 +5565,22 @@
         <v>19</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>22</v>
@@ -5601,7 +5598,7 @@
         <v>22</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S74" s="11" t="s">
         <v>18</v>
@@ -5615,13 +5612,13 @@
         <v>113</v>
       </c>
       <c r="B75" s="17">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>19</v>
@@ -5630,22 +5627,22 @@
         <v>19</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>22</v>
@@ -5663,7 +5660,7 @@
         <v>22</v>
       </c>
       <c r="R75" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S75" s="11" t="s">
         <v>18</v>
@@ -5677,13 +5674,13 @@
         <v>114</v>
       </c>
       <c r="B76" s="17">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>19</v>
@@ -5692,22 +5689,22 @@
         <v>19</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>22</v>
@@ -5725,7 +5722,7 @@
         <v>22</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S76" s="11" t="s">
         <v>18</v>
@@ -5739,13 +5736,13 @@
         <v>115</v>
       </c>
       <c r="B77" s="17">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>19</v>
@@ -5754,22 +5751,22 @@
         <v>19</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>22</v>
@@ -5787,7 +5784,7 @@
         <v>22</v>
       </c>
       <c r="R77" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S77" s="11" t="s">
         <v>18</v>
@@ -5801,13 +5798,13 @@
         <v>116</v>
       </c>
       <c r="B78" s="17">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>19</v>
@@ -5816,22 +5813,22 @@
         <v>19</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>22</v>
@@ -5849,7 +5846,7 @@
         <v>22</v>
       </c>
       <c r="R78" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S78" s="11" t="s">
         <v>18</v>
@@ -5860,16 +5857,16 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B79" s="17">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>19</v>
@@ -5878,22 +5875,22 @@
         <v>19</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>22</v>
@@ -5911,7 +5908,7 @@
         <v>22</v>
       </c>
       <c r="R79" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S79" s="11" t="s">
         <v>18</v>
@@ -5922,16 +5919,16 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B80" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>19</v>
@@ -5940,22 +5937,22 @@
         <v>19</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K80" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L80" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>22</v>
@@ -5973,7 +5970,7 @@
         <v>22</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S80" s="11" t="s">
         <v>18</v>
@@ -5987,13 +5984,13 @@
         <v>118</v>
       </c>
       <c r="B81" s="17">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>19</v>
@@ -6002,22 +5999,22 @@
         <v>19</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L81" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>22</v>
@@ -6035,7 +6032,7 @@
         <v>22</v>
       </c>
       <c r="R81" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S81" s="11" t="s">
         <v>18</v>
@@ -6049,13 +6046,13 @@
         <v>119</v>
       </c>
       <c r="B82" s="17">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E82" s="18" t="s">
         <v>19</v>
@@ -6064,22 +6061,22 @@
         <v>19</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>22</v>
@@ -6097,7 +6094,7 @@
         <v>22</v>
       </c>
       <c r="R82" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S82" s="11" t="s">
         <v>18</v>
@@ -6111,7 +6108,7 @@
         <v>120</v>
       </c>
       <c r="B83" s="17">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>23</v>
@@ -6126,22 +6123,22 @@
         <v>19</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>22</v>
@@ -6159,7 +6156,7 @@
         <v>22</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S83" s="11" t="s">
         <v>18</v>
@@ -6173,13 +6170,13 @@
         <v>121</v>
       </c>
       <c r="B84" s="17">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>19</v>
@@ -6188,22 +6185,22 @@
         <v>19</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>22</v>
@@ -6221,7 +6218,7 @@
         <v>22</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S84" s="11" t="s">
         <v>18</v>
@@ -6235,7 +6232,7 @@
         <v>122</v>
       </c>
       <c r="B85" s="17">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>23</v>
@@ -6250,22 +6247,22 @@
         <v>19</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L85" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>22</v>
@@ -6283,7 +6280,7 @@
         <v>22</v>
       </c>
       <c r="R85" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S85" s="11" t="s">
         <v>18</v>
@@ -6297,13 +6294,13 @@
         <v>123</v>
       </c>
       <c r="B86" s="17">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>19</v>
@@ -6312,22 +6309,22 @@
         <v>19</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L86" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>22</v>
@@ -6345,7 +6342,7 @@
         <v>22</v>
       </c>
       <c r="R86" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S86" s="11" t="s">
         <v>18</v>
@@ -6359,13 +6356,13 @@
         <v>124</v>
       </c>
       <c r="B87" s="17">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>19</v>
@@ -6374,22 +6371,22 @@
         <v>19</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L87" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>22</v>
@@ -6407,7 +6404,7 @@
         <v>22</v>
       </c>
       <c r="R87" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S87" s="11" t="s">
         <v>18</v>
@@ -6421,13 +6418,13 @@
         <v>125</v>
       </c>
       <c r="B88" s="17">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>19</v>
@@ -6436,22 +6433,22 @@
         <v>19</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L88" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>22</v>
@@ -6469,7 +6466,7 @@
         <v>22</v>
       </c>
       <c r="R88" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S88" s="11" t="s">
         <v>18</v>
@@ -6483,13 +6480,13 @@
         <v>126</v>
       </c>
       <c r="B89" s="17">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>19</v>
@@ -6498,22 +6495,22 @@
         <v>19</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L89" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>22</v>
@@ -6531,7 +6528,7 @@
         <v>22</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S89" s="11" t="s">
         <v>18</v>
@@ -6545,7 +6542,7 @@
         <v>127</v>
       </c>
       <c r="B90" s="17">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>23</v>
@@ -6560,22 +6557,22 @@
         <v>19</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>22</v>
@@ -6593,7 +6590,7 @@
         <v>22</v>
       </c>
       <c r="R90" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S90" s="11" t="s">
         <v>18</v>
@@ -6607,13 +6604,13 @@
         <v>128</v>
       </c>
       <c r="B91" s="17">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>19</v>
@@ -6622,22 +6619,22 @@
         <v>19</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L91" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>22</v>
@@ -6655,7 +6652,7 @@
         <v>22</v>
       </c>
       <c r="R91" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S91" s="11" t="s">
         <v>18</v>
@@ -6669,13 +6666,13 @@
         <v>129</v>
       </c>
       <c r="B92" s="17">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="18" t="s">
         <v>19</v>
@@ -6684,22 +6681,22 @@
         <v>19</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L92" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>22</v>
@@ -6717,7 +6714,7 @@
         <v>22</v>
       </c>
       <c r="R92" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S92" s="11" t="s">
         <v>18</v>
@@ -6731,13 +6728,13 @@
         <v>130</v>
       </c>
       <c r="B93" s="17">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>19</v>
@@ -6746,22 +6743,22 @@
         <v>19</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L93" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>22</v>
@@ -6779,7 +6776,7 @@
         <v>22</v>
       </c>
       <c r="R93" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S93" s="11" t="s">
         <v>18</v>
@@ -6789,73 +6786,11 @@
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B94" s="17">
-        <v>219</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I94" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J94" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K94" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="L94" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="M94" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N94" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P94" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q94" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R94" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="S94" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T94" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B95"/>
+      <c r="B94"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Q94">
-    <sortCondition ref="B2:B94"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Q93">
+    <sortCondition ref="B2:B93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CA2DAA-6C0C-BD41-BDC4-A6063FB7F1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FA0806-FB54-5D48-895D-901BB13732E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7880" yWindow="2380" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>proto.189-Rodentia</t>
   </si>
   <si>
-    <t>proto.197-rodentia</t>
-  </si>
-  <si>
     <t>Rodentia</t>
   </si>
   <si>
@@ -510,6 +507,9 @@
   </si>
   <si>
     <t>Diprodontia</t>
+  </si>
+  <si>
+    <t>proto.197-Dinomys_branickii</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A1:T93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="17">
         <v>108</v>
@@ -1650,7 +1650,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>19</v>
@@ -2270,7 +2270,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>19</v>
@@ -2332,7 +2332,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>19</v>
@@ -3191,16 +3191,16 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="17">
         <v>151</v>
       </c>
       <c r="C36" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>19</v>
@@ -5856,8 +5856,8 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
-        <v>153</v>
+      <c r="A79" t="s">
+        <v>158</v>
       </c>
       <c r="B79" s="17">
         <v>197</v>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FA0806-FB54-5D48-895D-901BB13732E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C986C96-6591-B54D-9FA3-0B0B46EFC205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7880" yWindow="2380" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="162">
   <si>
     <t>locus_numeric_id</t>
   </si>
@@ -122,9 +122,6 @@
     <t>proto.103-graphiurus</t>
   </si>
   <si>
-    <t>proto.107-Hydrochoerus</t>
-  </si>
-  <si>
     <t>proto.111-Afrotheria</t>
   </si>
   <si>
@@ -510,6 +507,18 @@
   </si>
   <si>
     <t>proto.197-Dinomys_branickii</t>
+  </si>
+  <si>
+    <t>proto.104-monodelphis</t>
+  </si>
+  <si>
+    <t>proto.106-Myocastor</t>
+  </si>
+  <si>
+    <t>proto.107-Myocastor</t>
+  </si>
+  <si>
+    <t>proto.144-Myocastor_coypus</t>
   </si>
 </sst>
 </file>
@@ -996,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8698D365-2C1A-1149-A6A3-1E01E9655E89}">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A1:T93"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="A1:T96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1092,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1134,7 +1143,7 @@
         <v>22</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>18</v>
@@ -1154,7 +1163,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1196,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>18</v>
@@ -1258,7 +1267,7 @@
         <v>22</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>18</v>
@@ -1269,7 +1278,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -1278,7 +1287,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1320,7 +1329,7 @@
         <v>22</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>18</v>
@@ -1331,16 +1340,16 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1382,7 +1391,7 @@
         <v>22</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>18</v>
@@ -1391,9 +1400,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="17">
         <v>101</v>
@@ -1402,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>19</v>
@@ -1411,22 +1420,22 @@
         <v>19</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>22</v>
@@ -1444,7 +1453,7 @@
         <v>22</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>18</v>
@@ -1455,7 +1464,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="17">
         <v>102</v>
@@ -1464,7 +1473,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>19</v>
@@ -1506,7 +1515,7 @@
         <v>22</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>18</v>
@@ -1526,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>19</v>
@@ -1535,22 +1544,22 @@
         <v>19</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>22</v>
@@ -1568,28 +1577,28 @@
         <v>22</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="17">
+        <v>104</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="17">
-        <v>107</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
@@ -1597,22 +1606,22 @@
         <v>19</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>22</v>
@@ -1630,7 +1639,7 @@
         <v>22</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>18</v>
@@ -1639,18 +1648,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B11" s="17">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>19</v>
@@ -1659,22 +1668,22 @@
         <v>19</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>22</v>
@@ -1692,7 +1701,7 @@
         <v>22</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>18</v>
@@ -1703,16 +1712,16 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="B12" s="17">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>19</v>
@@ -1721,22 +1730,22 @@
         <v>19</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>22</v>
@@ -1754,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>18</v>
@@ -1765,16 +1774,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B13" s="17">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>19</v>
@@ -1783,22 +1792,22 @@
         <v>19</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>22</v>
@@ -1816,7 +1825,7 @@
         <v>22</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>18</v>
@@ -1827,16 +1836,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="B14" s="17">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>19</v>
@@ -1845,22 +1854,22 @@
         <v>19</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>22</v>
@@ -1878,7 +1887,7 @@
         <v>22</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>18</v>
@@ -1889,16 +1898,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B15" s="17">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>19</v>
@@ -1907,22 +1916,22 @@
         <v>19</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>22</v>
@@ -1940,7 +1949,7 @@
         <v>22</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>18</v>
@@ -1951,16 +1960,16 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="B16" s="17">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>19</v>
@@ -1969,22 +1978,22 @@
         <v>19</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>22</v>
@@ -2002,7 +2011,7 @@
         <v>22</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>18</v>
@@ -2013,13 +2022,13 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="B17" s="17">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>71</v>
@@ -2031,22 +2040,22 @@
         <v>19</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>22</v>
@@ -2064,7 +2073,7 @@
         <v>22</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>18</v>
@@ -2075,16 +2084,16 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="17">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>19</v>
@@ -2093,22 +2102,22 @@
         <v>19</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>22</v>
@@ -2126,7 +2135,7 @@
         <v>22</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>18</v>
@@ -2137,16 +2146,16 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" s="17">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>19</v>
@@ -2155,22 +2164,22 @@
         <v>19</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>22</v>
@@ -2188,7 +2197,7 @@
         <v>22</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>18</v>
@@ -2199,16 +2208,16 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" s="17">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>19</v>
@@ -2217,22 +2226,22 @@
         <v>19</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>22</v>
@@ -2250,7 +2259,7 @@
         <v>22</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>18</v>
@@ -2261,16 +2270,16 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="B21" s="17">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>19</v>
@@ -2279,22 +2288,22 @@
         <v>19</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>22</v>
@@ -2312,7 +2321,7 @@
         <v>22</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>18</v>
@@ -2323,16 +2332,16 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="17">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>19</v>
@@ -2341,22 +2350,22 @@
         <v>19</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>22</v>
@@ -2374,7 +2383,7 @@
         <v>22</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>18</v>
@@ -2385,16 +2394,16 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="B23" s="17">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>19</v>
@@ -2403,22 +2412,22 @@
         <v>19</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>22</v>
@@ -2436,7 +2445,7 @@
         <v>22</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>18</v>
@@ -2447,16 +2456,16 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="17">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>19</v>
@@ -2465,22 +2474,22 @@
         <v>19</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>22</v>
@@ -2498,7 +2507,7 @@
         <v>22</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>18</v>
@@ -2509,16 +2518,16 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25" s="17">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>19</v>
@@ -2527,22 +2536,22 @@
         <v>19</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>22</v>
@@ -2560,7 +2569,7 @@
         <v>22</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S25" s="11" t="s">
         <v>18</v>
@@ -2571,16 +2580,16 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" s="17">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>19</v>
@@ -2589,22 +2598,22 @@
         <v>19</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>22</v>
@@ -2622,7 +2631,7 @@
         <v>22</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>18</v>
@@ -2633,16 +2642,16 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="17">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>19</v>
@@ -2651,22 +2660,22 @@
         <v>19</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>22</v>
@@ -2684,7 +2693,7 @@
         <v>22</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S27" s="11" t="s">
         <v>18</v>
@@ -2695,16 +2704,16 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B28" s="17">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>19</v>
@@ -2713,22 +2722,22 @@
         <v>19</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>22</v>
@@ -2746,7 +2755,7 @@
         <v>22</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S28" s="11" t="s">
         <v>18</v>
@@ -2757,16 +2766,16 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" s="17">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>19</v>
@@ -2775,22 +2784,22 @@
         <v>19</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>22</v>
@@ -2808,7 +2817,7 @@
         <v>22</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>18</v>
@@ -2819,16 +2828,16 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" s="17">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>19</v>
@@ -2837,22 +2846,22 @@
         <v>19</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>22</v>
@@ -2870,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>18</v>
@@ -2881,16 +2890,16 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31" s="17">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>19</v>
@@ -2899,22 +2908,22 @@
         <v>19</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>22</v>
@@ -2932,7 +2941,7 @@
         <v>22</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>18</v>
@@ -2943,16 +2952,16 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B32" s="17">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>19</v>
@@ -2961,22 +2970,22 @@
         <v>19</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>22</v>
@@ -2994,7 +3003,7 @@
         <v>22</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>18</v>
@@ -3005,16 +3014,16 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B33" s="17">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>19</v>
@@ -3023,22 +3032,22 @@
         <v>19</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>22</v>
@@ -3056,7 +3065,7 @@
         <v>22</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>18</v>
@@ -3067,16 +3076,16 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B34" s="17">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>19</v>
@@ -3085,22 +3094,22 @@
         <v>19</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>22</v>
@@ -3118,7 +3127,7 @@
         <v>22</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>18</v>
@@ -3129,16 +3138,16 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" s="17">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>19</v>
@@ -3147,22 +3156,22 @@
         <v>19</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>22</v>
@@ -3179,8 +3188,8 @@
       <c r="Q35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R35" s="12" t="s">
-        <v>66</v>
+      <c r="R35" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>18</v>
@@ -3191,16 +3200,16 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="B36" s="17">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>157</v>
+        <v>23</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>19</v>
@@ -3209,22 +3218,22 @@
         <v>19</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>22</v>
@@ -3241,8 +3250,8 @@
       <c r="Q36" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R36" s="12" t="s">
-        <v>66</v>
+      <c r="R36" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="S36" s="11" t="s">
         <v>18</v>
@@ -3253,16 +3262,16 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="B37" s="17">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>19</v>
@@ -3271,22 +3280,22 @@
         <v>19</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>22</v>
@@ -3303,8 +3312,8 @@
       <c r="Q37" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R37" s="12" t="s">
-        <v>66</v>
+      <c r="R37" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>18</v>
@@ -3315,16 +3324,16 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B38" s="17">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>19</v>
@@ -3333,22 +3342,22 @@
         <v>19</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>22</v>
@@ -3366,7 +3375,7 @@
         <v>22</v>
       </c>
       <c r="R38" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S38" s="11" t="s">
         <v>18</v>
@@ -3377,16 +3386,16 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="B39" s="17">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>87</v>
+        <v>155</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>19</v>
@@ -3395,22 +3404,22 @@
         <v>19</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>22</v>
@@ -3428,7 +3437,7 @@
         <v>22</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>18</v>
@@ -3439,16 +3448,16 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B40" s="17">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>19</v>
@@ -3457,22 +3466,22 @@
         <v>19</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>22</v>
@@ -3490,7 +3499,7 @@
         <v>22</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>18</v>
@@ -3501,16 +3510,16 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B41" s="17">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>19</v>
@@ -3519,22 +3528,22 @@
         <v>19</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>22</v>
@@ -3552,7 +3561,7 @@
         <v>22</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S41" s="11" t="s">
         <v>18</v>
@@ -3563,16 +3572,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B42" s="17">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>19</v>
@@ -3581,22 +3590,22 @@
         <v>19</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>22</v>
@@ -3614,7 +3623,7 @@
         <v>22</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>18</v>
@@ -3625,16 +3634,16 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B43" s="17">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>19</v>
@@ -3643,22 +3652,22 @@
         <v>19</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>22</v>
@@ -3676,7 +3685,7 @@
         <v>22</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S43" s="11" t="s">
         <v>18</v>
@@ -3687,16 +3696,16 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B44" s="17">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>19</v>
@@ -3705,22 +3714,22 @@
         <v>19</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>22</v>
@@ -3738,7 +3747,7 @@
         <v>22</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S44" s="11" t="s">
         <v>18</v>
@@ -3749,16 +3758,16 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B45" s="17">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>19</v>
@@ -3767,22 +3776,22 @@
         <v>19</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>22</v>
@@ -3800,7 +3809,7 @@
         <v>22</v>
       </c>
       <c r="R45" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S45" s="11" t="s">
         <v>18</v>
@@ -3811,16 +3820,16 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B46" s="17">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>19</v>
@@ -3829,22 +3838,22 @@
         <v>19</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>22</v>
@@ -3862,7 +3871,7 @@
         <v>22</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S46" s="11" t="s">
         <v>18</v>
@@ -3873,16 +3882,16 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B47" s="17">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>19</v>
@@ -3891,22 +3900,22 @@
         <v>19</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>22</v>
@@ -3924,7 +3933,7 @@
         <v>22</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S47" s="11" t="s">
         <v>18</v>
@@ -3935,16 +3944,16 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B48" s="17">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>19</v>
@@ -3953,22 +3962,22 @@
         <v>19</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>22</v>
@@ -3986,7 +3995,7 @@
         <v>22</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S48" s="11" t="s">
         <v>18</v>
@@ -3997,16 +4006,16 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B49" s="17">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>19</v>
@@ -4015,22 +4024,22 @@
         <v>19</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>22</v>
@@ -4048,7 +4057,7 @@
         <v>22</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S49" s="11" t="s">
         <v>18</v>
@@ -4059,16 +4068,16 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B50" s="17">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>19</v>
@@ -4077,22 +4086,22 @@
         <v>19</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>22</v>
@@ -4110,7 +4119,7 @@
         <v>22</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>18</v>
@@ -4121,16 +4130,16 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B51" s="17">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>19</v>
@@ -4139,22 +4148,22 @@
         <v>19</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>22</v>
@@ -4172,7 +4181,7 @@
         <v>22</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>18</v>
@@ -4183,16 +4192,16 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B52" s="17">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>19</v>
@@ -4201,22 +4210,22 @@
         <v>19</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>22</v>
@@ -4234,7 +4243,7 @@
         <v>22</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S52" s="11" t="s">
         <v>18</v>
@@ -4245,16 +4254,16 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B53" s="17">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>19</v>
@@ -4263,22 +4272,22 @@
         <v>19</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>22</v>
@@ -4296,7 +4305,7 @@
         <v>22</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S53" s="11" t="s">
         <v>18</v>
@@ -4307,16 +4316,16 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B54" s="17">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>19</v>
@@ -4325,22 +4334,22 @@
         <v>19</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>22</v>
@@ -4358,7 +4367,7 @@
         <v>22</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S54" s="11" t="s">
         <v>18</v>
@@ -4369,16 +4378,16 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B55" s="17">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>19</v>
@@ -4387,22 +4396,22 @@
         <v>19</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>22</v>
@@ -4420,7 +4429,7 @@
         <v>22</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S55" s="11" t="s">
         <v>18</v>
@@ -4431,16 +4440,16 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B56" s="17">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>19</v>
@@ -4449,22 +4458,22 @@
         <v>19</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>22</v>
@@ -4482,7 +4491,7 @@
         <v>22</v>
       </c>
       <c r="R56" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S56" s="11" t="s">
         <v>18</v>
@@ -4493,16 +4502,16 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B57" s="17">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>19</v>
@@ -4511,22 +4520,22 @@
         <v>19</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>22</v>
@@ -4544,7 +4553,7 @@
         <v>22</v>
       </c>
       <c r="R57" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S57" s="11" t="s">
         <v>18</v>
@@ -4555,16 +4564,16 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B58" s="17">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>19</v>
@@ -4573,22 +4582,22 @@
         <v>19</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>22</v>
@@ -4606,7 +4615,7 @@
         <v>22</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S58" s="11" t="s">
         <v>18</v>
@@ -4617,16 +4626,16 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B59" s="17">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>19</v>
@@ -4635,22 +4644,22 @@
         <v>19</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>22</v>
@@ -4668,7 +4677,7 @@
         <v>22</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S59" s="11" t="s">
         <v>18</v>
@@ -4679,16 +4688,16 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B60" s="17">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>19</v>
@@ -4697,22 +4706,22 @@
         <v>19</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>22</v>
@@ -4730,7 +4739,7 @@
         <v>22</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S60" s="11" t="s">
         <v>18</v>
@@ -4741,16 +4750,16 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B61" s="17">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>19</v>
@@ -4759,22 +4768,22 @@
         <v>19</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>22</v>
@@ -4792,7 +4801,7 @@
         <v>22</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S61" s="11" t="s">
         <v>18</v>
@@ -4803,16 +4812,16 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B62" s="17">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>19</v>
@@ -4821,22 +4830,22 @@
         <v>19</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>22</v>
@@ -4854,7 +4863,7 @@
         <v>22</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S62" s="11" t="s">
         <v>18</v>
@@ -4865,16 +4874,16 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B63" s="17">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>19</v>
@@ -4883,22 +4892,22 @@
         <v>19</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>22</v>
@@ -4916,7 +4925,7 @@
         <v>22</v>
       </c>
       <c r="R63" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S63" s="11" t="s">
         <v>18</v>
@@ -4927,16 +4936,16 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B64" s="17">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>19</v>
@@ -4945,22 +4954,22 @@
         <v>19</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>22</v>
@@ -4978,7 +4987,7 @@
         <v>22</v>
       </c>
       <c r="R64" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S64" s="11" t="s">
         <v>18</v>
@@ -4989,16 +4998,16 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B65" s="17">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>19</v>
@@ -5007,22 +5016,22 @@
         <v>19</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>22</v>
@@ -5040,7 +5049,7 @@
         <v>22</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S65" s="11" t="s">
         <v>18</v>
@@ -5051,16 +5060,16 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B66" s="17">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>19</v>
@@ -5069,22 +5078,22 @@
         <v>19</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>22</v>
@@ -5102,7 +5111,7 @@
         <v>22</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S66" s="11" t="s">
         <v>18</v>
@@ -5113,16 +5122,16 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B67" s="17">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>19</v>
@@ -5131,22 +5140,22 @@
         <v>19</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>22</v>
@@ -5164,7 +5173,7 @@
         <v>22</v>
       </c>
       <c r="R67" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S67" s="11" t="s">
         <v>18</v>
@@ -5175,16 +5184,16 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B68" s="17">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>19</v>
@@ -5193,22 +5202,22 @@
         <v>19</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>22</v>
@@ -5226,7 +5235,7 @@
         <v>22</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S68" s="11" t="s">
         <v>18</v>
@@ -5237,16 +5246,16 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B69" s="17">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>19</v>
@@ -5255,22 +5264,22 @@
         <v>19</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>22</v>
@@ -5288,7 +5297,7 @@
         <v>22</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S69" s="11" t="s">
         <v>18</v>
@@ -5299,16 +5308,16 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B70" s="17">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>19</v>
@@ -5317,22 +5326,22 @@
         <v>19</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>22</v>
@@ -5350,7 +5359,7 @@
         <v>22</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S70" s="11" t="s">
         <v>18</v>
@@ -5361,16 +5370,16 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="B71" s="17">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>19</v>
@@ -5379,22 +5388,22 @@
         <v>19</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>22</v>
@@ -5412,7 +5421,7 @@
         <v>22</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S71" s="11" t="s">
         <v>18</v>
@@ -5423,16 +5432,16 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B72" s="17">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>19</v>
@@ -5441,22 +5450,22 @@
         <v>19</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>22</v>
@@ -5474,7 +5483,7 @@
         <v>22</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S72" s="11" t="s">
         <v>18</v>
@@ -5485,16 +5494,16 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B73" s="17">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>19</v>
@@ -5503,22 +5512,22 @@
         <v>19</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>22</v>
@@ -5536,7 +5545,7 @@
         <v>22</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S73" s="11" t="s">
         <v>18</v>
@@ -5547,16 +5556,16 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B74" s="17">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>19</v>
@@ -5565,22 +5574,22 @@
         <v>19</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>22</v>
@@ -5598,7 +5607,7 @@
         <v>22</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S74" s="11" t="s">
         <v>18</v>
@@ -5609,16 +5618,16 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B75" s="17">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>19</v>
@@ -5627,22 +5636,22 @@
         <v>19</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>22</v>
@@ -5660,7 +5669,7 @@
         <v>22</v>
       </c>
       <c r="R75" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S75" s="11" t="s">
         <v>18</v>
@@ -5671,16 +5680,16 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B76" s="17">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>19</v>
@@ -5689,22 +5698,22 @@
         <v>19</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>22</v>
@@ -5722,7 +5731,7 @@
         <v>22</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S76" s="11" t="s">
         <v>18</v>
@@ -5733,16 +5742,16 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B77" s="17">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>19</v>
@@ -5751,22 +5760,22 @@
         <v>19</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>22</v>
@@ -5784,7 +5793,7 @@
         <v>22</v>
       </c>
       <c r="R77" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S77" s="11" t="s">
         <v>18</v>
@@ -5795,16 +5804,16 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B78" s="17">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>19</v>
@@ -5813,22 +5822,22 @@
         <v>19</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>22</v>
@@ -5846,7 +5855,7 @@
         <v>22</v>
       </c>
       <c r="R78" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S78" s="11" t="s">
         <v>18</v>
@@ -5856,17 +5865,17 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>158</v>
+      <c r="A79" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="B79" s="17">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>19</v>
@@ -5875,22 +5884,22 @@
         <v>19</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>22</v>
@@ -5908,7 +5917,7 @@
         <v>22</v>
       </c>
       <c r="R79" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S79" s="11" t="s">
         <v>18</v>
@@ -5919,16 +5928,16 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B80" s="17">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>19</v>
@@ -5937,22 +5946,22 @@
         <v>19</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K80" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L80" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>22</v>
@@ -5970,7 +5979,7 @@
         <v>22</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S80" s="11" t="s">
         <v>18</v>
@@ -5981,16 +5990,16 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B81" s="17">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>19</v>
@@ -5999,22 +6008,22 @@
         <v>19</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L81" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>22</v>
@@ -6032,7 +6041,7 @@
         <v>22</v>
       </c>
       <c r="R81" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S81" s="11" t="s">
         <v>18</v>
@@ -6042,17 +6051,17 @@
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
-        <v>119</v>
+      <c r="A82" t="s">
+        <v>157</v>
       </c>
       <c r="B82" s="17">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="E82" s="18" t="s">
         <v>19</v>
@@ -6061,22 +6070,22 @@
         <v>19</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>22</v>
@@ -6094,7 +6103,7 @@
         <v>22</v>
       </c>
       <c r="R82" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S82" s="11" t="s">
         <v>18</v>
@@ -6105,16 +6114,16 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B83" s="17">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="E83" s="18" t="s">
         <v>19</v>
@@ -6123,22 +6132,22 @@
         <v>19</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>22</v>
@@ -6156,7 +6165,7 @@
         <v>22</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S83" s="11" t="s">
         <v>18</v>
@@ -6167,16 +6176,16 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B84" s="17">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>19</v>
@@ -6185,22 +6194,22 @@
         <v>19</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>22</v>
@@ -6218,7 +6227,7 @@
         <v>22</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S84" s="11" t="s">
         <v>18</v>
@@ -6229,16 +6238,16 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B85" s="17">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>19</v>
@@ -6247,22 +6256,22 @@
         <v>19</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L85" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>22</v>
@@ -6280,7 +6289,7 @@
         <v>22</v>
       </c>
       <c r="R85" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S85" s="11" t="s">
         <v>18</v>
@@ -6291,16 +6300,16 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B86" s="17">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>19</v>
@@ -6309,22 +6318,22 @@
         <v>19</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L86" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>22</v>
@@ -6342,7 +6351,7 @@
         <v>22</v>
       </c>
       <c r="R86" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S86" s="11" t="s">
         <v>18</v>
@@ -6353,16 +6362,16 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B87" s="17">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>19</v>
@@ -6371,22 +6380,22 @@
         <v>19</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L87" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>22</v>
@@ -6404,7 +6413,7 @@
         <v>22</v>
       </c>
       <c r="R87" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S87" s="11" t="s">
         <v>18</v>
@@ -6415,16 +6424,16 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B88" s="17">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>19</v>
@@ -6433,22 +6442,22 @@
         <v>19</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L88" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>22</v>
@@ -6466,7 +6475,7 @@
         <v>22</v>
       </c>
       <c r="R88" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S88" s="11" t="s">
         <v>18</v>
@@ -6477,16 +6486,16 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B89" s="17">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>19</v>
@@ -6495,22 +6504,22 @@
         <v>19</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L89" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>22</v>
@@ -6528,7 +6537,7 @@
         <v>22</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S89" s="11" t="s">
         <v>18</v>
@@ -6539,16 +6548,16 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B90" s="17">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>19</v>
@@ -6557,22 +6566,22 @@
         <v>19</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>22</v>
@@ -6590,7 +6599,7 @@
         <v>22</v>
       </c>
       <c r="R90" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S90" s="11" t="s">
         <v>18</v>
@@ -6601,16 +6610,16 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B91" s="17">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>19</v>
@@ -6619,22 +6628,22 @@
         <v>19</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L91" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>22</v>
@@ -6652,7 +6661,7 @@
         <v>22</v>
       </c>
       <c r="R91" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S91" s="11" t="s">
         <v>18</v>
@@ -6663,16 +6672,16 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B92" s="17">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E92" s="18" t="s">
         <v>19</v>
@@ -6681,22 +6690,22 @@
         <v>19</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L92" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>22</v>
@@ -6714,7 +6723,7 @@
         <v>22</v>
       </c>
       <c r="R92" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S92" s="11" t="s">
         <v>18</v>
@@ -6725,72 +6734,258 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B93" s="17">
+        <v>208</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K93" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L93" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P93" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R93" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T93" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="17">
+        <v>217</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J94" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K94" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L94" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M94" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N94" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O94" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P94" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R94" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T94" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A95" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="17">
+        <v>218</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J95" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K95" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L95" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q95" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R95" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T95" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A96" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="17">
         <v>219</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J93" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="K93" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="L93" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M93" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N93" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O93" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P93" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q93" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R93" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="S93" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T93" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B94"/>
+      <c r="C96" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N96" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P96" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q96" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R96" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T96" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Q93">
-    <sortCondition ref="B2:B93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Q96">
+    <sortCondition ref="B2:B96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C986C96-6591-B54D-9FA3-0B0B46EFC205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA166355-9647-2242-9C11-973A1083DA2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="2380" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
+    <workbookView xWindow="8440" yWindow="600" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BTD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="176">
   <si>
     <t>locus_numeric_id</t>
   </si>
@@ -519,6 +520,48 @@
   </si>
   <si>
     <t>proto.144-Myocastor_coypus</t>
+  </si>
+  <si>
+    <t>proto.145-Ctenomys_sociabilis</t>
+  </si>
+  <si>
+    <t>Ctenomys_sociabilis</t>
+  </si>
+  <si>
+    <t>proto.170-Graphiurus_murinus</t>
+  </si>
+  <si>
+    <t>Graphiurus_murinus</t>
+  </si>
+  <si>
+    <t>proto.169-Macropus_eugenii</t>
+  </si>
+  <si>
+    <t>Macropus_eugenii</t>
+  </si>
+  <si>
+    <t>proto.209-Macropus_eugenii</t>
+  </si>
+  <si>
+    <t>proto.210-diprotodontia</t>
+  </si>
+  <si>
+    <t>proto.211-Macropus_eugenii</t>
+  </si>
+  <si>
+    <t>proto.212-Macropus_eugenii</t>
+  </si>
+  <si>
+    <t>proto.213-Macropus_eugenii</t>
+  </si>
+  <si>
+    <t>proto.214-Macropus_eugenii</t>
+  </si>
+  <si>
+    <t>proto.215-Macropus_eugenii</t>
+  </si>
+  <si>
+    <t>proto.216-Macropus_eugenii</t>
   </si>
 </sst>
 </file>
@@ -1005,11 +1048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8698D365-2C1A-1149-A6A3-1E01E9655E89}">
-  <dimension ref="A1:T97"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="A1:T96"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="A1:T107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3324,16 +3367,16 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="B38" s="17">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>19</v>
@@ -3374,7 +3417,7 @@
       <c r="Q38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R38" s="12" t="s">
+      <c r="R38" s="4" t="s">
         <v>65</v>
       </c>
       <c r="S38" s="11" t="s">
@@ -3386,16 +3429,16 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="B39" s="17">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>156</v>
+        <v>23</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>19</v>
@@ -3448,16 +3491,16 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="B40" s="17">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>87</v>
+        <v>155</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>19</v>
@@ -3510,16 +3553,16 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="17">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>19</v>
@@ -3572,16 +3615,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="17">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>19</v>
@@ -3634,16 +3677,16 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="17">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>19</v>
@@ -3696,10 +3739,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="17">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>23</v>
@@ -3758,10 +3801,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="17">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>23</v>
@@ -3820,16 +3863,16 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="17">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>19</v>
@@ -3882,16 +3925,16 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="17">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>19</v>
@@ -3944,16 +3987,16 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="17">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>19</v>
@@ -4006,16 +4049,16 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="17">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>19</v>
@@ -4068,16 +4111,16 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="17">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>19</v>
@@ -4130,16 +4173,16 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="17">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>19</v>
@@ -4192,16 +4235,16 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="17">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>19</v>
@@ -4254,16 +4297,16 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="17">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>19</v>
@@ -4316,16 +4359,16 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="17">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>19</v>
@@ -4378,16 +4421,16 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B55" s="17">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>19</v>
@@ -4440,16 +4483,16 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="17">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>19</v>
@@ -4502,16 +4545,16 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="17">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>19</v>
@@ -4564,16 +4607,16 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="B58" s="17">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>19</v>
@@ -4626,16 +4669,16 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="B59" s="17">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>19</v>
@@ -4688,16 +4731,16 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B60" s="17">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>19</v>
@@ -4750,16 +4793,16 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B61" s="17">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>19</v>
@@ -4812,16 +4855,16 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B62" s="17">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>19</v>
@@ -4874,16 +4917,16 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B63" s="17">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>19</v>
@@ -4936,16 +4979,16 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B64" s="17">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>19</v>
@@ -4998,16 +5041,16 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B65" s="17">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>19</v>
@@ -5060,16 +5103,16 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B66" s="17">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>19</v>
@@ -5122,16 +5165,16 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B67" s="17">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>19</v>
@@ -5184,10 +5227,10 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B68" s="17">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>23</v>
@@ -5246,10 +5289,10 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B69" s="17">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>23</v>
@@ -5308,10 +5351,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B70" s="17">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>23</v>
@@ -5370,10 +5413,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B71" s="17">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>23</v>
@@ -5432,10 +5475,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B72" s="17">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>23</v>
@@ -5494,10 +5537,10 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B73" s="17">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>23</v>
@@ -5556,16 +5599,16 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="B74" s="17">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>19</v>
@@ -5618,16 +5661,16 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B75" s="17">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>19</v>
@@ -5680,16 +5723,16 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B76" s="17">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>19</v>
@@ -5742,16 +5785,16 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="B77" s="17">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>19</v>
@@ -5804,16 +5847,16 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" s="17">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>19</v>
@@ -5866,16 +5909,16 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B79" s="17">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>19</v>
@@ -5928,16 +5971,16 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B80" s="17">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>19</v>
@@ -5990,78 +6033,78 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B81" s="17">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K81" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L81" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R81" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T81" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="17">
+        <v>194</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H81" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I81" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J81" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K81" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L81" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q81" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R81" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="S81" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T81" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>157</v>
-      </c>
-      <c r="B82" s="17">
-        <v>197</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="E82" s="18" t="s">
         <v>19</v>
@@ -6114,16 +6157,16 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B83" s="17">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E83" s="18" t="s">
         <v>19</v>
@@ -6176,16 +6219,16 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" s="17">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>19</v>
@@ -6237,17 +6280,17 @@
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
-        <v>118</v>
+      <c r="A85" t="s">
+        <v>157</v>
       </c>
       <c r="B85" s="17">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>19</v>
@@ -6300,16 +6343,16 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B86" s="17">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>19</v>
@@ -6362,16 +6405,16 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B87" s="17">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>19</v>
@@ -6424,16 +6467,16 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B88" s="17">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>19</v>
@@ -6486,16 +6529,16 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B89" s="17">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>19</v>
@@ -6548,16 +6591,16 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B90" s="17">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>19</v>
@@ -6610,10 +6653,10 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B91" s="17">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>23</v>
@@ -6672,10 +6715,10 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B92" s="17">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>23</v>
@@ -6734,16 +6777,16 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B93" s="17">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>19</v>
@@ -6796,16 +6839,16 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B94" s="17">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>19</v>
@@ -6858,16 +6901,16 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B95" s="17">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>19</v>
@@ -6920,73 +6963,769 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" s="17">
+        <v>208</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L96" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N96" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P96" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q96" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R96" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T96" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A97" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="17">
+        <v>209</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J97" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L97" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P97" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q97" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R97" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T97" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A98" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="17">
+        <v>210</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J98" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L98" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N98" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O98" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P98" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q98" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R98" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T98" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A99" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B99" s="17">
+        <v>211</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J99" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K99" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L99" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P99" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R99" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T99" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A100" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="17">
+        <v>212</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J100" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K100" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L100" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P100" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q100" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R100" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T100" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="17">
+        <v>213</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J101" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K101" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L101" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P101" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q101" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R101" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T101" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B102" s="17">
+        <v>214</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J102" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L102" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N102" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P102" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q102" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R102" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T102" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A103" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="17">
+        <v>215</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J103" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K103" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L103" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O103" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P103" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q103" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R103" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T103" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" s="17">
+        <v>216</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I104" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J104" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K104" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L104" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N104" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R104" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S104" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T104" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="17">
+        <v>217</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H105" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I105" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J105" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K105" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L105" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O105" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P105" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q105" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R105" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T105" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="17">
+        <v>218</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J106" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K106" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L106" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M106" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N106" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O106" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P106" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q106" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R106" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S106" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T106" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A107" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B107" s="17">
         <v>219</v>
       </c>
-      <c r="C96" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="18" t="s">
+      <c r="C107" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E96" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I96" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J96" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K96" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L96" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="M96" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N96" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O96" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P96" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q96" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R96" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="S96" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T96" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97"/>
+      <c r="E107" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H107" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I107" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J107" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K107" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L107" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O107" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P107" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q107" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R107" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="S107" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T107" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B108"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:Q96">
-    <sortCondition ref="B2:B96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T107">
+    <sortCondition ref="B2:B107"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FC2845-766C-9F4D-8167-D5DB4EFAE8C3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA166355-9647-2242-9C11-973A1083DA2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACFA683-3B47-C042-B1F8-6F9F05AF7DE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="600" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
+    <workbookView xWindow="4340" yWindow="4680" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Apodemus</t>
   </si>
   <si>
-    <t>proto.2-mus_spretus</t>
-  </si>
-  <si>
     <t>proto.3-apodemus</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>proto.126-Octodon</t>
   </si>
   <si>
-    <t>proto.127-Myocastor</t>
-  </si>
-  <si>
     <t>proto.128-Capromys</t>
   </si>
   <si>
@@ -165,12 +159,6 @@
     <t>proto.138-Hydrochoerus</t>
   </si>
   <si>
-    <t>proto.139-Myocastor</t>
-  </si>
-  <si>
-    <t>proto.140-Myocastor</t>
-  </si>
-  <si>
     <t>proto.141-Erethizon</t>
   </si>
   <si>
@@ -240,9 +228,6 @@
     <t>Mammal/fish</t>
   </si>
   <si>
-    <t>Myocastor</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -303,129 +288,9 @@
     <t>Diprotodontia</t>
   </si>
   <si>
-    <t>proto.167-Vombatus_ursinus</t>
-  </si>
-  <si>
     <t>Vombatus</t>
   </si>
   <si>
-    <t>proto.168-Myocastor_coypus</t>
-  </si>
-  <si>
-    <t>proto.171-Monodelphis_domestica</t>
-  </si>
-  <si>
-    <t>proto.172-Monodelphis_domestica</t>
-  </si>
-  <si>
-    <t>proto.173-Graphiurus_murinus</t>
-  </si>
-  <si>
-    <t>proto.174-Octodon_degus</t>
-  </si>
-  <si>
-    <t>proto.176-Nannospalax_galili</t>
-  </si>
-  <si>
-    <t>proto.177-Erethizon_dorsatum</t>
-  </si>
-  <si>
-    <t>proto.178-Erethizon_dorsatum</t>
-  </si>
-  <si>
-    <t>proto.179-Microgale_talazaci</t>
-  </si>
-  <si>
-    <t>proto.180-Phascolarctos_cinereus</t>
-  </si>
-  <si>
-    <t>proto.181-Phascolarctos_cinereus</t>
-  </si>
-  <si>
-    <t>proto.182-Phascolarctos_cinereus</t>
-  </si>
-  <si>
-    <t>proto.183-Phascolarctos_cinereus</t>
-  </si>
-  <si>
-    <t>proto.184-Phascolarctos_cinereus</t>
-  </si>
-  <si>
-    <t>proto.185-Phascolarctos_cinereus</t>
-  </si>
-  <si>
-    <t>proto.186-Phascolarctos_cinereus</t>
-  </si>
-  <si>
-    <t>proto.187-Phascolarctos_cinereus</t>
-  </si>
-  <si>
-    <t>proto.188-Phascolarctos_cinereus</t>
-  </si>
-  <si>
-    <t>proto.190-Echinops_telfairi</t>
-  </si>
-  <si>
-    <t>proto.191-Myocastor_coypus</t>
-  </si>
-  <si>
-    <t>proto.192-Ctenomys_sociabilis</t>
-  </si>
-  <si>
-    <t>proto.193-Ctenomys_sociabilis</t>
-  </si>
-  <si>
-    <t>proto.194-Sarcophilus_harrisii</t>
-  </si>
-  <si>
-    <t>proto.195-Sarcophilus_harrisii</t>
-  </si>
-  <si>
-    <t>proto.196-Sarcophilus_harrisii</t>
-  </si>
-  <si>
-    <t>proto.198-Monodelphis_domestica</t>
-  </si>
-  <si>
-    <t>proto.199-Orycteropus_afer</t>
-  </si>
-  <si>
-    <t>proto.200-Orycteropus_afer</t>
-  </si>
-  <si>
-    <t>proto.201-Chrysochloris_asiatica</t>
-  </si>
-  <si>
-    <t>proto.202-Chrysochloris_asiatica</t>
-  </si>
-  <si>
-    <t>proto.203-Gymnobelideus_leadbeateri</t>
-  </si>
-  <si>
-    <t>proto.204-Gymnobelideus_leadbeateri</t>
-  </si>
-  <si>
-    <t>proto.205-Gymnobelideus_leadbeateri</t>
-  </si>
-  <si>
-    <t>proto.206-Gymnobelideus_leadbeateri</t>
-  </si>
-  <si>
-    <t>proto.207-Gymnobelideus_leadbeateri</t>
-  </si>
-  <si>
-    <t>proto.208-Octodon_degus</t>
-  </si>
-  <si>
-    <t>proto.217-Vombatus_ursinus</t>
-  </si>
-  <si>
-    <t>proto.218-Vombatus_ursinus</t>
-  </si>
-  <si>
-    <t>proto.219-Trichechus_manatus</t>
-  </si>
-  <si>
     <t>Graphiurus</t>
   </si>
   <si>
@@ -474,9 +339,6 @@
     <t>proto.130-dinomys</t>
   </si>
   <si>
-    <t>proto.4-mus_spicilegus</t>
-  </si>
-  <si>
     <t>proto.5-graphiurus</t>
   </si>
   <si>
@@ -507,61 +369,199 @@
     <t>Diprodontia</t>
   </si>
   <si>
-    <t>proto.197-Dinomys_branickii</t>
-  </si>
-  <si>
     <t>proto.104-monodelphis</t>
   </si>
   <si>
-    <t>proto.106-Myocastor</t>
-  </si>
-  <si>
-    <t>proto.107-Myocastor</t>
-  </si>
-  <si>
-    <t>proto.144-Myocastor_coypus</t>
-  </si>
-  <si>
-    <t>proto.145-Ctenomys_sociabilis</t>
-  </si>
-  <si>
-    <t>Ctenomys_sociabilis</t>
-  </si>
-  <si>
-    <t>proto.170-Graphiurus_murinus</t>
-  </si>
-  <si>
-    <t>Graphiurus_murinus</t>
-  </si>
-  <si>
-    <t>proto.169-Macropus_eugenii</t>
-  </si>
-  <si>
-    <t>Macropus_eugenii</t>
-  </si>
-  <si>
-    <t>proto.209-Macropus_eugenii</t>
-  </si>
-  <si>
     <t>proto.210-diprotodontia</t>
   </si>
   <si>
-    <t>proto.211-Macropus_eugenii</t>
-  </si>
-  <si>
-    <t>proto.212-Macropus_eugenii</t>
-  </si>
-  <si>
-    <t>proto.213-Macropus_eugenii</t>
-  </si>
-  <si>
-    <t>proto.214-Macropus_eugenii</t>
-  </si>
-  <si>
-    <t>proto.215-Macropus_eugenii</t>
-  </si>
-  <si>
-    <t>proto.216-Macropus_eugenii</t>
+    <t>proto.2-MusSpr</t>
+  </si>
+  <si>
+    <t>proto.4-MusSpi</t>
+  </si>
+  <si>
+    <t>MyoCoy</t>
+  </si>
+  <si>
+    <t>proto.106-MyoCoy</t>
+  </si>
+  <si>
+    <t>proto.107-MyoCoy</t>
+  </si>
+  <si>
+    <t>proto.127-MyoCoy</t>
+  </si>
+  <si>
+    <t>proto.139-MyoCoy</t>
+  </si>
+  <si>
+    <t>proto.140-MyoCoy</t>
+  </si>
+  <si>
+    <t>proto.144-MyoCoy</t>
+  </si>
+  <si>
+    <t>proto.145-CteSoc</t>
+  </si>
+  <si>
+    <t>CteSoc</t>
+  </si>
+  <si>
+    <t>proto.167-VomUrs</t>
+  </si>
+  <si>
+    <t>proto.168-MyoCoy</t>
+  </si>
+  <si>
+    <t>proto.169-MacEug</t>
+  </si>
+  <si>
+    <t>MacEug</t>
+  </si>
+  <si>
+    <t>proto.170-GraMur</t>
+  </si>
+  <si>
+    <t>GraMur</t>
+  </si>
+  <si>
+    <t>proto.171-MonDom</t>
+  </si>
+  <si>
+    <t>proto.172-MonDom</t>
+  </si>
+  <si>
+    <t>proto.173-GraMur</t>
+  </si>
+  <si>
+    <t>proto.174-OctDeg</t>
+  </si>
+  <si>
+    <t>proto.176-NanGal</t>
+  </si>
+  <si>
+    <t>proto.177-EreDor</t>
+  </si>
+  <si>
+    <t>proto.178-EreDor</t>
+  </si>
+  <si>
+    <t>proto.179-MicTal</t>
+  </si>
+  <si>
+    <t>proto.180-PhaCin</t>
+  </si>
+  <si>
+    <t>proto.181-PhaCin</t>
+  </si>
+  <si>
+    <t>proto.182-PhaCin</t>
+  </si>
+  <si>
+    <t>proto.183-PhaCin</t>
+  </si>
+  <si>
+    <t>proto.184-PhaCin</t>
+  </si>
+  <si>
+    <t>proto.185-PhaCin</t>
+  </si>
+  <si>
+    <t>proto.186-PhaCin</t>
+  </si>
+  <si>
+    <t>proto.187-PhaCin</t>
+  </si>
+  <si>
+    <t>proto.188-PhaCin</t>
+  </si>
+  <si>
+    <t>proto.190-EchTel</t>
+  </si>
+  <si>
+    <t>proto.191-MyoCoy</t>
+  </si>
+  <si>
+    <t>proto.192-CteSoc</t>
+  </si>
+  <si>
+    <t>proto.193-CteSoc</t>
+  </si>
+  <si>
+    <t>proto.194-SarHar</t>
+  </si>
+  <si>
+    <t>proto.195-SarHar</t>
+  </si>
+  <si>
+    <t>proto.196-SarHar</t>
+  </si>
+  <si>
+    <t>proto.197-DinBra</t>
+  </si>
+  <si>
+    <t>proto.198-MonDom</t>
+  </si>
+  <si>
+    <t>proto.199-OryAfe</t>
+  </si>
+  <si>
+    <t>proto.200-OryAfe</t>
+  </si>
+  <si>
+    <t>proto.201-ChrAsi</t>
+  </si>
+  <si>
+    <t>proto.202-ChrAsi</t>
+  </si>
+  <si>
+    <t>proto.203-GymLea</t>
+  </si>
+  <si>
+    <t>proto.204-GymLea</t>
+  </si>
+  <si>
+    <t>proto.205-GymLea</t>
+  </si>
+  <si>
+    <t>proto.206-GymLea</t>
+  </si>
+  <si>
+    <t>proto.207-GymLea</t>
+  </si>
+  <si>
+    <t>proto.208-OctDeg</t>
+  </si>
+  <si>
+    <t>proto.209-MacEug</t>
+  </si>
+  <si>
+    <t>proto.211-MacEug</t>
+  </si>
+  <si>
+    <t>proto.212-MacEug</t>
+  </si>
+  <si>
+    <t>proto.213-MacEug</t>
+  </si>
+  <si>
+    <t>proto.214-MacEug</t>
+  </si>
+  <si>
+    <t>proto.215-MacEug</t>
+  </si>
+  <si>
+    <t>proto.216-MacEug</t>
+  </si>
+  <si>
+    <t>proto.217-VomUrs</t>
+  </si>
+  <si>
+    <t>proto.218-VomUrs</t>
+  </si>
+  <si>
+    <t>proto.219-TriMan</t>
   </si>
 </sst>
 </file>
@@ -1051,8 +1051,8 @@
   <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="A1:T107"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="A1:T107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>22</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>18</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -1206,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>18</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
@@ -1310,7 +1310,7 @@
         <v>22</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>18</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -1330,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1372,7 +1372,7 @@
         <v>22</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>18</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -1392,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1434,7 +1434,7 @@
         <v>22</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>18</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="B7" s="17">
         <v>101</v>
@@ -1454,7 +1454,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>19</v>
@@ -1463,22 +1463,22 @@
         <v>19</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>22</v>
@@ -1496,7 +1496,7 @@
         <v>22</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>18</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="B8" s="17">
         <v>102</v>
@@ -1516,7 +1516,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>19</v>
@@ -1558,7 +1558,7 @@
         <v>22</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>18</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="17">
         <v>103</v>
@@ -1578,7 +1578,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>19</v>
@@ -1587,22 +1587,22 @@
         <v>19</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>22</v>
@@ -1620,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>18</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B10" s="17">
         <v>104</v>
@@ -1640,7 +1640,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>19</v>
@@ -1649,22 +1649,22 @@
         <v>19</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>22</v>
@@ -1682,7 +1682,7 @@
         <v>22</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>18</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="B11" s="17">
         <v>106</v>
@@ -1702,7 +1702,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>19</v>
@@ -1711,22 +1711,22 @@
         <v>19</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>22</v>
@@ -1744,7 +1744,7 @@
         <v>22</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>18</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="B12" s="17">
         <v>107</v>
@@ -1764,7 +1764,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>19</v>
@@ -1773,22 +1773,22 @@
         <v>19</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>22</v>
@@ -1806,7 +1806,7 @@
         <v>22</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>18</v>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="B13" s="17">
         <v>108</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>19</v>
@@ -1835,22 +1835,22 @@
         <v>19</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>22</v>
@@ -1868,7 +1868,7 @@
         <v>22</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>18</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="17">
         <v>111</v>
@@ -1888,7 +1888,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>19</v>
@@ -1897,22 +1897,22 @@
         <v>19</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>22</v>
@@ -1930,7 +1930,7 @@
         <v>22</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>18</v>
@@ -1941,16 +1941,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B15" s="17">
         <v>120</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>19</v>
@@ -1959,22 +1959,22 @@
         <v>19</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>22</v>
@@ -1992,7 +1992,7 @@
         <v>22</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>18</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B16" s="17">
         <v>121</v>
@@ -2012,7 +2012,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>19</v>
@@ -2021,22 +2021,22 @@
         <v>19</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>22</v>
@@ -2054,7 +2054,7 @@
         <v>22</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>18</v>
@@ -2065,16 +2065,16 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B17" s="17">
         <v>122</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>19</v>
@@ -2083,22 +2083,22 @@
         <v>19</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>22</v>
@@ -2116,7 +2116,7 @@
         <v>22</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>18</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="17">
         <v>125</v>
@@ -2136,7 +2136,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>19</v>
@@ -2145,22 +2145,22 @@
         <v>19</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>22</v>
@@ -2178,7 +2178,7 @@
         <v>22</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>18</v>
@@ -2189,16 +2189,16 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="17">
         <v>126</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>19</v>
@@ -2207,22 +2207,22 @@
         <v>19</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>22</v>
@@ -2240,7 +2240,7 @@
         <v>22</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>18</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="B20" s="17">
         <v>127</v>
@@ -2260,7 +2260,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>19</v>
@@ -2269,22 +2269,22 @@
         <v>19</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>22</v>
@@ -2302,7 +2302,7 @@
         <v>22</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>18</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="17">
         <v>128</v>
@@ -2322,7 +2322,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>19</v>
@@ -2331,22 +2331,22 @@
         <v>19</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>22</v>
@@ -2364,7 +2364,7 @@
         <v>22</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>18</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="17">
         <v>129</v>
@@ -2384,7 +2384,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>19</v>
@@ -2393,22 +2393,22 @@
         <v>19</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>22</v>
@@ -2426,7 +2426,7 @@
         <v>22</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>18</v>
@@ -2437,16 +2437,16 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B23" s="17">
         <v>130</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>19</v>
@@ -2455,22 +2455,22 @@
         <v>19</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>22</v>
@@ -2488,7 +2488,7 @@
         <v>22</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>18</v>
@@ -2499,16 +2499,16 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="17">
         <v>131</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>19</v>
@@ -2517,22 +2517,22 @@
         <v>19</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>22</v>
@@ -2550,7 +2550,7 @@
         <v>22</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>18</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="17">
         <v>132</v>
@@ -2570,7 +2570,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>19</v>
@@ -2579,22 +2579,22 @@
         <v>19</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>22</v>
@@ -2612,7 +2612,7 @@
         <v>22</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S25" s="11" t="s">
         <v>18</v>
@@ -2623,16 +2623,16 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="17">
         <v>133</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>19</v>
@@ -2641,22 +2641,22 @@
         <v>19</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>22</v>
@@ -2674,7 +2674,7 @@
         <v>22</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>18</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="17">
         <v>134</v>
@@ -2694,7 +2694,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>19</v>
@@ -2703,22 +2703,22 @@
         <v>19</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>22</v>
@@ -2736,7 +2736,7 @@
         <v>22</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S27" s="11" t="s">
         <v>18</v>
@@ -2747,16 +2747,16 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="17">
         <v>135</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>19</v>
@@ -2765,22 +2765,22 @@
         <v>19</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>22</v>
@@ -2798,7 +2798,7 @@
         <v>22</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S28" s="11" t="s">
         <v>18</v>
@@ -2809,16 +2809,16 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="17">
         <v>136</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>19</v>
@@ -2827,22 +2827,22 @@
         <v>19</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>22</v>
@@ -2860,7 +2860,7 @@
         <v>22</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>18</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="17">
         <v>137</v>
@@ -2880,7 +2880,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>19</v>
@@ -2889,22 +2889,22 @@
         <v>19</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>22</v>
@@ -2922,7 +2922,7 @@
         <v>22</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>18</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="17">
         <v>138</v>
@@ -2942,7 +2942,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>19</v>
@@ -2951,22 +2951,22 @@
         <v>19</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>22</v>
@@ -2984,7 +2984,7 @@
         <v>22</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>18</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B32" s="17">
         <v>139</v>
@@ -3004,7 +3004,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>19</v>
@@ -3013,22 +3013,22 @@
         <v>19</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>22</v>
@@ -3046,7 +3046,7 @@
         <v>22</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>18</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B33" s="17">
         <v>140</v>
@@ -3066,7 +3066,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>19</v>
@@ -3075,22 +3075,22 @@
         <v>19</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>22</v>
@@ -3108,7 +3108,7 @@
         <v>22</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>18</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B34" s="17">
         <v>141</v>
@@ -3128,7 +3128,7 @@
         <v>23</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>19</v>
@@ -3137,22 +3137,22 @@
         <v>19</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>22</v>
@@ -3170,7 +3170,7 @@
         <v>22</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>18</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" s="17">
         <v>142</v>
@@ -3190,7 +3190,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>19</v>
@@ -3199,22 +3199,22 @@
         <v>19</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>22</v>
@@ -3232,7 +3232,7 @@
         <v>22</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>18</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="17">
         <v>143</v>
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>19</v>
@@ -3261,22 +3261,22 @@
         <v>19</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>22</v>
@@ -3294,7 +3294,7 @@
         <v>22</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S36" s="11" t="s">
         <v>18</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B37" s="17">
         <v>144</v>
@@ -3314,7 +3314,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>19</v>
@@ -3323,22 +3323,22 @@
         <v>19</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>22</v>
@@ -3356,7 +3356,7 @@
         <v>22</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>18</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B38" s="17">
         <v>145</v>
@@ -3376,7 +3376,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>19</v>
@@ -3385,22 +3385,22 @@
         <v>19</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>22</v>
@@ -3418,7 +3418,7 @@
         <v>22</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S38" s="11" t="s">
         <v>18</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B39" s="17">
         <v>150</v>
@@ -3438,7 +3438,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>19</v>
@@ -3447,22 +3447,22 @@
         <v>19</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>22</v>
@@ -3480,7 +3480,7 @@
         <v>22</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>18</v>
@@ -3491,16 +3491,16 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="B40" s="17">
         <v>151</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>19</v>
@@ -3509,22 +3509,22 @@
         <v>19</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>22</v>
@@ -3542,7 +3542,7 @@
         <v>22</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>18</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41" s="17">
         <v>152</v>
@@ -3562,7 +3562,7 @@
         <v>23</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>19</v>
@@ -3571,22 +3571,22 @@
         <v>19</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>22</v>
@@ -3604,7 +3604,7 @@
         <v>22</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S41" s="11" t="s">
         <v>18</v>
@@ -3615,16 +3615,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B42" s="17">
         <v>153</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>19</v>
@@ -3633,22 +3633,22 @@
         <v>19</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>22</v>
@@ -3666,7 +3666,7 @@
         <v>22</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>18</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B43" s="17">
         <v>154</v>
@@ -3686,7 +3686,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>19</v>
@@ -3695,22 +3695,22 @@
         <v>19</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>22</v>
@@ -3728,7 +3728,7 @@
         <v>22</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S43" s="11" t="s">
         <v>18</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B44" s="17">
         <v>155</v>
@@ -3748,7 +3748,7 @@
         <v>23</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>19</v>
@@ -3757,22 +3757,22 @@
         <v>19</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>22</v>
@@ -3790,7 +3790,7 @@
         <v>22</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S44" s="11" t="s">
         <v>18</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B45" s="17">
         <v>156</v>
@@ -3810,7 +3810,7 @@
         <v>23</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>19</v>
@@ -3819,22 +3819,22 @@
         <v>19</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>22</v>
@@ -3852,7 +3852,7 @@
         <v>22</v>
       </c>
       <c r="R45" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S45" s="11" t="s">
         <v>18</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B46" s="17">
         <v>157</v>
@@ -3872,7 +3872,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>19</v>
@@ -3881,22 +3881,22 @@
         <v>19</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>22</v>
@@ -3914,7 +3914,7 @@
         <v>22</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S46" s="11" t="s">
         <v>18</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B47" s="17">
         <v>158</v>
@@ -3934,7 +3934,7 @@
         <v>23</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>19</v>
@@ -3943,22 +3943,22 @@
         <v>19</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>22</v>
@@ -3976,7 +3976,7 @@
         <v>22</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S47" s="11" t="s">
         <v>18</v>
@@ -3987,16 +3987,16 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B48" s="17">
         <v>159</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>19</v>
@@ -4005,22 +4005,22 @@
         <v>19</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>22</v>
@@ -4038,7 +4038,7 @@
         <v>22</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S48" s="11" t="s">
         <v>18</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B49" s="17">
         <v>160</v>
@@ -4058,7 +4058,7 @@
         <v>23</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>19</v>
@@ -4067,22 +4067,22 @@
         <v>19</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>22</v>
@@ -4100,7 +4100,7 @@
         <v>22</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S49" s="11" t="s">
         <v>18</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B50" s="17">
         <v>161</v>
@@ -4120,7 +4120,7 @@
         <v>23</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>19</v>
@@ -4129,22 +4129,22 @@
         <v>19</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>22</v>
@@ -4162,7 +4162,7 @@
         <v>22</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>18</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B51" s="17">
         <v>162</v>
@@ -4182,7 +4182,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>19</v>
@@ -4191,22 +4191,22 @@
         <v>19</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>22</v>
@@ -4224,7 +4224,7 @@
         <v>22</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>18</v>
@@ -4235,16 +4235,16 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B52" s="17">
         <v>163</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>19</v>
@@ -4253,22 +4253,22 @@
         <v>19</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>22</v>
@@ -4286,7 +4286,7 @@
         <v>22</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S52" s="11" t="s">
         <v>18</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B53" s="17">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>23</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>19</v>
@@ -4315,22 +4315,22 @@
         <v>19</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>22</v>
@@ -4348,7 +4348,7 @@
         <v>22</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S53" s="11" t="s">
         <v>18</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B54" s="17">
         <v>165</v>
@@ -4368,7 +4368,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>19</v>
@@ -4377,22 +4377,22 @@
         <v>19</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>22</v>
@@ -4410,7 +4410,7 @@
         <v>22</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S54" s="11" t="s">
         <v>18</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B55" s="17">
         <v>166</v>
@@ -4430,7 +4430,7 @@
         <v>23</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>19</v>
@@ -4439,22 +4439,22 @@
         <v>19</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>22</v>
@@ -4472,7 +4472,7 @@
         <v>22</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S55" s="11" t="s">
         <v>18</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B56" s="17">
         <v>167</v>
@@ -4492,7 +4492,7 @@
         <v>23</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>19</v>
@@ -4501,22 +4501,22 @@
         <v>19</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>22</v>
@@ -4534,7 +4534,7 @@
         <v>22</v>
       </c>
       <c r="R56" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S56" s="11" t="s">
         <v>18</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B57" s="17">
         <v>168</v>
@@ -4554,7 +4554,7 @@
         <v>23</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>19</v>
@@ -4563,22 +4563,22 @@
         <v>19</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>22</v>
@@ -4596,7 +4596,7 @@
         <v>22</v>
       </c>
       <c r="R57" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S57" s="11" t="s">
         <v>18</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B58" s="17">
         <v>169</v>
@@ -4616,7 +4616,7 @@
         <v>23</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>19</v>
@@ -4625,22 +4625,22 @@
         <v>19</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>22</v>
@@ -4658,7 +4658,7 @@
         <v>22</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S58" s="11" t="s">
         <v>18</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="B59" s="17">
         <v>170</v>
@@ -4678,7 +4678,7 @@
         <v>23</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>19</v>
@@ -4687,22 +4687,22 @@
         <v>19</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>22</v>
@@ -4720,7 +4720,7 @@
         <v>22</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S59" s="11" t="s">
         <v>18</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="B60" s="17">
         <v>171</v>
@@ -4740,7 +4740,7 @@
         <v>23</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>19</v>
@@ -4749,22 +4749,22 @@
         <v>19</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>22</v>
@@ -4782,7 +4782,7 @@
         <v>22</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S60" s="11" t="s">
         <v>18</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="B61" s="17">
         <v>172</v>
@@ -4802,7 +4802,7 @@
         <v>23</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>19</v>
@@ -4811,22 +4811,22 @@
         <v>19</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>22</v>
@@ -4844,7 +4844,7 @@
         <v>22</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S61" s="11" t="s">
         <v>18</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B62" s="17">
         <v>173</v>
@@ -4864,7 +4864,7 @@
         <v>23</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>19</v>
@@ -4873,22 +4873,22 @@
         <v>19</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>22</v>
@@ -4906,7 +4906,7 @@
         <v>22</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S62" s="11" t="s">
         <v>18</v>
@@ -4917,16 +4917,16 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="B63" s="17">
         <v>174</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>19</v>
@@ -4935,22 +4935,22 @@
         <v>19</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>22</v>
@@ -4968,7 +4968,7 @@
         <v>22</v>
       </c>
       <c r="R63" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S63" s="11" t="s">
         <v>18</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="B64" s="17">
         <v>176</v>
@@ -4988,7 +4988,7 @@
         <v>23</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>19</v>
@@ -4997,22 +4997,22 @@
         <v>19</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>22</v>
@@ -5030,7 +5030,7 @@
         <v>22</v>
       </c>
       <c r="R64" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S64" s="11" t="s">
         <v>18</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B65" s="17">
         <v>177</v>
@@ -5050,7 +5050,7 @@
         <v>23</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>19</v>
@@ -5059,22 +5059,22 @@
         <v>19</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>22</v>
@@ -5092,7 +5092,7 @@
         <v>22</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S65" s="11" t="s">
         <v>18</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B66" s="17">
         <v>178</v>
@@ -5112,7 +5112,7 @@
         <v>23</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>19</v>
@@ -5121,22 +5121,22 @@
         <v>19</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>22</v>
@@ -5154,7 +5154,7 @@
         <v>22</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S66" s="11" t="s">
         <v>18</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="B67" s="17">
         <v>179</v>
@@ -5174,7 +5174,7 @@
         <v>23</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>19</v>
@@ -5183,22 +5183,22 @@
         <v>19</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>22</v>
@@ -5216,7 +5216,7 @@
         <v>22</v>
       </c>
       <c r="R67" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S67" s="11" t="s">
         <v>18</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="B68" s="17">
         <v>180</v>
@@ -5236,7 +5236,7 @@
         <v>23</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>19</v>
@@ -5245,22 +5245,22 @@
         <v>19</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>22</v>
@@ -5278,7 +5278,7 @@
         <v>22</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S68" s="11" t="s">
         <v>18</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="B69" s="17">
         <v>181</v>
@@ -5298,7 +5298,7 @@
         <v>23</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>19</v>
@@ -5307,22 +5307,22 @@
         <v>19</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>22</v>
@@ -5340,7 +5340,7 @@
         <v>22</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S69" s="11" t="s">
         <v>18</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="B70" s="17">
         <v>182</v>
@@ -5360,7 +5360,7 @@
         <v>23</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>19</v>
@@ -5369,22 +5369,22 @@
         <v>19</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>22</v>
@@ -5402,7 +5402,7 @@
         <v>22</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S70" s="11" t="s">
         <v>18</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B71" s="17">
         <v>183</v>
@@ -5422,7 +5422,7 @@
         <v>23</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>19</v>
@@ -5431,22 +5431,22 @@
         <v>19</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>22</v>
@@ -5464,7 +5464,7 @@
         <v>22</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S71" s="11" t="s">
         <v>18</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B72" s="17">
         <v>184</v>
@@ -5484,7 +5484,7 @@
         <v>23</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>19</v>
@@ -5493,22 +5493,22 @@
         <v>19</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>22</v>
@@ -5526,7 +5526,7 @@
         <v>22</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S72" s="11" t="s">
         <v>18</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B73" s="17">
         <v>185</v>
@@ -5546,7 +5546,7 @@
         <v>23</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>19</v>
@@ -5555,22 +5555,22 @@
         <v>19</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>22</v>
@@ -5588,7 +5588,7 @@
         <v>22</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S73" s="11" t="s">
         <v>18</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="B74" s="17">
         <v>186</v>
@@ -5608,7 +5608,7 @@
         <v>23</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>19</v>
@@ -5617,22 +5617,22 @@
         <v>19</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>22</v>
@@ -5650,7 +5650,7 @@
         <v>22</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S74" s="11" t="s">
         <v>18</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B75" s="17">
         <v>187</v>
@@ -5670,7 +5670,7 @@
         <v>23</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>19</v>
@@ -5679,22 +5679,22 @@
         <v>19</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>22</v>
@@ -5712,7 +5712,7 @@
         <v>22</v>
       </c>
       <c r="R75" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S75" s="11" t="s">
         <v>18</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="B76" s="17">
         <v>188</v>
@@ -5732,7 +5732,7 @@
         <v>23</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>19</v>
@@ -5741,22 +5741,22 @@
         <v>19</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>22</v>
@@ -5774,7 +5774,7 @@
         <v>22</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S76" s="11" t="s">
         <v>18</v>
@@ -5785,16 +5785,16 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B77" s="17">
         <v>189</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>19</v>
@@ -5803,22 +5803,22 @@
         <v>19</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>22</v>
@@ -5836,7 +5836,7 @@
         <v>22</v>
       </c>
       <c r="R77" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S77" s="11" t="s">
         <v>18</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B78" s="17">
         <v>190</v>
@@ -5856,7 +5856,7 @@
         <v>23</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>19</v>
@@ -5865,22 +5865,22 @@
         <v>19</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>22</v>
@@ -5898,7 +5898,7 @@
         <v>22</v>
       </c>
       <c r="R78" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S78" s="11" t="s">
         <v>18</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="B79" s="17">
         <v>191</v>
@@ -5918,7 +5918,7 @@
         <v>23</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>19</v>
@@ -5927,22 +5927,22 @@
         <v>19</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>22</v>
@@ -5960,7 +5960,7 @@
         <v>22</v>
       </c>
       <c r="R79" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S79" s="11" t="s">
         <v>18</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B80" s="17">
         <v>192</v>
@@ -5980,7 +5980,7 @@
         <v>23</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>19</v>
@@ -5989,22 +5989,22 @@
         <v>19</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K80" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L80" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>22</v>
@@ -6022,7 +6022,7 @@
         <v>22</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S80" s="11" t="s">
         <v>18</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B81" s="17">
         <v>193</v>
@@ -6042,7 +6042,7 @@
         <v>23</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>19</v>
@@ -6051,22 +6051,22 @@
         <v>19</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L81" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>22</v>
@@ -6084,7 +6084,7 @@
         <v>22</v>
       </c>
       <c r="R81" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S81" s="11" t="s">
         <v>18</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="B82" s="17">
         <v>194</v>
@@ -6104,7 +6104,7 @@
         <v>23</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E82" s="18" t="s">
         <v>19</v>
@@ -6113,22 +6113,22 @@
         <v>19</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>22</v>
@@ -6146,7 +6146,7 @@
         <v>22</v>
       </c>
       <c r="R82" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S82" s="11" t="s">
         <v>18</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="B83" s="17">
         <v>195</v>
@@ -6166,7 +6166,7 @@
         <v>23</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E83" s="18" t="s">
         <v>19</v>
@@ -6175,22 +6175,22 @@
         <v>19</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>22</v>
@@ -6208,7 +6208,7 @@
         <v>22</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S83" s="11" t="s">
         <v>18</v>
@@ -6219,7 +6219,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="B84" s="17">
         <v>196</v>
@@ -6228,7 +6228,7 @@
         <v>23</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>19</v>
@@ -6237,22 +6237,22 @@
         <v>19</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>22</v>
@@ -6270,7 +6270,7 @@
         <v>22</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S84" s="11" t="s">
         <v>18</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B85" s="17">
         <v>197</v>
@@ -6290,7 +6290,7 @@
         <v>23</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>19</v>
@@ -6299,22 +6299,22 @@
         <v>19</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L85" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>22</v>
@@ -6332,7 +6332,7 @@
         <v>22</v>
       </c>
       <c r="R85" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S85" s="11" t="s">
         <v>18</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B86" s="17">
         <v>198</v>
@@ -6352,7 +6352,7 @@
         <v>23</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>19</v>
@@ -6361,22 +6361,22 @@
         <v>19</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L86" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>22</v>
@@ -6394,7 +6394,7 @@
         <v>22</v>
       </c>
       <c r="R86" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S86" s="11" t="s">
         <v>18</v>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B87" s="17">
         <v>199</v>
@@ -6414,7 +6414,7 @@
         <v>23</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>19</v>
@@ -6423,22 +6423,22 @@
         <v>19</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L87" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>22</v>
@@ -6456,7 +6456,7 @@
         <v>22</v>
       </c>
       <c r="R87" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S87" s="11" t="s">
         <v>18</v>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B88" s="17">
         <v>200</v>
@@ -6476,7 +6476,7 @@
         <v>23</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>19</v>
@@ -6485,22 +6485,22 @@
         <v>19</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L88" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>22</v>
@@ -6518,7 +6518,7 @@
         <v>22</v>
       </c>
       <c r="R88" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S88" s="11" t="s">
         <v>18</v>
@@ -6529,7 +6529,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B89" s="17">
         <v>201</v>
@@ -6538,7 +6538,7 @@
         <v>23</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>19</v>
@@ -6547,22 +6547,22 @@
         <v>19</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L89" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>22</v>
@@ -6580,7 +6580,7 @@
         <v>22</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S89" s="11" t="s">
         <v>18</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B90" s="17">
         <v>202</v>
@@ -6600,7 +6600,7 @@
         <v>23</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>19</v>
@@ -6609,22 +6609,22 @@
         <v>19</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>22</v>
@@ -6642,7 +6642,7 @@
         <v>22</v>
       </c>
       <c r="R90" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S90" s="11" t="s">
         <v>18</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="B91" s="17">
         <v>203</v>
@@ -6662,7 +6662,7 @@
         <v>23</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>19</v>
@@ -6671,22 +6671,22 @@
         <v>19</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L91" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>22</v>
@@ -6704,7 +6704,7 @@
         <v>22</v>
       </c>
       <c r="R91" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S91" s="11" t="s">
         <v>18</v>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B92" s="17">
         <v>204</v>
@@ -6724,7 +6724,7 @@
         <v>23</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E92" s="18" t="s">
         <v>19</v>
@@ -6733,22 +6733,22 @@
         <v>19</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L92" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>22</v>
@@ -6766,7 +6766,7 @@
         <v>22</v>
       </c>
       <c r="R92" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S92" s="11" t="s">
         <v>18</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="B93" s="17">
         <v>205</v>
@@ -6786,7 +6786,7 @@
         <v>23</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>19</v>
@@ -6795,22 +6795,22 @@
         <v>19</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L93" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>22</v>
@@ -6828,7 +6828,7 @@
         <v>22</v>
       </c>
       <c r="R93" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S93" s="11" t="s">
         <v>18</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B94" s="17">
         <v>206</v>
@@ -6848,7 +6848,7 @@
         <v>23</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>19</v>
@@ -6857,22 +6857,22 @@
         <v>19</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L94" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>22</v>
@@ -6890,7 +6890,7 @@
         <v>22</v>
       </c>
       <c r="R94" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S94" s="11" t="s">
         <v>18</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="B95" s="17">
         <v>207</v>
@@ -6910,7 +6910,7 @@
         <v>23</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>19</v>
@@ -6919,22 +6919,22 @@
         <v>19</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L95" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>22</v>
@@ -6952,7 +6952,7 @@
         <v>22</v>
       </c>
       <c r="R95" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S95" s="11" t="s">
         <v>18</v>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="B96" s="17">
         <v>208</v>
@@ -6972,7 +6972,7 @@
         <v>23</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>19</v>
@@ -6981,22 +6981,22 @@
         <v>19</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J96" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L96" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>22</v>
@@ -7014,7 +7014,7 @@
         <v>22</v>
       </c>
       <c r="R96" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S96" s="11" t="s">
         <v>18</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B97" s="17">
         <v>209</v>
@@ -7034,7 +7034,7 @@
         <v>23</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>19</v>
@@ -7043,22 +7043,22 @@
         <v>19</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J97" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L97" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>22</v>
@@ -7076,7 +7076,7 @@
         <v>22</v>
       </c>
       <c r="R97" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S97" s="11" t="s">
         <v>18</v>
@@ -7087,7 +7087,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B98" s="17">
         <v>210</v>
@@ -7096,7 +7096,7 @@
         <v>23</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>19</v>
@@ -7105,22 +7105,22 @@
         <v>19</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J98" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L98" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>22</v>
@@ -7138,7 +7138,7 @@
         <v>22</v>
       </c>
       <c r="R98" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S98" s="11" t="s">
         <v>18</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B99" s="17">
         <v>211</v>
@@ -7158,7 +7158,7 @@
         <v>23</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>19</v>
@@ -7167,22 +7167,22 @@
         <v>19</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J99" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>22</v>
@@ -7200,7 +7200,7 @@
         <v>22</v>
       </c>
       <c r="R99" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S99" s="11" t="s">
         <v>18</v>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B100" s="17">
         <v>212</v>
@@ -7220,7 +7220,7 @@
         <v>23</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>19</v>
@@ -7229,22 +7229,22 @@
         <v>19</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L100" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M100" s="8" t="s">
         <v>22</v>
@@ -7262,7 +7262,7 @@
         <v>22</v>
       </c>
       <c r="R100" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S100" s="11" t="s">
         <v>18</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B101" s="17">
         <v>213</v>
@@ -7282,7 +7282,7 @@
         <v>23</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>19</v>
@@ -7291,22 +7291,22 @@
         <v>19</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J101" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M101" s="8" t="s">
         <v>22</v>
@@ -7324,7 +7324,7 @@
         <v>22</v>
       </c>
       <c r="R101" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S101" s="11" t="s">
         <v>18</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B102" s="17">
         <v>214</v>
@@ -7344,7 +7344,7 @@
         <v>23</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>19</v>
@@ -7353,22 +7353,22 @@
         <v>19</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J102" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>22</v>
@@ -7386,7 +7386,7 @@
         <v>22</v>
       </c>
       <c r="R102" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S102" s="11" t="s">
         <v>18</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B103" s="17">
         <v>215</v>
@@ -7406,7 +7406,7 @@
         <v>23</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>19</v>
@@ -7415,22 +7415,22 @@
         <v>19</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J103" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>22</v>
@@ -7448,7 +7448,7 @@
         <v>22</v>
       </c>
       <c r="R103" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S103" s="11" t="s">
         <v>18</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B104" s="17">
         <v>216</v>
@@ -7468,7 +7468,7 @@
         <v>23</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>19</v>
@@ -7477,22 +7477,22 @@
         <v>19</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J104" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L104" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M104" s="8" t="s">
         <v>22</v>
@@ -7510,7 +7510,7 @@
         <v>22</v>
       </c>
       <c r="R104" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S104" s="11" t="s">
         <v>18</v>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="B105" s="17">
         <v>217</v>
@@ -7530,7 +7530,7 @@
         <v>23</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E105" s="18" t="s">
         <v>19</v>
@@ -7539,22 +7539,22 @@
         <v>19</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J105" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>22</v>
@@ -7572,7 +7572,7 @@
         <v>22</v>
       </c>
       <c r="R105" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S105" s="11" t="s">
         <v>18</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="B106" s="17">
         <v>218</v>
@@ -7592,7 +7592,7 @@
         <v>23</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E106" s="18" t="s">
         <v>19</v>
@@ -7601,22 +7601,22 @@
         <v>19</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J106" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>22</v>
@@ -7634,7 +7634,7 @@
         <v>22</v>
       </c>
       <c r="R106" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S106" s="11" t="s">
         <v>18</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="B107" s="17">
         <v>219</v>
@@ -7654,7 +7654,7 @@
         <v>23</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="E107" s="18" t="s">
         <v>19</v>
@@ -7663,22 +7663,22 @@
         <v>19</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>22</v>
@@ -7696,7 +7696,7 @@
         <v>22</v>
       </c>
       <c r="R107" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S107" s="11" t="s">
         <v>18</v>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACFA683-3B47-C042-B1F8-6F9F05AF7DE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFDE145-53BB-5343-A97A-61738A6AF72E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="4680" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
+    <workbookView xWindow="12560" yWindow="500" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="177">
   <si>
     <t>locus_numeric_id</t>
   </si>
@@ -213,9 +213,6 @@
     <t>proto.165-Phascolarctos</t>
   </si>
   <si>
-    <t>proto.166-Gymnobelideus</t>
-  </si>
-  <si>
     <t>Proto-B</t>
   </si>
   <si>
@@ -318,12 +315,6 @@
     <t>Trichechus</t>
   </si>
   <si>
-    <t>proto.1-rattus</t>
-  </si>
-  <si>
-    <t>proto.101-monodelphis</t>
-  </si>
-  <si>
     <t>proto.102-tamandua</t>
   </si>
   <si>
@@ -369,9 +360,6 @@
     <t>Diprodontia</t>
   </si>
   <si>
-    <t>proto.104-monodelphis</t>
-  </si>
-  <si>
     <t>proto.210-diprotodontia</t>
   </si>
   <si>
@@ -390,9 +378,6 @@
     <t>proto.107-MyoCoy</t>
   </si>
   <si>
-    <t>proto.127-MyoCoy</t>
-  </si>
-  <si>
     <t>proto.139-MyoCoy</t>
   </si>
   <si>
@@ -562,6 +547,24 @@
   </si>
   <si>
     <t>proto.219-TriMan</t>
+  </si>
+  <si>
+    <t>proto.1-RatNor</t>
+  </si>
+  <si>
+    <t>proto.101-MonDom</t>
+  </si>
+  <si>
+    <t>proto.104-MonDom</t>
+  </si>
+  <si>
+    <t>proto.127-Capromys</t>
+  </si>
+  <si>
+    <t>Myocastor coypus</t>
+  </si>
+  <si>
+    <t>proto.166-MacEug</t>
   </si>
 </sst>
 </file>
@@ -1051,8 +1054,8 @@
   <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="A1:T107"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="A1:T107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,7 +1138,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1186,7 +1189,7 @@
         <v>22</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>18</v>
@@ -1197,7 +1200,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -1206,7 +1209,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1248,7 +1251,7 @@
         <v>22</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>18</v>
@@ -1310,7 +1313,7 @@
         <v>22</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>18</v>
@@ -1321,7 +1324,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -1330,7 +1333,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1372,7 +1375,7 @@
         <v>22</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>18</v>
@@ -1383,7 +1386,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -1392,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1434,7 +1437,7 @@
         <v>22</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>18</v>
@@ -1445,7 +1448,7 @@
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="B7" s="17">
         <v>101</v>
@@ -1454,7 +1457,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>19</v>
@@ -1463,22 +1466,22 @@
         <v>19</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>22</v>
@@ -1496,7 +1499,7 @@
         <v>22</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>18</v>
@@ -1507,7 +1510,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B8" s="17">
         <v>102</v>
@@ -1516,7 +1519,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>19</v>
@@ -1558,7 +1561,7 @@
         <v>22</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>18</v>
@@ -1578,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>19</v>
@@ -1587,22 +1590,22 @@
         <v>19</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>22</v>
@@ -1620,7 +1623,7 @@
         <v>22</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>18</v>
@@ -1630,8 +1633,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>111</v>
+      <c r="A10" t="s">
+        <v>173</v>
       </c>
       <c r="B10" s="17">
         <v>104</v>
@@ -1640,7 +1643,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>19</v>
@@ -1649,22 +1652,22 @@
         <v>19</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>22</v>
@@ -1682,7 +1685,7 @@
         <v>22</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>18</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B11" s="17">
         <v>106</v>
@@ -1702,7 +1705,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>19</v>
@@ -1711,22 +1714,22 @@
         <v>19</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>22</v>
@@ -1744,7 +1747,7 @@
         <v>22</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>18</v>
@@ -1755,7 +1758,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" s="17">
         <v>107</v>
@@ -1764,7 +1767,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>19</v>
@@ -1773,22 +1776,22 @@
         <v>19</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>22</v>
@@ -1806,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>18</v>
@@ -1817,16 +1820,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" s="17">
         <v>108</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>19</v>
@@ -1835,22 +1838,22 @@
         <v>19</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>22</v>
@@ -1868,7 +1871,7 @@
         <v>22</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>18</v>
@@ -1888,7 +1891,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>19</v>
@@ -1897,22 +1900,22 @@
         <v>19</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>22</v>
@@ -1930,7 +1933,7 @@
         <v>22</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>18</v>
@@ -1941,16 +1944,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B15" s="17">
         <v>120</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>19</v>
@@ -1959,22 +1962,22 @@
         <v>19</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>22</v>
@@ -1992,7 +1995,7 @@
         <v>22</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>18</v>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B16" s="17">
         <v>121</v>
@@ -2012,7 +2015,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>19</v>
@@ -2021,22 +2024,22 @@
         <v>19</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>22</v>
@@ -2054,7 +2057,7 @@
         <v>22</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>18</v>
@@ -2065,16 +2068,16 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" s="17">
         <v>122</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>19</v>
@@ -2083,22 +2086,22 @@
         <v>19</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>22</v>
@@ -2116,7 +2119,7 @@
         <v>22</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>18</v>
@@ -2136,7 +2139,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>19</v>
@@ -2145,22 +2148,22 @@
         <v>19</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>22</v>
@@ -2178,7 +2181,7 @@
         <v>22</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>18</v>
@@ -2195,11 +2198,11 @@
         <v>126</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="E19" s="18" t="s">
         <v>19</v>
       </c>
@@ -2207,22 +2210,22 @@
         <v>19</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>22</v>
@@ -2240,7 +2243,7 @@
         <v>22</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>18</v>
@@ -2251,7 +2254,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B20" s="17">
         <v>127</v>
@@ -2260,7 +2263,7 @@
         <v>23</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>19</v>
@@ -2269,22 +2272,22 @@
         <v>19</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>22</v>
@@ -2302,7 +2305,7 @@
         <v>22</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>18</v>
@@ -2322,7 +2325,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>19</v>
@@ -2331,22 +2334,22 @@
         <v>19</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>22</v>
@@ -2364,7 +2367,7 @@
         <v>22</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>18</v>
@@ -2384,7 +2387,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>19</v>
@@ -2393,22 +2396,22 @@
         <v>19</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>22</v>
@@ -2426,7 +2429,7 @@
         <v>22</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>18</v>
@@ -2437,16 +2440,16 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B23" s="17">
         <v>130</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>19</v>
@@ -2455,22 +2458,22 @@
         <v>19</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>22</v>
@@ -2488,7 +2491,7 @@
         <v>22</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>18</v>
@@ -2505,10 +2508,10 @@
         <v>131</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>19</v>
@@ -2517,22 +2520,22 @@
         <v>19</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>22</v>
@@ -2550,7 +2553,7 @@
         <v>22</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>18</v>
@@ -2570,7 +2573,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>19</v>
@@ -2579,22 +2582,22 @@
         <v>19</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>22</v>
@@ -2612,7 +2615,7 @@
         <v>22</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S25" s="11" t="s">
         <v>18</v>
@@ -2629,10 +2632,10 @@
         <v>133</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>19</v>
@@ -2641,22 +2644,22 @@
         <v>19</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>22</v>
@@ -2674,7 +2677,7 @@
         <v>22</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>18</v>
@@ -2694,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>19</v>
@@ -2703,22 +2706,22 @@
         <v>19</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>22</v>
@@ -2736,7 +2739,7 @@
         <v>22</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S27" s="11" t="s">
         <v>18</v>
@@ -2753,10 +2756,10 @@
         <v>135</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>19</v>
@@ -2765,22 +2768,22 @@
         <v>19</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>22</v>
@@ -2798,7 +2801,7 @@
         <v>22</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S28" s="11" t="s">
         <v>18</v>
@@ -2815,11 +2818,11 @@
         <v>136</v>
       </c>
       <c r="C29" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
@@ -2827,22 +2830,22 @@
         <v>19</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>22</v>
@@ -2860,7 +2863,7 @@
         <v>22</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>18</v>
@@ -2880,7 +2883,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>19</v>
@@ -2889,22 +2892,22 @@
         <v>19</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>22</v>
@@ -2922,7 +2925,7 @@
         <v>22</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>18</v>
@@ -2942,7 +2945,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>19</v>
@@ -2951,22 +2954,22 @@
         <v>19</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>22</v>
@@ -2984,7 +2987,7 @@
         <v>22</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>18</v>
@@ -2995,7 +2998,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B32" s="17">
         <v>139</v>
@@ -3004,7 +3007,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>19</v>
@@ -3013,22 +3016,22 @@
         <v>19</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>22</v>
@@ -3046,7 +3049,7 @@
         <v>22</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>18</v>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B33" s="17">
         <v>140</v>
@@ -3066,7 +3069,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>19</v>
@@ -3075,22 +3078,22 @@
         <v>19</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>22</v>
@@ -3108,7 +3111,7 @@
         <v>22</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>18</v>
@@ -3128,7 +3131,7 @@
         <v>23</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>19</v>
@@ -3137,22 +3140,22 @@
         <v>19</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>22</v>
@@ -3170,7 +3173,7 @@
         <v>22</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>18</v>
@@ -3190,7 +3193,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>19</v>
@@ -3199,22 +3202,22 @@
         <v>19</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>22</v>
@@ -3232,7 +3235,7 @@
         <v>22</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>18</v>
@@ -3252,7 +3255,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>19</v>
@@ -3261,22 +3264,22 @@
         <v>19</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>22</v>
@@ -3294,7 +3297,7 @@
         <v>22</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S36" s="11" t="s">
         <v>18</v>
@@ -3305,7 +3308,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B37" s="17">
         <v>144</v>
@@ -3314,7 +3317,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>19</v>
@@ -3323,22 +3326,22 @@
         <v>19</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>22</v>
@@ -3356,7 +3359,7 @@
         <v>22</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>18</v>
@@ -3367,7 +3370,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B38" s="17">
         <v>145</v>
@@ -3376,7 +3379,7 @@
         <v>23</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>19</v>
@@ -3385,22 +3388,22 @@
         <v>19</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>22</v>
@@ -3418,7 +3421,7 @@
         <v>22</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S38" s="11" t="s">
         <v>18</v>
@@ -3438,7 +3441,7 @@
         <v>23</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>19</v>
@@ -3447,22 +3450,22 @@
         <v>19</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>22</v>
@@ -3480,7 +3483,7 @@
         <v>22</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>18</v>
@@ -3491,16 +3494,16 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B40" s="17">
         <v>151</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>19</v>
@@ -3509,22 +3512,22 @@
         <v>19</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>22</v>
@@ -3542,7 +3545,7 @@
         <v>22</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>18</v>
@@ -3562,7 +3565,7 @@
         <v>23</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>19</v>
@@ -3571,22 +3574,22 @@
         <v>19</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>22</v>
@@ -3604,7 +3607,7 @@
         <v>22</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S41" s="11" t="s">
         <v>18</v>
@@ -3621,10 +3624,10 @@
         <v>153</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>19</v>
@@ -3633,22 +3636,22 @@
         <v>19</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>22</v>
@@ -3666,7 +3669,7 @@
         <v>22</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>18</v>
@@ -3686,7 +3689,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>19</v>
@@ -3695,22 +3698,22 @@
         <v>19</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M43" s="8" t="s">
         <v>22</v>
@@ -3728,7 +3731,7 @@
         <v>22</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S43" s="11" t="s">
         <v>18</v>
@@ -3748,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>19</v>
@@ -3757,22 +3760,22 @@
         <v>19</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>22</v>
@@ -3790,7 +3793,7 @@
         <v>22</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S44" s="11" t="s">
         <v>18</v>
@@ -3810,7 +3813,7 @@
         <v>23</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>19</v>
@@ -3819,22 +3822,22 @@
         <v>19</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>22</v>
@@ -3852,7 +3855,7 @@
         <v>22</v>
       </c>
       <c r="R45" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S45" s="11" t="s">
         <v>18</v>
@@ -3872,7 +3875,7 @@
         <v>23</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>19</v>
@@ -3881,22 +3884,22 @@
         <v>19</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>22</v>
@@ -3914,7 +3917,7 @@
         <v>22</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S46" s="11" t="s">
         <v>18</v>
@@ -3934,7 +3937,7 @@
         <v>23</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>19</v>
@@ -3943,22 +3946,22 @@
         <v>19</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M47" s="8" t="s">
         <v>22</v>
@@ -3976,7 +3979,7 @@
         <v>22</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S47" s="11" t="s">
         <v>18</v>
@@ -3993,10 +3996,10 @@
         <v>159</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>19</v>
@@ -4005,22 +4008,22 @@
         <v>19</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M48" s="8" t="s">
         <v>22</v>
@@ -4038,7 +4041,7 @@
         <v>22</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S48" s="11" t="s">
         <v>18</v>
@@ -4058,7 +4061,7 @@
         <v>23</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>19</v>
@@ -4067,22 +4070,22 @@
         <v>19</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>22</v>
@@ -4100,7 +4103,7 @@
         <v>22</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S49" s="11" t="s">
         <v>18</v>
@@ -4120,7 +4123,7 @@
         <v>23</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>19</v>
@@ -4129,22 +4132,22 @@
         <v>19</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>22</v>
@@ -4162,7 +4165,7 @@
         <v>22</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>18</v>
@@ -4182,7 +4185,7 @@
         <v>23</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>19</v>
@@ -4191,22 +4194,22 @@
         <v>19</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>22</v>
@@ -4224,7 +4227,7 @@
         <v>22</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>18</v>
@@ -4241,10 +4244,10 @@
         <v>163</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>19</v>
@@ -4253,22 +4256,22 @@
         <v>19</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M52" s="8" t="s">
         <v>22</v>
@@ -4286,7 +4289,7 @@
         <v>22</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S52" s="11" t="s">
         <v>18</v>
@@ -4306,7 +4309,7 @@
         <v>23</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>19</v>
@@ -4315,22 +4318,22 @@
         <v>19</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>22</v>
@@ -4348,7 +4351,7 @@
         <v>22</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S53" s="11" t="s">
         <v>18</v>
@@ -4368,7 +4371,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>19</v>
@@ -4377,22 +4380,22 @@
         <v>19</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M54" s="8" t="s">
         <v>22</v>
@@ -4410,7 +4413,7 @@
         <v>22</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S54" s="11" t="s">
         <v>18</v>
@@ -4420,8 +4423,8 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>59</v>
+      <c r="A55" t="s">
+        <v>176</v>
       </c>
       <c r="B55" s="17">
         <v>166</v>
@@ -4430,7 +4433,7 @@
         <v>23</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>19</v>
@@ -4439,22 +4442,22 @@
         <v>19</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M55" s="8" t="s">
         <v>22</v>
@@ -4472,7 +4475,7 @@
         <v>22</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S55" s="11" t="s">
         <v>18</v>
@@ -4483,7 +4486,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B56" s="17">
         <v>167</v>
@@ -4492,7 +4495,7 @@
         <v>23</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>19</v>
@@ -4501,22 +4504,22 @@
         <v>19</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M56" s="8" t="s">
         <v>22</v>
@@ -4534,7 +4537,7 @@
         <v>22</v>
       </c>
       <c r="R56" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S56" s="11" t="s">
         <v>18</v>
@@ -4545,7 +4548,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B57" s="17">
         <v>168</v>
@@ -4554,7 +4557,7 @@
         <v>23</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>19</v>
@@ -4563,22 +4566,22 @@
         <v>19</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M57" s="8" t="s">
         <v>22</v>
@@ -4596,7 +4599,7 @@
         <v>22</v>
       </c>
       <c r="R57" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S57" s="11" t="s">
         <v>18</v>
@@ -4607,7 +4610,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B58" s="17">
         <v>169</v>
@@ -4616,7 +4619,7 @@
         <v>23</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>19</v>
@@ -4625,22 +4628,22 @@
         <v>19</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M58" s="8" t="s">
         <v>22</v>
@@ -4658,7 +4661,7 @@
         <v>22</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S58" s="11" t="s">
         <v>18</v>
@@ -4669,7 +4672,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B59" s="17">
         <v>170</v>
@@ -4678,7 +4681,7 @@
         <v>23</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>19</v>
@@ -4687,22 +4690,22 @@
         <v>19</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>22</v>
@@ -4720,7 +4723,7 @@
         <v>22</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S59" s="11" t="s">
         <v>18</v>
@@ -4731,7 +4734,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B60" s="17">
         <v>171</v>
@@ -4740,7 +4743,7 @@
         <v>23</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>19</v>
@@ -4749,22 +4752,22 @@
         <v>19</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M60" s="8" t="s">
         <v>22</v>
@@ -4782,7 +4785,7 @@
         <v>22</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S60" s="11" t="s">
         <v>18</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B61" s="17">
         <v>172</v>
@@ -4802,7 +4805,7 @@
         <v>23</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>19</v>
@@ -4811,22 +4814,22 @@
         <v>19</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M61" s="8" t="s">
         <v>22</v>
@@ -4844,7 +4847,7 @@
         <v>22</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S61" s="11" t="s">
         <v>18</v>
@@ -4855,7 +4858,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B62" s="17">
         <v>173</v>
@@ -4864,7 +4867,7 @@
         <v>23</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>19</v>
@@ -4873,22 +4876,22 @@
         <v>19</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M62" s="8" t="s">
         <v>22</v>
@@ -4906,7 +4909,7 @@
         <v>22</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S62" s="11" t="s">
         <v>18</v>
@@ -4917,17 +4920,17 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B63" s="17">
         <v>174</v>
       </c>
       <c r="C63" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="E63" s="18" t="s">
         <v>19</v>
       </c>
@@ -4935,22 +4938,22 @@
         <v>19</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M63" s="8" t="s">
         <v>22</v>
@@ -4968,7 +4971,7 @@
         <v>22</v>
       </c>
       <c r="R63" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S63" s="11" t="s">
         <v>18</v>
@@ -4979,7 +4982,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B64" s="17">
         <v>176</v>
@@ -4988,7 +4991,7 @@
         <v>23</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>19</v>
@@ -4997,22 +5000,22 @@
         <v>19</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M64" s="8" t="s">
         <v>22</v>
@@ -5030,7 +5033,7 @@
         <v>22</v>
       </c>
       <c r="R64" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S64" s="11" t="s">
         <v>18</v>
@@ -5041,7 +5044,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B65" s="17">
         <v>177</v>
@@ -5050,7 +5053,7 @@
         <v>23</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>19</v>
@@ -5059,22 +5062,22 @@
         <v>19</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>22</v>
@@ -5092,7 +5095,7 @@
         <v>22</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S65" s="11" t="s">
         <v>18</v>
@@ -5103,7 +5106,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B66" s="17">
         <v>178</v>
@@ -5112,7 +5115,7 @@
         <v>23</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>19</v>
@@ -5121,22 +5124,22 @@
         <v>19</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M66" s="8" t="s">
         <v>22</v>
@@ -5154,7 +5157,7 @@
         <v>22</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S66" s="11" t="s">
         <v>18</v>
@@ -5165,7 +5168,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B67" s="17">
         <v>179</v>
@@ -5174,7 +5177,7 @@
         <v>23</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>19</v>
@@ -5183,22 +5186,22 @@
         <v>19</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>22</v>
@@ -5216,7 +5219,7 @@
         <v>22</v>
       </c>
       <c r="R67" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S67" s="11" t="s">
         <v>18</v>
@@ -5227,7 +5230,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B68" s="17">
         <v>180</v>
@@ -5236,7 +5239,7 @@
         <v>23</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>19</v>
@@ -5245,22 +5248,22 @@
         <v>19</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>22</v>
@@ -5278,7 +5281,7 @@
         <v>22</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S68" s="11" t="s">
         <v>18</v>
@@ -5289,7 +5292,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B69" s="17">
         <v>181</v>
@@ -5298,7 +5301,7 @@
         <v>23</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>19</v>
@@ -5307,22 +5310,22 @@
         <v>19</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M69" s="8" t="s">
         <v>22</v>
@@ -5340,7 +5343,7 @@
         <v>22</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S69" s="11" t="s">
         <v>18</v>
@@ -5351,7 +5354,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B70" s="17">
         <v>182</v>
@@ -5360,7 +5363,7 @@
         <v>23</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>19</v>
@@ -5369,22 +5372,22 @@
         <v>19</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M70" s="8" t="s">
         <v>22</v>
@@ -5402,7 +5405,7 @@
         <v>22</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S70" s="11" t="s">
         <v>18</v>
@@ -5413,7 +5416,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B71" s="17">
         <v>183</v>
@@ -5422,7 +5425,7 @@
         <v>23</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>19</v>
@@ -5431,22 +5434,22 @@
         <v>19</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M71" s="8" t="s">
         <v>22</v>
@@ -5464,7 +5467,7 @@
         <v>22</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S71" s="11" t="s">
         <v>18</v>
@@ -5475,7 +5478,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B72" s="17">
         <v>184</v>
@@ -5484,7 +5487,7 @@
         <v>23</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>19</v>
@@ -5493,22 +5496,22 @@
         <v>19</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M72" s="8" t="s">
         <v>22</v>
@@ -5526,7 +5529,7 @@
         <v>22</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S72" s="11" t="s">
         <v>18</v>
@@ -5537,7 +5540,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B73" s="17">
         <v>185</v>
@@ -5546,7 +5549,7 @@
         <v>23</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>19</v>
@@ -5555,22 +5558,22 @@
         <v>19</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M73" s="8" t="s">
         <v>22</v>
@@ -5588,7 +5591,7 @@
         <v>22</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S73" s="11" t="s">
         <v>18</v>
@@ -5599,7 +5602,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B74" s="17">
         <v>186</v>
@@ -5608,7 +5611,7 @@
         <v>23</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>19</v>
@@ -5617,22 +5620,22 @@
         <v>19</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M74" s="8" t="s">
         <v>22</v>
@@ -5650,7 +5653,7 @@
         <v>22</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S74" s="11" t="s">
         <v>18</v>
@@ -5661,7 +5664,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B75" s="17">
         <v>187</v>
@@ -5670,7 +5673,7 @@
         <v>23</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>19</v>
@@ -5679,22 +5682,22 @@
         <v>19</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M75" s="8" t="s">
         <v>22</v>
@@ -5712,7 +5715,7 @@
         <v>22</v>
       </c>
       <c r="R75" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S75" s="11" t="s">
         <v>18</v>
@@ -5723,7 +5726,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B76" s="17">
         <v>188</v>
@@ -5732,7 +5735,7 @@
         <v>23</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>19</v>
@@ -5741,22 +5744,22 @@
         <v>19</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M76" s="8" t="s">
         <v>22</v>
@@ -5774,7 +5777,7 @@
         <v>22</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S76" s="11" t="s">
         <v>18</v>
@@ -5785,17 +5788,17 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B77" s="17">
         <v>189</v>
       </c>
       <c r="C77" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D77" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="E77" s="18" t="s">
         <v>19</v>
       </c>
@@ -5803,22 +5806,22 @@
         <v>19</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>22</v>
@@ -5836,7 +5839,7 @@
         <v>22</v>
       </c>
       <c r="R77" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S77" s="11" t="s">
         <v>18</v>
@@ -5847,7 +5850,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B78" s="17">
         <v>190</v>
@@ -5856,7 +5859,7 @@
         <v>23</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>19</v>
@@ -5865,22 +5868,22 @@
         <v>19</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>22</v>
@@ -5898,7 +5901,7 @@
         <v>22</v>
       </c>
       <c r="R78" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S78" s="11" t="s">
         <v>18</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B79" s="17">
         <v>191</v>
@@ -5918,7 +5921,7 @@
         <v>23</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>19</v>
@@ -5927,22 +5930,22 @@
         <v>19</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M79" s="8" t="s">
         <v>22</v>
@@ -5960,7 +5963,7 @@
         <v>22</v>
       </c>
       <c r="R79" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S79" s="11" t="s">
         <v>18</v>
@@ -5971,7 +5974,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B80" s="17">
         <v>192</v>
@@ -5980,7 +5983,7 @@
         <v>23</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>19</v>
@@ -5989,22 +5992,22 @@
         <v>19</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K80" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L80" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>22</v>
@@ -6022,7 +6025,7 @@
         <v>22</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S80" s="11" t="s">
         <v>18</v>
@@ -6033,7 +6036,7 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B81" s="17">
         <v>193</v>
@@ -6042,7 +6045,7 @@
         <v>23</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>19</v>
@@ -6051,22 +6054,22 @@
         <v>19</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L81" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>22</v>
@@ -6084,7 +6087,7 @@
         <v>22</v>
       </c>
       <c r="R81" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S81" s="11" t="s">
         <v>18</v>
@@ -6095,7 +6098,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B82" s="17">
         <v>194</v>
@@ -6104,7 +6107,7 @@
         <v>23</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E82" s="18" t="s">
         <v>19</v>
@@ -6113,22 +6116,22 @@
         <v>19</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M82" s="8" t="s">
         <v>22</v>
@@ -6146,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="R82" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S82" s="11" t="s">
         <v>18</v>
@@ -6157,7 +6160,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B83" s="17">
         <v>195</v>
@@ -6166,7 +6169,7 @@
         <v>23</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E83" s="18" t="s">
         <v>19</v>
@@ -6175,22 +6178,22 @@
         <v>19</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M83" s="8" t="s">
         <v>22</v>
@@ -6208,7 +6211,7 @@
         <v>22</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S83" s="11" t="s">
         <v>18</v>
@@ -6219,7 +6222,7 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B84" s="17">
         <v>196</v>
@@ -6228,7 +6231,7 @@
         <v>23</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>19</v>
@@ -6237,22 +6240,22 @@
         <v>19</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>22</v>
@@ -6270,7 +6273,7 @@
         <v>22</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S84" s="11" t="s">
         <v>18</v>
@@ -6281,7 +6284,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B85" s="17">
         <v>197</v>
@@ -6290,7 +6293,7 @@
         <v>23</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>19</v>
@@ -6299,22 +6302,22 @@
         <v>19</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L85" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M85" s="8" t="s">
         <v>22</v>
@@ -6332,7 +6335,7 @@
         <v>22</v>
       </c>
       <c r="R85" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S85" s="11" t="s">
         <v>18</v>
@@ -6343,7 +6346,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B86" s="17">
         <v>198</v>
@@ -6352,7 +6355,7 @@
         <v>23</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>19</v>
@@ -6361,22 +6364,22 @@
         <v>19</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L86" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M86" s="8" t="s">
         <v>22</v>
@@ -6394,7 +6397,7 @@
         <v>22</v>
       </c>
       <c r="R86" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S86" s="11" t="s">
         <v>18</v>
@@ -6405,7 +6408,7 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B87" s="17">
         <v>199</v>
@@ -6414,7 +6417,7 @@
         <v>23</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>19</v>
@@ -6423,22 +6426,22 @@
         <v>19</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L87" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M87" s="8" t="s">
         <v>22</v>
@@ -6456,7 +6459,7 @@
         <v>22</v>
       </c>
       <c r="R87" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S87" s="11" t="s">
         <v>18</v>
@@ -6467,7 +6470,7 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B88" s="17">
         <v>200</v>
@@ -6476,7 +6479,7 @@
         <v>23</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>19</v>
@@ -6485,22 +6488,22 @@
         <v>19</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L88" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M88" s="8" t="s">
         <v>22</v>
@@ -6518,7 +6521,7 @@
         <v>22</v>
       </c>
       <c r="R88" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S88" s="11" t="s">
         <v>18</v>
@@ -6529,7 +6532,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B89" s="17">
         <v>201</v>
@@ -6538,7 +6541,7 @@
         <v>23</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>19</v>
@@ -6547,22 +6550,22 @@
         <v>19</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L89" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M89" s="8" t="s">
         <v>22</v>
@@ -6580,7 +6583,7 @@
         <v>22</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S89" s="11" t="s">
         <v>18</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B90" s="17">
         <v>202</v>
@@ -6600,7 +6603,7 @@
         <v>23</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>19</v>
@@ -6609,22 +6612,22 @@
         <v>19</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M90" s="8" t="s">
         <v>22</v>
@@ -6642,7 +6645,7 @@
         <v>22</v>
       </c>
       <c r="R90" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S90" s="11" t="s">
         <v>18</v>
@@ -6653,7 +6656,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B91" s="17">
         <v>203</v>
@@ -6662,7 +6665,7 @@
         <v>23</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>19</v>
@@ -6671,22 +6674,22 @@
         <v>19</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L91" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M91" s="8" t="s">
         <v>22</v>
@@ -6704,7 +6707,7 @@
         <v>22</v>
       </c>
       <c r="R91" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S91" s="11" t="s">
         <v>18</v>
@@ -6715,7 +6718,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B92" s="17">
         <v>204</v>
@@ -6724,7 +6727,7 @@
         <v>23</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E92" s="18" t="s">
         <v>19</v>
@@ -6733,22 +6736,22 @@
         <v>19</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L92" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M92" s="8" t="s">
         <v>22</v>
@@ -6766,7 +6769,7 @@
         <v>22</v>
       </c>
       <c r="R92" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S92" s="11" t="s">
         <v>18</v>
@@ -6777,7 +6780,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B93" s="17">
         <v>205</v>
@@ -6786,7 +6789,7 @@
         <v>23</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>19</v>
@@ -6795,22 +6798,22 @@
         <v>19</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L93" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M93" s="8" t="s">
         <v>22</v>
@@ -6828,7 +6831,7 @@
         <v>22</v>
       </c>
       <c r="R93" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S93" s="11" t="s">
         <v>18</v>
@@ -6839,7 +6842,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B94" s="17">
         <v>206</v>
@@ -6848,7 +6851,7 @@
         <v>23</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>19</v>
@@ -6857,22 +6860,22 @@
         <v>19</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L94" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M94" s="8" t="s">
         <v>22</v>
@@ -6890,7 +6893,7 @@
         <v>22</v>
       </c>
       <c r="R94" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S94" s="11" t="s">
         <v>18</v>
@@ -6901,7 +6904,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B95" s="17">
         <v>207</v>
@@ -6910,7 +6913,7 @@
         <v>23</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>19</v>
@@ -6919,22 +6922,22 @@
         <v>19</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L95" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M95" s="8" t="s">
         <v>22</v>
@@ -6952,7 +6955,7 @@
         <v>22</v>
       </c>
       <c r="R95" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S95" s="11" t="s">
         <v>18</v>
@@ -6963,7 +6966,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B96" s="17">
         <v>208</v>
@@ -6972,7 +6975,7 @@
         <v>23</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>19</v>
@@ -6981,22 +6984,22 @@
         <v>19</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J96" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L96" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M96" s="8" t="s">
         <v>22</v>
@@ -7014,7 +7017,7 @@
         <v>22</v>
       </c>
       <c r="R96" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S96" s="11" t="s">
         <v>18</v>
@@ -7025,7 +7028,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B97" s="17">
         <v>209</v>
@@ -7034,7 +7037,7 @@
         <v>23</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>19</v>
@@ -7043,22 +7046,22 @@
         <v>19</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J97" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L97" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>22</v>
@@ -7076,7 +7079,7 @@
         <v>22</v>
       </c>
       <c r="R97" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S97" s="11" t="s">
         <v>18</v>
@@ -7087,7 +7090,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B98" s="17">
         <v>210</v>
@@ -7096,7 +7099,7 @@
         <v>23</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>19</v>
@@ -7105,22 +7108,22 @@
         <v>19</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J98" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L98" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M98" s="8" t="s">
         <v>22</v>
@@ -7138,7 +7141,7 @@
         <v>22</v>
       </c>
       <c r="R98" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S98" s="11" t="s">
         <v>18</v>
@@ -7149,7 +7152,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B99" s="17">
         <v>211</v>
@@ -7158,7 +7161,7 @@
         <v>23</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>19</v>
@@ -7167,22 +7170,22 @@
         <v>19</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J99" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>22</v>
@@ -7200,7 +7203,7 @@
         <v>22</v>
       </c>
       <c r="R99" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S99" s="11" t="s">
         <v>18</v>
@@ -7211,7 +7214,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B100" s="17">
         <v>212</v>
@@ -7220,7 +7223,7 @@
         <v>23</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>19</v>
@@ -7229,22 +7232,22 @@
         <v>19</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L100" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M100" s="8" t="s">
         <v>22</v>
@@ -7262,7 +7265,7 @@
         <v>22</v>
       </c>
       <c r="R100" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S100" s="11" t="s">
         <v>18</v>
@@ -7273,7 +7276,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B101" s="17">
         <v>213</v>
@@ -7282,7 +7285,7 @@
         <v>23</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>19</v>
@@ -7291,22 +7294,22 @@
         <v>19</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J101" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M101" s="8" t="s">
         <v>22</v>
@@ -7324,7 +7327,7 @@
         <v>22</v>
       </c>
       <c r="R101" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S101" s="11" t="s">
         <v>18</v>
@@ -7335,7 +7338,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B102" s="17">
         <v>214</v>
@@ -7344,7 +7347,7 @@
         <v>23</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>19</v>
@@ -7353,22 +7356,22 @@
         <v>19</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J102" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M102" s="8" t="s">
         <v>22</v>
@@ -7386,7 +7389,7 @@
         <v>22</v>
       </c>
       <c r="R102" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S102" s="11" t="s">
         <v>18</v>
@@ -7397,7 +7400,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B103" s="17">
         <v>215</v>
@@ -7406,7 +7409,7 @@
         <v>23</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>19</v>
@@ -7415,22 +7418,22 @@
         <v>19</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J103" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>22</v>
@@ -7448,7 +7451,7 @@
         <v>22</v>
       </c>
       <c r="R103" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S103" s="11" t="s">
         <v>18</v>
@@ -7459,7 +7462,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B104" s="17">
         <v>216</v>
@@ -7468,7 +7471,7 @@
         <v>23</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>19</v>
@@ -7477,22 +7480,22 @@
         <v>19</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J104" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L104" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M104" s="8" t="s">
         <v>22</v>
@@ -7510,7 +7513,7 @@
         <v>22</v>
       </c>
       <c r="R104" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S104" s="11" t="s">
         <v>18</v>
@@ -7521,7 +7524,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B105" s="17">
         <v>217</v>
@@ -7530,7 +7533,7 @@
         <v>23</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E105" s="18" t="s">
         <v>19</v>
@@ -7539,22 +7542,22 @@
         <v>19</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J105" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>22</v>
@@ -7572,7 +7575,7 @@
         <v>22</v>
       </c>
       <c r="R105" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S105" s="11" t="s">
         <v>18</v>
@@ -7583,7 +7586,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B106" s="17">
         <v>218</v>
@@ -7592,7 +7595,7 @@
         <v>23</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E106" s="18" t="s">
         <v>19</v>
@@ -7601,22 +7604,22 @@
         <v>19</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J106" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M106" s="8" t="s">
         <v>22</v>
@@ -7634,7 +7637,7 @@
         <v>22</v>
       </c>
       <c r="R106" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S106" s="11" t="s">
         <v>18</v>
@@ -7645,7 +7648,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B107" s="17">
         <v>219</v>
@@ -7654,7 +7657,7 @@
         <v>23</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E107" s="18" t="s">
         <v>19</v>
@@ -7663,22 +7666,22 @@
         <v>19</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>22</v>
@@ -7696,7 +7699,7 @@
         <v>22</v>
       </c>
       <c r="R107" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S107" s="11" t="s">
         <v>18</v>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFDE145-53BB-5343-A97A-61738A6AF72E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535A2F70-7202-D141-A88D-0439235778D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="500" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
+    <workbookView xWindow="15220" yWindow="6780" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Protoparvovirus</t>
   </si>
   <si>
-    <t>Proto-A</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>proto.165-Phascolarctos</t>
   </si>
   <si>
-    <t>Proto-B</t>
-  </si>
-  <si>
     <t>fasta-refseqs-proto-epv</t>
   </si>
   <si>
@@ -565,6 +559,12 @@
   </si>
   <si>
     <t>proto.166-MacEug</t>
+  </si>
+  <si>
+    <t>Proto1</t>
+  </si>
+  <si>
+    <t>Proto2</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1055,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="A1:T107"/>
+      <selection pane="bottomLeft" sqref="A1:T107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,17 +1138,17 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
@@ -1156,40 +1156,40 @@
         <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>18</v>
@@ -1200,16 +1200,16 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1218,40 +1218,40 @@
         <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>18</v>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -1280,40 +1280,40 @@
         <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>18</v>
@@ -1324,16 +1324,16 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -1342,40 +1342,40 @@
         <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>18</v>
@@ -1386,16 +1386,16 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -1404,40 +1404,40 @@
         <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>18</v>
@@ -1448,16 +1448,16 @@
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" s="17">
         <v>101</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>19</v>
@@ -1466,40 +1466,40 @@
         <v>19</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>18</v>
@@ -1510,16 +1510,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="17">
         <v>102</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>19</v>
@@ -1528,40 +1528,40 @@
         <v>19</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>18</v>
@@ -1572,16 +1572,16 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="17">
         <v>103</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>19</v>
@@ -1590,40 +1590,40 @@
         <v>19</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>18</v>
@@ -1634,16 +1634,16 @@
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B10" s="17">
         <v>104</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>19</v>
@@ -1652,40 +1652,40 @@
         <v>19</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S10" s="11" t="s">
         <v>18</v>
@@ -1696,16 +1696,16 @@
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="17">
         <v>106</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>19</v>
@@ -1714,40 +1714,40 @@
         <v>19</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S11" s="11" t="s">
         <v>18</v>
@@ -1758,16 +1758,16 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="17">
         <v>107</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>19</v>
@@ -1776,40 +1776,40 @@
         <v>19</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>18</v>
@@ -1820,16 +1820,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B13" s="17">
         <v>108</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>19</v>
@@ -1838,40 +1838,40 @@
         <v>19</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>18</v>
@@ -1882,16 +1882,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="17">
         <v>111</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>19</v>
@@ -1900,40 +1900,40 @@
         <v>19</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>18</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" s="17">
         <v>120</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>19</v>
@@ -1962,40 +1962,40 @@
         <v>19</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S15" s="11" t="s">
         <v>18</v>
@@ -2006,16 +2006,16 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="17">
         <v>121</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>19</v>
@@ -2024,40 +2024,40 @@
         <v>19</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>18</v>
@@ -2068,16 +2068,16 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B17" s="17">
         <v>122</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>19</v>
@@ -2086,40 +2086,40 @@
         <v>19</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>18</v>
@@ -2130,16 +2130,16 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="17">
         <v>125</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>19</v>
@@ -2148,40 +2148,40 @@
         <v>19</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>18</v>
@@ -2192,16 +2192,16 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="17">
         <v>126</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>19</v>
@@ -2210,40 +2210,40 @@
         <v>19</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>18</v>
@@ -2254,16 +2254,16 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B20" s="17">
         <v>127</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>19</v>
@@ -2272,40 +2272,40 @@
         <v>19</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>18</v>
@@ -2316,16 +2316,16 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="17">
         <v>128</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>19</v>
@@ -2334,40 +2334,40 @@
         <v>19</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S21" s="11" t="s">
         <v>18</v>
@@ -2378,16 +2378,16 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="17">
         <v>129</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>19</v>
@@ -2396,40 +2396,40 @@
         <v>19</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S22" s="11" t="s">
         <v>18</v>
@@ -2440,16 +2440,16 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="17">
         <v>130</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>19</v>
@@ -2458,40 +2458,40 @@
         <v>19</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S23" s="11" t="s">
         <v>18</v>
@@ -2502,16 +2502,16 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="17">
         <v>131</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>19</v>
@@ -2520,40 +2520,40 @@
         <v>19</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S24" s="11" t="s">
         <v>18</v>
@@ -2564,16 +2564,16 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="17">
         <v>132</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>19</v>
@@ -2582,40 +2582,40 @@
         <v>19</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S25" s="11" t="s">
         <v>18</v>
@@ -2626,16 +2626,16 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="17">
         <v>133</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>19</v>
@@ -2644,40 +2644,40 @@
         <v>19</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>18</v>
@@ -2688,16 +2688,16 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="17">
         <v>134</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>19</v>
@@ -2706,40 +2706,40 @@
         <v>19</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S27" s="11" t="s">
         <v>18</v>
@@ -2750,16 +2750,16 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="17">
         <v>135</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>19</v>
@@ -2768,40 +2768,40 @@
         <v>19</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S28" s="11" t="s">
         <v>18</v>
@@ -2812,16 +2812,16 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="17">
         <v>136</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>19</v>
@@ -2830,40 +2830,40 @@
         <v>19</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S29" s="11" t="s">
         <v>18</v>
@@ -2874,16 +2874,16 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="17">
         <v>137</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>19</v>
@@ -2892,40 +2892,40 @@
         <v>19</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S30" s="11" t="s">
         <v>18</v>
@@ -2936,16 +2936,16 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="17">
         <v>138</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>19</v>
@@ -2954,40 +2954,40 @@
         <v>19</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S31" s="11" t="s">
         <v>18</v>
@@ -2998,16 +2998,16 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B32" s="17">
         <v>139</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>19</v>
@@ -3016,40 +3016,40 @@
         <v>19</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S32" s="11" t="s">
         <v>18</v>
@@ -3060,16 +3060,16 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" s="17">
         <v>140</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>19</v>
@@ -3078,40 +3078,40 @@
         <v>19</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S33" s="11" t="s">
         <v>18</v>
@@ -3122,16 +3122,16 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="17">
         <v>141</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>19</v>
@@ -3140,40 +3140,40 @@
         <v>19</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S34" s="11" t="s">
         <v>18</v>
@@ -3184,16 +3184,16 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="17">
         <v>142</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>19</v>
@@ -3202,40 +3202,40 @@
         <v>19</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S35" s="11" t="s">
         <v>18</v>
@@ -3246,16 +3246,16 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="17">
         <v>143</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>19</v>
@@ -3264,40 +3264,40 @@
         <v>19</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S36" s="11" t="s">
         <v>18</v>
@@ -3308,16 +3308,16 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" s="17">
         <v>144</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>19</v>
@@ -3326,40 +3326,40 @@
         <v>19</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S37" s="11" t="s">
         <v>18</v>
@@ -3370,16 +3370,16 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="17">
         <v>145</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>19</v>
@@ -3388,40 +3388,40 @@
         <v>19</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S38" s="11" t="s">
         <v>18</v>
@@ -3432,16 +3432,16 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="17">
         <v>150</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>19</v>
@@ -3450,40 +3450,40 @@
         <v>19</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S39" s="11" t="s">
         <v>18</v>
@@ -3494,16 +3494,16 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" s="17">
         <v>151</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>19</v>
@@ -3512,40 +3512,40 @@
         <v>19</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S40" s="11" t="s">
         <v>18</v>
@@ -3556,16 +3556,16 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="17">
         <v>152</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>19</v>
@@ -3574,40 +3574,40 @@
         <v>19</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S41" s="11" t="s">
         <v>18</v>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="17">
         <v>153</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>19</v>
@@ -3636,40 +3636,40 @@
         <v>19</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>18</v>
@@ -3680,16 +3680,16 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="17">
         <v>154</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>19</v>
@@ -3698,40 +3698,40 @@
         <v>19</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R43" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S43" s="11" t="s">
         <v>18</v>
@@ -3742,16 +3742,16 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="17">
         <v>155</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>19</v>
@@ -3760,40 +3760,40 @@
         <v>19</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S44" s="11" t="s">
         <v>18</v>
@@ -3804,16 +3804,16 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="17">
         <v>156</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>19</v>
@@ -3822,40 +3822,40 @@
         <v>19</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R45" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S45" s="11" t="s">
         <v>18</v>
@@ -3866,16 +3866,16 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="17">
         <v>157</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>19</v>
@@ -3884,40 +3884,40 @@
         <v>19</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S46" s="11" t="s">
         <v>18</v>
@@ -3928,16 +3928,16 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="17">
         <v>158</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>19</v>
@@ -3946,40 +3946,40 @@
         <v>19</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S47" s="11" t="s">
         <v>18</v>
@@ -3990,16 +3990,16 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="17">
         <v>159</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>19</v>
@@ -4008,40 +4008,40 @@
         <v>19</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S48" s="11" t="s">
         <v>18</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="17">
         <v>160</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>19</v>
@@ -4070,40 +4070,40 @@
         <v>19</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S49" s="11" t="s">
         <v>18</v>
@@ -4114,16 +4114,16 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="17">
         <v>161</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>19</v>
@@ -4132,40 +4132,40 @@
         <v>19</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S50" s="11" t="s">
         <v>18</v>
@@ -4176,16 +4176,16 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="17">
         <v>162</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>19</v>
@@ -4194,40 +4194,40 @@
         <v>19</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S51" s="11" t="s">
         <v>18</v>
@@ -4238,16 +4238,16 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="17">
         <v>163</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>19</v>
@@ -4256,40 +4256,40 @@
         <v>19</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S52" s="11" t="s">
         <v>18</v>
@@ -4300,16 +4300,16 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="17">
         <v>164</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>19</v>
@@ -4318,40 +4318,40 @@
         <v>19</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R53" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S53" s="11" t="s">
         <v>18</v>
@@ -4362,16 +4362,16 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="17">
         <v>165</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>19</v>
@@ -4380,40 +4380,40 @@
         <v>19</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S54" s="11" t="s">
         <v>18</v>
@@ -4424,16 +4424,16 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B55" s="17">
         <v>166</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>19</v>
@@ -4442,40 +4442,40 @@
         <v>19</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P55" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S55" s="11" t="s">
         <v>18</v>
@@ -4486,16 +4486,16 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="17">
         <v>167</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>19</v>
@@ -4504,40 +4504,40 @@
         <v>19</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R56" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S56" s="11" t="s">
         <v>18</v>
@@ -4548,16 +4548,16 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B57" s="17">
         <v>168</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>19</v>
@@ -4566,40 +4566,40 @@
         <v>19</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R57" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S57" s="11" t="s">
         <v>18</v>
@@ -4610,16 +4610,16 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" s="17">
         <v>169</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>19</v>
@@ -4628,40 +4628,40 @@
         <v>19</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S58" s="11" t="s">
         <v>18</v>
@@ -4672,16 +4672,16 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59" s="17">
         <v>170</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>19</v>
@@ -4690,40 +4690,40 @@
         <v>19</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S59" s="11" t="s">
         <v>18</v>
@@ -4734,16 +4734,16 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="17">
         <v>171</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>19</v>
@@ -4752,40 +4752,40 @@
         <v>19</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S60" s="11" t="s">
         <v>18</v>
@@ -4796,16 +4796,16 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B61" s="17">
         <v>172</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>19</v>
@@ -4814,40 +4814,40 @@
         <v>19</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R61" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S61" s="11" t="s">
         <v>18</v>
@@ -4858,16 +4858,16 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B62" s="17">
         <v>173</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>19</v>
@@ -4876,40 +4876,40 @@
         <v>19</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S62" s="11" t="s">
         <v>18</v>
@@ -4920,16 +4920,16 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B63" s="17">
         <v>174</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>19</v>
@@ -4938,40 +4938,40 @@
         <v>19</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R63" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S63" s="11" t="s">
         <v>18</v>
@@ -4982,16 +4982,16 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64" s="17">
         <v>176</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E64" s="18" t="s">
         <v>19</v>
@@ -5000,40 +5000,40 @@
         <v>19</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R64" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S64" s="11" t="s">
         <v>18</v>
@@ -5044,16 +5044,16 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B65" s="17">
         <v>177</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>19</v>
@@ -5062,40 +5062,40 @@
         <v>19</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S65" s="11" t="s">
         <v>18</v>
@@ -5106,16 +5106,16 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B66" s="17">
         <v>178</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>19</v>
@@ -5124,40 +5124,40 @@
         <v>19</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S66" s="11" t="s">
         <v>18</v>
@@ -5168,16 +5168,16 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B67" s="17">
         <v>179</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>19</v>
@@ -5186,40 +5186,40 @@
         <v>19</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q67" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R67" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S67" s="11" t="s">
         <v>18</v>
@@ -5230,16 +5230,16 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" s="17">
         <v>180</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>19</v>
@@ -5248,40 +5248,40 @@
         <v>19</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P68" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S68" s="11" t="s">
         <v>18</v>
@@ -5292,16 +5292,16 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B69" s="17">
         <v>181</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E69" s="18" t="s">
         <v>19</v>
@@ -5310,40 +5310,40 @@
         <v>19</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P69" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q69" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S69" s="11" t="s">
         <v>18</v>
@@ -5354,16 +5354,16 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B70" s="17">
         <v>182</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E70" s="18" t="s">
         <v>19</v>
@@ -5372,40 +5372,40 @@
         <v>19</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P70" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S70" s="11" t="s">
         <v>18</v>
@@ -5416,16 +5416,16 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71" s="17">
         <v>183</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E71" s="18" t="s">
         <v>19</v>
@@ -5434,40 +5434,40 @@
         <v>19</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P71" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S71" s="11" t="s">
         <v>18</v>
@@ -5478,16 +5478,16 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B72" s="17">
         <v>184</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E72" s="18" t="s">
         <v>19</v>
@@ -5496,40 +5496,40 @@
         <v>19</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P72" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S72" s="11" t="s">
         <v>18</v>
@@ -5540,16 +5540,16 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B73" s="17">
         <v>185</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>19</v>
@@ -5558,40 +5558,40 @@
         <v>19</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P73" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S73" s="11" t="s">
         <v>18</v>
@@ -5602,16 +5602,16 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B74" s="17">
         <v>186</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>19</v>
@@ -5620,40 +5620,40 @@
         <v>19</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P74" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q74" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R74" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S74" s="11" t="s">
         <v>18</v>
@@ -5664,16 +5664,16 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B75" s="17">
         <v>187</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E75" s="18" t="s">
         <v>19</v>
@@ -5682,40 +5682,40 @@
         <v>19</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q75" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R75" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S75" s="11" t="s">
         <v>18</v>
@@ -5726,16 +5726,16 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B76" s="17">
         <v>188</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E76" s="18" t="s">
         <v>19</v>
@@ -5744,40 +5744,40 @@
         <v>19</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R76" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S76" s="11" t="s">
         <v>18</v>
@@ -5788,16 +5788,16 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B77" s="17">
         <v>189</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>19</v>
@@ -5806,40 +5806,40 @@
         <v>19</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P77" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R77" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S77" s="11" t="s">
         <v>18</v>
@@ -5850,16 +5850,16 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B78" s="17">
         <v>190</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E78" s="18" t="s">
         <v>19</v>
@@ -5868,40 +5868,40 @@
         <v>19</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R78" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S78" s="11" t="s">
         <v>18</v>
@@ -5912,16 +5912,16 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B79" s="17">
         <v>191</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E79" s="18" t="s">
         <v>19</v>
@@ -5930,40 +5930,40 @@
         <v>19</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P79" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q79" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R79" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S79" s="11" t="s">
         <v>18</v>
@@ -5974,16 +5974,16 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B80" s="17">
         <v>192</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E80" s="18" t="s">
         <v>19</v>
@@ -5992,40 +5992,40 @@
         <v>19</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K80" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L80" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P80" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q80" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R80" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S80" s="11" t="s">
         <v>18</v>
@@ -6036,16 +6036,16 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B81" s="17">
         <v>193</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E81" s="18" t="s">
         <v>19</v>
@@ -6054,40 +6054,40 @@
         <v>19</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L81" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P81" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R81" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S81" s="11" t="s">
         <v>18</v>
@@ -6098,16 +6098,16 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B82" s="17">
         <v>194</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E82" s="18" t="s">
         <v>19</v>
@@ -6116,40 +6116,40 @@
         <v>19</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P82" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q82" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R82" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S82" s="11" t="s">
         <v>18</v>
@@ -6160,16 +6160,16 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B83" s="17">
         <v>195</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E83" s="18" t="s">
         <v>19</v>
@@ -6178,40 +6178,40 @@
         <v>19</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P83" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S83" s="11" t="s">
         <v>18</v>
@@ -6222,16 +6222,16 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B84" s="17">
         <v>196</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>19</v>
@@ -6240,40 +6240,40 @@
         <v>19</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q84" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S84" s="11" t="s">
         <v>18</v>
@@ -6284,16 +6284,16 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B85" s="17">
         <v>197</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>19</v>
@@ -6302,40 +6302,40 @@
         <v>19</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L85" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P85" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R85" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S85" s="11" t="s">
         <v>18</v>
@@ -6346,16 +6346,16 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B86" s="17">
         <v>198</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>19</v>
@@ -6364,40 +6364,40 @@
         <v>19</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L86" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P86" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R86" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S86" s="11" t="s">
         <v>18</v>
@@ -6408,16 +6408,16 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B87" s="17">
         <v>199</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>19</v>
@@ -6426,40 +6426,40 @@
         <v>19</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L87" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P87" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R87" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S87" s="11" t="s">
         <v>18</v>
@@ -6470,16 +6470,16 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B88" s="17">
         <v>200</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>19</v>
@@ -6488,40 +6488,40 @@
         <v>19</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L88" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P88" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q88" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R88" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S88" s="11" t="s">
         <v>18</v>
@@ -6532,16 +6532,16 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B89" s="17">
         <v>201</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>19</v>
@@ -6550,40 +6550,40 @@
         <v>19</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L89" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P89" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q89" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S89" s="11" t="s">
         <v>18</v>
@@ -6594,16 +6594,16 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B90" s="17">
         <v>202</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>19</v>
@@ -6612,40 +6612,40 @@
         <v>19</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P90" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q90" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R90" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S90" s="11" t="s">
         <v>18</v>
@@ -6656,16 +6656,16 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B91" s="17">
         <v>203</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>19</v>
@@ -6674,40 +6674,40 @@
         <v>19</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L91" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P91" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q91" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R91" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S91" s="11" t="s">
         <v>18</v>
@@ -6718,16 +6718,16 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B92" s="17">
         <v>204</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E92" s="18" t="s">
         <v>19</v>
@@ -6736,40 +6736,40 @@
         <v>19</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L92" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P92" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q92" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R92" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S92" s="11" t="s">
         <v>18</v>
@@ -6780,16 +6780,16 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B93" s="17">
         <v>205</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>19</v>
@@ -6798,40 +6798,40 @@
         <v>19</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L93" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q93" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R93" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S93" s="11" t="s">
         <v>18</v>
@@ -6842,16 +6842,16 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B94" s="17">
         <v>206</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>19</v>
@@ -6860,40 +6860,40 @@
         <v>19</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L94" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O94" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P94" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q94" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R94" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S94" s="11" t="s">
         <v>18</v>
@@ -6904,16 +6904,16 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B95" s="17">
         <v>207</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E95" s="18" t="s">
         <v>19</v>
@@ -6922,40 +6922,40 @@
         <v>19</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L95" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P95" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q95" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R95" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S95" s="11" t="s">
         <v>18</v>
@@ -6966,16 +6966,16 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B96" s="17">
         <v>208</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>19</v>
@@ -6984,40 +6984,40 @@
         <v>19</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J96" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L96" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P96" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q96" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R96" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S96" s="11" t="s">
         <v>18</v>
@@ -7028,16 +7028,16 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B97" s="17">
         <v>209</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>19</v>
@@ -7046,40 +7046,40 @@
         <v>19</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J97" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L97" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P97" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R97" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S97" s="11" t="s">
         <v>18</v>
@@ -7090,16 +7090,16 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B98" s="17">
         <v>210</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>19</v>
@@ -7108,40 +7108,40 @@
         <v>19</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J98" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L98" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P98" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R98" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S98" s="11" t="s">
         <v>18</v>
@@ -7152,16 +7152,16 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B99" s="17">
         <v>211</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>19</v>
@@ -7170,40 +7170,40 @@
         <v>19</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J99" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P99" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q99" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R99" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S99" s="11" t="s">
         <v>18</v>
@@ -7214,16 +7214,16 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B100" s="17">
         <v>212</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>19</v>
@@ -7232,40 +7232,40 @@
         <v>19</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L100" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O100" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P100" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q100" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R100" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S100" s="11" t="s">
         <v>18</v>
@@ -7276,16 +7276,16 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B101" s="17">
         <v>213</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>19</v>
@@ -7294,40 +7294,40 @@
         <v>19</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J101" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P101" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R101" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S101" s="11" t="s">
         <v>18</v>
@@ -7338,16 +7338,16 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B102" s="17">
         <v>214</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>19</v>
@@ -7356,40 +7356,40 @@
         <v>19</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J102" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P102" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R102" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S102" s="11" t="s">
         <v>18</v>
@@ -7400,16 +7400,16 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B103" s="17">
         <v>215</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>19</v>
@@ -7418,40 +7418,40 @@
         <v>19</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J103" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P103" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q103" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R103" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S103" s="11" t="s">
         <v>18</v>
@@ -7462,16 +7462,16 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B104" s="17">
         <v>216</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>19</v>
@@ -7480,40 +7480,40 @@
         <v>19</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J104" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L104" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P104" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q104" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R104" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S104" s="11" t="s">
         <v>18</v>
@@ -7524,16 +7524,16 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B105" s="17">
         <v>217</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E105" s="18" t="s">
         <v>19</v>
@@ -7542,40 +7542,40 @@
         <v>19</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J105" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P105" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q105" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R105" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S105" s="11" t="s">
         <v>18</v>
@@ -7586,16 +7586,16 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B106" s="17">
         <v>218</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E106" s="18" t="s">
         <v>19</v>
@@ -7604,40 +7604,40 @@
         <v>19</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J106" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N106" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O106" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P106" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q106" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R106" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S106" s="11" t="s">
         <v>18</v>
@@ -7648,16 +7648,16 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B107" s="17">
         <v>219</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E107" s="18" t="s">
         <v>19</v>
@@ -7666,40 +7666,40 @@
         <v>19</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O107" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P107" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R107" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S107" s="11" t="s">
         <v>18</v>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1FAC86-45E3-4347-ACD3-8E2F21E3ACB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C5057-CEEC-0C49-AC26-9FC8484E5985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7880" yWindow="2880" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
@@ -114,15 +114,9 @@
     <t>proto.3-apodemus</t>
   </si>
   <si>
-    <t>proto.103-graphiurus</t>
-  </si>
-  <si>
     <t>proto.111-Afrotheria</t>
   </si>
   <si>
-    <t>proto.125-Hydrochoerus</t>
-  </si>
-  <si>
     <t>proto.126-Octodon</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>Monodelphis</t>
   </si>
   <si>
-    <t>Mammal/fish</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -565,6 +556,15 @@
   </si>
   <si>
     <t>proto.5-GraMur</t>
+  </si>
+  <si>
+    <t>proto.103-MonDom</t>
+  </si>
+  <si>
+    <t>Tamandua</t>
+  </si>
+  <si>
+    <t>proto.125-HydHyd</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1045,8 @@
   <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A1:R107"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A1:R107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1133,22 +1133,22 @@
         <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>20</v>
@@ -1166,7 +1166,7 @@
         <v>21</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>18</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -1186,25 +1186,25 @@
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>21</v>
@@ -1222,7 +1222,7 @@
         <v>21</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>18</v>
@@ -1245,22 +1245,22 @@
         <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>21</v>
@@ -1278,7 +1278,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>18</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -1298,25 +1298,25 @@
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>21</v>
@@ -1334,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>18</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -1354,25 +1354,25 @@
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>21</v>
@@ -1390,7 +1390,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>18</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B7" s="16">
         <v>101</v>
@@ -1410,25 +1410,25 @@
         <v>22</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>21</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>18</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B8" s="16">
         <v>102</v>
@@ -1466,25 +1466,25 @@
         <v>22</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>21</v>
@@ -1502,7 +1502,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="11" t="s">
         <v>18</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="B9" s="16">
         <v>103</v>
@@ -1522,25 +1522,25 @@
         <v>22</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>21</v>
@@ -1558,7 +1558,7 @@
         <v>21</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="11" t="s">
         <v>18</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" s="16">
         <v>104</v>
@@ -1578,25 +1578,25 @@
         <v>22</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>21</v>
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>18</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="16">
         <v>106</v>
@@ -1634,25 +1634,25 @@
         <v>22</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>21</v>
@@ -1670,7 +1670,7 @@
         <v>21</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>18</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B12" s="16">
         <v>107</v>
@@ -1690,25 +1690,25 @@
         <v>22</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>21</v>
@@ -1726,7 +1726,7 @@
         <v>21</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="11" t="s">
         <v>18</v>
@@ -1737,34 +1737,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B13" s="16">
         <v>108</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>21</v>
@@ -1782,7 +1782,7 @@
         <v>21</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="11" t="s">
         <v>18</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="16">
         <v>111</v>
@@ -1802,25 +1802,25 @@
         <v>22</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>21</v>
@@ -1838,7 +1838,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="11" t="s">
         <v>18</v>
@@ -1849,34 +1849,34 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B15" s="16">
         <v>120</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>21</v>
@@ -1894,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>18</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="16">
         <v>121</v>
@@ -1914,25 +1914,25 @@
         <v>22</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>21</v>
@@ -1950,7 +1950,7 @@
         <v>21</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>18</v>
@@ -1961,34 +1961,34 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B17" s="16">
         <v>122</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>21</v>
@@ -2006,7 +2006,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>18</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="B18" s="16">
         <v>125</v>
@@ -2026,25 +2026,25 @@
         <v>22</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>21</v>
@@ -2062,7 +2062,7 @@
         <v>21</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="11" t="s">
         <v>18</v>
@@ -2073,34 +2073,34 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="16">
         <v>126</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>21</v>
@@ -2118,7 +2118,7 @@
         <v>21</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="11" t="s">
         <v>18</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B20" s="16">
         <v>127</v>
@@ -2138,25 +2138,25 @@
         <v>22</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>21</v>
@@ -2174,7 +2174,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="11" t="s">
         <v>18</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="16">
         <v>128</v>
@@ -2194,25 +2194,25 @@
         <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>21</v>
@@ -2230,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>18</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="16">
         <v>129</v>
@@ -2250,25 +2250,25 @@
         <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>21</v>
@@ -2286,7 +2286,7 @@
         <v>21</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="11" t="s">
         <v>18</v>
@@ -2297,34 +2297,34 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B23" s="16">
         <v>130</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>21</v>
@@ -2342,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="11" t="s">
         <v>18</v>
@@ -2353,34 +2353,34 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="16">
         <v>131</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>21</v>
@@ -2398,7 +2398,7 @@
         <v>21</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>18</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="16">
         <v>132</v>
@@ -2418,25 +2418,25 @@
         <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>21</v>
@@ -2454,7 +2454,7 @@
         <v>21</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="11" t="s">
         <v>18</v>
@@ -2465,34 +2465,34 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="16">
         <v>133</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>21</v>
@@ -2510,7 +2510,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>18</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="16">
         <v>134</v>
@@ -2530,25 +2530,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>21</v>
@@ -2566,7 +2566,7 @@
         <v>21</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>18</v>
@@ -2577,34 +2577,34 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="16">
         <v>135</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>21</v>
@@ -2622,7 +2622,7 @@
         <v>21</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>18</v>
@@ -2633,34 +2633,34 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="16">
         <v>136</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>21</v>
@@ -2678,7 +2678,7 @@
         <v>21</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>18</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="16">
         <v>137</v>
@@ -2698,25 +2698,25 @@
         <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>21</v>
@@ -2734,7 +2734,7 @@
         <v>21</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>18</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="16">
         <v>138</v>
@@ -2754,25 +2754,25 @@
         <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>21</v>
@@ -2790,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>18</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" s="16">
         <v>139</v>
@@ -2810,25 +2810,25 @@
         <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>21</v>
@@ -2846,7 +2846,7 @@
         <v>21</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>18</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B33" s="16">
         <v>140</v>
@@ -2866,25 +2866,25 @@
         <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>21</v>
@@ -2902,7 +2902,7 @@
         <v>21</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="11" t="s">
         <v>18</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="16">
         <v>141</v>
@@ -2922,25 +2922,25 @@
         <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>21</v>
@@ -2958,7 +2958,7 @@
         <v>21</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>18</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="16">
         <v>142</v>
@@ -2978,25 +2978,25 @@
         <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>21</v>
@@ -3014,7 +3014,7 @@
         <v>21</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>18</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="16">
         <v>143</v>
@@ -3034,25 +3034,25 @@
         <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>21</v>
@@ -3070,7 +3070,7 @@
         <v>21</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>18</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B37" s="16">
         <v>144</v>
@@ -3090,25 +3090,25 @@
         <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>21</v>
@@ -3126,7 +3126,7 @@
         <v>21</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q37" s="11" t="s">
         <v>18</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B38" s="16">
         <v>145</v>
@@ -3146,25 +3146,25 @@
         <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>21</v>
@@ -3182,7 +3182,7 @@
         <v>21</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>18</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="16">
         <v>150</v>
@@ -3202,25 +3202,25 @@
         <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>21</v>
@@ -3238,7 +3238,7 @@
         <v>21</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="11" t="s">
         <v>18</v>
@@ -3249,34 +3249,34 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B40" s="16">
         <v>151</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>21</v>
@@ -3294,7 +3294,7 @@
         <v>21</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>18</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="16">
         <v>152</v>
@@ -3314,25 +3314,25 @@
         <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>21</v>
@@ -3350,7 +3350,7 @@
         <v>21</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q41" s="11" t="s">
         <v>18</v>
@@ -3361,34 +3361,34 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="16">
         <v>153</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>21</v>
@@ -3406,7 +3406,7 @@
         <v>21</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q42" s="11" t="s">
         <v>18</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="16">
         <v>154</v>
@@ -3426,25 +3426,25 @@
         <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>21</v>
@@ -3462,7 +3462,7 @@
         <v>21</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q43" s="11" t="s">
         <v>18</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="16">
         <v>155</v>
@@ -3482,25 +3482,25 @@
         <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>21</v>
@@ -3518,7 +3518,7 @@
         <v>21</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q44" s="11" t="s">
         <v>18</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" s="16">
         <v>156</v>
@@ -3538,25 +3538,25 @@
         <v>22</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>21</v>
@@ -3574,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="11" t="s">
         <v>18</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="16">
         <v>157</v>
@@ -3594,25 +3594,25 @@
         <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>21</v>
@@ -3630,7 +3630,7 @@
         <v>21</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q46" s="11" t="s">
         <v>18</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="16">
         <v>158</v>
@@ -3650,25 +3650,25 @@
         <v>22</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>21</v>
@@ -3686,7 +3686,7 @@
         <v>21</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q47" s="11" t="s">
         <v>18</v>
@@ -3697,34 +3697,34 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" s="16">
         <v>159</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>21</v>
@@ -3742,7 +3742,7 @@
         <v>21</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>18</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" s="16">
         <v>160</v>
@@ -3762,25 +3762,25 @@
         <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>21</v>
@@ -3798,7 +3798,7 @@
         <v>21</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q49" s="11" t="s">
         <v>18</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50" s="16">
         <v>161</v>
@@ -3818,25 +3818,25 @@
         <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>21</v>
@@ -3854,7 +3854,7 @@
         <v>21</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>18</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="16">
         <v>162</v>
@@ -3874,25 +3874,25 @@
         <v>22</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>21</v>
@@ -3910,7 +3910,7 @@
         <v>21</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="11" t="s">
         <v>18</v>
@@ -3921,34 +3921,34 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="16">
         <v>163</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>21</v>
@@ -3966,7 +3966,7 @@
         <v>21</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q52" s="11" t="s">
         <v>18</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="16">
         <v>164</v>
@@ -3986,25 +3986,25 @@
         <v>22</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>21</v>
@@ -4022,7 +4022,7 @@
         <v>21</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q53" s="11" t="s">
         <v>18</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="16">
         <v>165</v>
@@ -4042,25 +4042,25 @@
         <v>22</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>21</v>
@@ -4078,7 +4078,7 @@
         <v>21</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q54" s="11" t="s">
         <v>18</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B55" s="16">
         <v>166</v>
@@ -4098,25 +4098,25 @@
         <v>22</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>21</v>
@@ -4134,7 +4134,7 @@
         <v>21</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q55" s="11" t="s">
         <v>18</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B56" s="16">
         <v>167</v>
@@ -4154,25 +4154,25 @@
         <v>22</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>21</v>
@@ -4190,7 +4190,7 @@
         <v>21</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q56" s="11" t="s">
         <v>18</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B57" s="16">
         <v>168</v>
@@ -4210,25 +4210,25 @@
         <v>22</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>21</v>
@@ -4246,7 +4246,7 @@
         <v>21</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="11" t="s">
         <v>18</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B58" s="16">
         <v>169</v>
@@ -4266,25 +4266,25 @@
         <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>21</v>
@@ -4302,7 +4302,7 @@
         <v>21</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>18</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B59" s="16">
         <v>170</v>
@@ -4322,25 +4322,25 @@
         <v>22</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>21</v>
@@ -4358,7 +4358,7 @@
         <v>21</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q59" s="11" t="s">
         <v>18</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B60" s="16">
         <v>171</v>
@@ -4378,25 +4378,25 @@
         <v>22</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>21</v>
@@ -4414,7 +4414,7 @@
         <v>21</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q60" s="11" t="s">
         <v>18</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B61" s="16">
         <v>172</v>
@@ -4434,25 +4434,25 @@
         <v>22</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>21</v>
@@ -4470,7 +4470,7 @@
         <v>21</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q61" s="11" t="s">
         <v>18</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B62" s="16">
         <v>173</v>
@@ -4490,25 +4490,25 @@
         <v>22</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>21</v>
@@ -4526,7 +4526,7 @@
         <v>21</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q62" s="11" t="s">
         <v>18</v>
@@ -4537,34 +4537,34 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B63" s="16">
         <v>174</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>21</v>
@@ -4582,7 +4582,7 @@
         <v>21</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q63" s="11" t="s">
         <v>18</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B64" s="16">
         <v>176</v>
@@ -4602,25 +4602,25 @@
         <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>21</v>
@@ -4638,7 +4638,7 @@
         <v>21</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q64" s="11" t="s">
         <v>18</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B65" s="16">
         <v>177</v>
@@ -4658,25 +4658,25 @@
         <v>22</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>21</v>
@@ -4694,7 +4694,7 @@
         <v>21</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q65" s="11" t="s">
         <v>18</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B66" s="16">
         <v>178</v>
@@ -4714,25 +4714,25 @@
         <v>22</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>21</v>
@@ -4750,7 +4750,7 @@
         <v>21</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q66" s="11" t="s">
         <v>18</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B67" s="16">
         <v>179</v>
@@ -4770,25 +4770,25 @@
         <v>22</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>21</v>
@@ -4806,7 +4806,7 @@
         <v>21</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q67" s="11" t="s">
         <v>18</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B68" s="16">
         <v>180</v>
@@ -4826,25 +4826,25 @@
         <v>22</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>21</v>
@@ -4862,7 +4862,7 @@
         <v>21</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q68" s="11" t="s">
         <v>18</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B69" s="16">
         <v>181</v>
@@ -4882,25 +4882,25 @@
         <v>22</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>21</v>
@@ -4918,7 +4918,7 @@
         <v>21</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q69" s="11" t="s">
         <v>18</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B70" s="16">
         <v>182</v>
@@ -4938,25 +4938,25 @@
         <v>22</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>21</v>
@@ -4974,7 +4974,7 @@
         <v>21</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q70" s="11" t="s">
         <v>18</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B71" s="16">
         <v>183</v>
@@ -4994,25 +4994,25 @@
         <v>22</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>21</v>
@@ -5030,7 +5030,7 @@
         <v>21</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q71" s="11" t="s">
         <v>18</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B72" s="16">
         <v>184</v>
@@ -5050,25 +5050,25 @@
         <v>22</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>21</v>
@@ -5086,7 +5086,7 @@
         <v>21</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q72" s="11" t="s">
         <v>18</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B73" s="16">
         <v>185</v>
@@ -5106,25 +5106,25 @@
         <v>22</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>21</v>
@@ -5142,7 +5142,7 @@
         <v>21</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q73" s="11" t="s">
         <v>18</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B74" s="16">
         <v>186</v>
@@ -5162,25 +5162,25 @@
         <v>22</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>21</v>
@@ -5198,7 +5198,7 @@
         <v>21</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q74" s="11" t="s">
         <v>18</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B75" s="16">
         <v>187</v>
@@ -5218,25 +5218,25 @@
         <v>22</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>21</v>
@@ -5254,7 +5254,7 @@
         <v>21</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q75" s="11" t="s">
         <v>18</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B76" s="16">
         <v>188</v>
@@ -5274,25 +5274,25 @@
         <v>22</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>21</v>
@@ -5310,7 +5310,7 @@
         <v>21</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q76" s="11" t="s">
         <v>18</v>
@@ -5321,34 +5321,34 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B77" s="16">
         <v>189</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>21</v>
@@ -5366,7 +5366,7 @@
         <v>21</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q77" s="11" t="s">
         <v>18</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B78" s="16">
         <v>190</v>
@@ -5386,25 +5386,25 @@
         <v>22</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>21</v>
@@ -5422,7 +5422,7 @@
         <v>21</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q78" s="11" t="s">
         <v>18</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B79" s="16">
         <v>191</v>
@@ -5442,25 +5442,25 @@
         <v>22</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>21</v>
@@ -5478,7 +5478,7 @@
         <v>21</v>
       </c>
       <c r="P79" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q79" s="11" t="s">
         <v>18</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B80" s="16">
         <v>192</v>
@@ -5498,25 +5498,25 @@
         <v>22</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>21</v>
@@ -5534,7 +5534,7 @@
         <v>21</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q80" s="11" t="s">
         <v>18</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B81" s="16">
         <v>193</v>
@@ -5554,25 +5554,25 @@
         <v>22</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>21</v>
@@ -5590,7 +5590,7 @@
         <v>21</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q81" s="11" t="s">
         <v>18</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B82" s="16">
         <v>194</v>
@@ -5610,25 +5610,25 @@
         <v>22</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>21</v>
@@ -5646,7 +5646,7 @@
         <v>21</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q82" s="11" t="s">
         <v>18</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B83" s="16">
         <v>195</v>
@@ -5666,25 +5666,25 @@
         <v>22</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>21</v>
@@ -5702,7 +5702,7 @@
         <v>21</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q83" s="11" t="s">
         <v>18</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B84" s="16">
         <v>196</v>
@@ -5722,25 +5722,25 @@
         <v>22</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>21</v>
@@ -5758,7 +5758,7 @@
         <v>21</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q84" s="11" t="s">
         <v>18</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B85" s="16">
         <v>197</v>
@@ -5778,25 +5778,25 @@
         <v>22</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>21</v>
@@ -5814,7 +5814,7 @@
         <v>21</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q85" s="11" t="s">
         <v>18</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B86" s="16">
         <v>198</v>
@@ -5834,25 +5834,25 @@
         <v>22</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>21</v>
@@ -5870,7 +5870,7 @@
         <v>21</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q86" s="11" t="s">
         <v>18</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B87" s="16">
         <v>199</v>
@@ -5890,25 +5890,25 @@
         <v>22</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>21</v>
@@ -5926,7 +5926,7 @@
         <v>21</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q87" s="11" t="s">
         <v>18</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B88" s="16">
         <v>200</v>
@@ -5946,25 +5946,25 @@
         <v>22</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>21</v>
@@ -5982,7 +5982,7 @@
         <v>21</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q88" s="11" t="s">
         <v>18</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B89" s="16">
         <v>201</v>
@@ -6002,25 +6002,25 @@
         <v>22</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K89" s="8" t="s">
         <v>21</v>
@@ -6038,7 +6038,7 @@
         <v>21</v>
       </c>
       <c r="P89" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q89" s="11" t="s">
         <v>18</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B90" s="16">
         <v>202</v>
@@ -6058,25 +6058,25 @@
         <v>22</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>21</v>
@@ -6094,7 +6094,7 @@
         <v>21</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q90" s="11" t="s">
         <v>18</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B91" s="16">
         <v>203</v>
@@ -6114,25 +6114,25 @@
         <v>22</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>21</v>
@@ -6150,7 +6150,7 @@
         <v>21</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q91" s="11" t="s">
         <v>18</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B92" s="16">
         <v>204</v>
@@ -6170,25 +6170,25 @@
         <v>22</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>21</v>
@@ -6206,7 +6206,7 @@
         <v>21</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q92" s="11" t="s">
         <v>18</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B93" s="16">
         <v>205</v>
@@ -6226,25 +6226,25 @@
         <v>22</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>21</v>
@@ -6262,7 +6262,7 @@
         <v>21</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q93" s="11" t="s">
         <v>18</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B94" s="16">
         <v>206</v>
@@ -6282,25 +6282,25 @@
         <v>22</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K94" s="8" t="s">
         <v>21</v>
@@ -6318,7 +6318,7 @@
         <v>21</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q94" s="11" t="s">
         <v>18</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B95" s="16">
         <v>207</v>
@@ -6338,25 +6338,25 @@
         <v>22</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K95" s="8" t="s">
         <v>21</v>
@@ -6374,7 +6374,7 @@
         <v>21</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q95" s="11" t="s">
         <v>18</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B96" s="16">
         <v>208</v>
@@ -6394,25 +6394,25 @@
         <v>22</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K96" s="8" t="s">
         <v>21</v>
@@ -6430,7 +6430,7 @@
         <v>21</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q96" s="11" t="s">
         <v>18</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B97" s="16">
         <v>209</v>
@@ -6450,25 +6450,25 @@
         <v>22</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>21</v>
@@ -6486,7 +6486,7 @@
         <v>21</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q97" s="11" t="s">
         <v>18</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B98" s="16">
         <v>210</v>
@@ -6506,25 +6506,25 @@
         <v>22</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K98" s="8" t="s">
         <v>21</v>
@@ -6542,7 +6542,7 @@
         <v>21</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q98" s="11" t="s">
         <v>18</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B99" s="16">
         <v>211</v>
@@ -6562,25 +6562,25 @@
         <v>22</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>21</v>
@@ -6598,7 +6598,7 @@
         <v>21</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q99" s="11" t="s">
         <v>18</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B100" s="16">
         <v>212</v>
@@ -6618,25 +6618,25 @@
         <v>22</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>21</v>
@@ -6654,7 +6654,7 @@
         <v>21</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q100" s="11" t="s">
         <v>18</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B101" s="16">
         <v>213</v>
@@ -6674,25 +6674,25 @@
         <v>22</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>21</v>
@@ -6710,7 +6710,7 @@
         <v>21</v>
       </c>
       <c r="P101" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q101" s="11" t="s">
         <v>18</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B102" s="16">
         <v>214</v>
@@ -6730,25 +6730,25 @@
         <v>22</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K102" s="8" t="s">
         <v>21</v>
@@ -6766,7 +6766,7 @@
         <v>21</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q102" s="11" t="s">
         <v>18</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B103" s="16">
         <v>215</v>
@@ -6786,25 +6786,25 @@
         <v>22</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>21</v>
@@ -6822,7 +6822,7 @@
         <v>21</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q103" s="11" t="s">
         <v>18</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B104" s="16">
         <v>216</v>
@@ -6842,25 +6842,25 @@
         <v>22</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I104" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K104" s="8" t="s">
         <v>21</v>
@@ -6878,7 +6878,7 @@
         <v>21</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q104" s="11" t="s">
         <v>18</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B105" s="16">
         <v>217</v>
@@ -6898,25 +6898,25 @@
         <v>22</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>21</v>
@@ -6934,7 +6934,7 @@
         <v>21</v>
       </c>
       <c r="P105" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q105" s="11" t="s">
         <v>18</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B106" s="16">
         <v>218</v>
@@ -6954,25 +6954,25 @@
         <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K106" s="8" t="s">
         <v>21</v>
@@ -6990,7 +6990,7 @@
         <v>21</v>
       </c>
       <c r="P106" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q106" s="11" t="s">
         <v>18</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B107" s="16">
         <v>219</v>
@@ -7010,25 +7010,25 @@
         <v>22</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K107" s="8" t="s">
         <v>21</v>
@@ -7046,7 +7046,7 @@
         <v>21</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q107" s="11" t="s">
         <v>18</v>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C5057-CEEC-0C49-AC26-9FC8484E5985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738842A2-6523-AB4B-8600-DFEA0470A20C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7880" yWindow="2880" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
@@ -117,18 +117,12 @@
     <t>proto.111-Afrotheria</t>
   </si>
   <si>
-    <t>proto.126-Octodon</t>
-  </si>
-  <si>
     <t>proto.128-Capromys</t>
   </si>
   <si>
     <t>proto.129-Dinomys</t>
   </si>
   <si>
-    <t>proto.131-Ctenomys</t>
-  </si>
-  <si>
     <t>proto.132-Ctenomys</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>proto.134-Dolichotis</t>
   </si>
   <si>
-    <t>proto.135-Octomys</t>
-  </si>
-  <si>
     <t>proto.136-Octomys</t>
   </si>
   <si>
@@ -565,6 +556,15 @@
   </si>
   <si>
     <t>proto.125-HydHyd</t>
+  </si>
+  <si>
+    <t>proto.126-Octodontidae</t>
+  </si>
+  <si>
+    <t>proto.131-Ctenomyidae</t>
+  </si>
+  <si>
+    <t>proto.135-Octodontidae</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1045,8 @@
   <dimension ref="A1:R108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A1:R107"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1133,22 +1133,22 @@
         <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>20</v>
@@ -1166,7 +1166,7 @@
         <v>21</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>18</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -1186,25 +1186,25 @@
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>21</v>
@@ -1222,7 +1222,7 @@
         <v>21</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>18</v>
@@ -1245,22 +1245,22 @@
         <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>21</v>
@@ -1278,7 +1278,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>18</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -1298,25 +1298,25 @@
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>21</v>
@@ -1334,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>18</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -1354,25 +1354,25 @@
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>21</v>
@@ -1390,7 +1390,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>18</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" s="16">
         <v>101</v>
@@ -1410,25 +1410,25 @@
         <v>22</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>21</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>18</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" s="16">
         <v>102</v>
@@ -1466,25 +1466,25 @@
         <v>22</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>21</v>
@@ -1502,7 +1502,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="11" t="s">
         <v>18</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B9" s="16">
         <v>103</v>
@@ -1522,25 +1522,25 @@
         <v>22</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>21</v>
@@ -1558,7 +1558,7 @@
         <v>21</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="11" t="s">
         <v>18</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B10" s="16">
         <v>104</v>
@@ -1578,25 +1578,25 @@
         <v>22</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>21</v>
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>18</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B11" s="16">
         <v>106</v>
@@ -1634,25 +1634,25 @@
         <v>22</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>21</v>
@@ -1670,7 +1670,7 @@
         <v>21</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>18</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B12" s="16">
         <v>107</v>
@@ -1690,25 +1690,25 @@
         <v>22</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>21</v>
@@ -1726,7 +1726,7 @@
         <v>21</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="11" t="s">
         <v>18</v>
@@ -1737,34 +1737,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B13" s="16">
         <v>108</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>21</v>
@@ -1782,7 +1782,7 @@
         <v>21</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="11" t="s">
         <v>18</v>
@@ -1802,25 +1802,25 @@
         <v>22</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>21</v>
@@ -1838,7 +1838,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q14" s="11" t="s">
         <v>18</v>
@@ -1849,34 +1849,34 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" s="16">
         <v>120</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>21</v>
@@ -1894,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>18</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="16">
         <v>121</v>
@@ -1914,25 +1914,25 @@
         <v>22</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>21</v>
@@ -1950,7 +1950,7 @@
         <v>21</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>18</v>
@@ -1961,34 +1961,34 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="16">
         <v>122</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>21</v>
@@ -2006,7 +2006,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>18</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B18" s="16">
         <v>125</v>
@@ -2026,25 +2026,25 @@
         <v>22</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>21</v>
@@ -2062,7 +2062,7 @@
         <v>21</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="11" t="s">
         <v>18</v>
@@ -2073,34 +2073,34 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="B19" s="16">
         <v>126</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>21</v>
@@ -2118,7 +2118,7 @@
         <v>21</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="11" t="s">
         <v>18</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B20" s="16">
         <v>127</v>
@@ -2138,25 +2138,25 @@
         <v>22</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>21</v>
@@ -2174,7 +2174,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="11" t="s">
         <v>18</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="16">
         <v>128</v>
@@ -2194,25 +2194,25 @@
         <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>21</v>
@@ -2230,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>18</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="16">
         <v>129</v>
@@ -2250,25 +2250,25 @@
         <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>21</v>
@@ -2286,7 +2286,7 @@
         <v>21</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="11" t="s">
         <v>18</v>
@@ -2297,34 +2297,34 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="16">
         <v>130</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>21</v>
@@ -2342,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="11" t="s">
         <v>18</v>
@@ -2353,34 +2353,34 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="B24" s="16">
         <v>131</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>21</v>
@@ -2398,7 +2398,7 @@
         <v>21</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>18</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="16">
         <v>132</v>
@@ -2418,25 +2418,25 @@
         <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>21</v>
@@ -2454,7 +2454,7 @@
         <v>21</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q25" s="11" t="s">
         <v>18</v>
@@ -2465,34 +2465,34 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="16">
         <v>133</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>21</v>
@@ -2510,7 +2510,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>18</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="16">
         <v>134</v>
@@ -2530,25 +2530,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>21</v>
@@ -2566,7 +2566,7 @@
         <v>21</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>18</v>
@@ -2577,34 +2577,34 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="B28" s="16">
         <v>135</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>21</v>
@@ -2622,7 +2622,7 @@
         <v>21</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>18</v>
@@ -2633,34 +2633,34 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="16">
         <v>136</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>21</v>
@@ -2678,7 +2678,7 @@
         <v>21</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>18</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" s="16">
         <v>137</v>
@@ -2698,25 +2698,25 @@
         <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>21</v>
@@ -2734,7 +2734,7 @@
         <v>21</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>18</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="16">
         <v>138</v>
@@ -2754,25 +2754,25 @@
         <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>21</v>
@@ -2790,7 +2790,7 @@
         <v>21</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>18</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B32" s="16">
         <v>139</v>
@@ -2810,25 +2810,25 @@
         <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>21</v>
@@ -2846,7 +2846,7 @@
         <v>21</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>18</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B33" s="16">
         <v>140</v>
@@ -2866,25 +2866,25 @@
         <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>21</v>
@@ -2902,7 +2902,7 @@
         <v>21</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="11" t="s">
         <v>18</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B34" s="16">
         <v>141</v>
@@ -2922,25 +2922,25 @@
         <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>21</v>
@@ -2958,7 +2958,7 @@
         <v>21</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>18</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" s="16">
         <v>142</v>
@@ -2978,25 +2978,25 @@
         <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>21</v>
@@ -3014,7 +3014,7 @@
         <v>21</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>18</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B36" s="16">
         <v>143</v>
@@ -3034,25 +3034,25 @@
         <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>21</v>
@@ -3070,7 +3070,7 @@
         <v>21</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>18</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B37" s="16">
         <v>144</v>
@@ -3090,25 +3090,25 @@
         <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>21</v>
@@ -3126,7 +3126,7 @@
         <v>21</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q37" s="11" t="s">
         <v>18</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B38" s="16">
         <v>145</v>
@@ -3146,25 +3146,25 @@
         <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>21</v>
@@ -3182,7 +3182,7 @@
         <v>21</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>18</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" s="16">
         <v>150</v>
@@ -3202,25 +3202,25 @@
         <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>21</v>
@@ -3238,7 +3238,7 @@
         <v>21</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q39" s="11" t="s">
         <v>18</v>
@@ -3249,34 +3249,34 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B40" s="16">
         <v>151</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>21</v>
@@ -3294,7 +3294,7 @@
         <v>21</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>18</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B41" s="16">
         <v>152</v>
@@ -3314,25 +3314,25 @@
         <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>21</v>
@@ -3350,7 +3350,7 @@
         <v>21</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q41" s="11" t="s">
         <v>18</v>
@@ -3361,34 +3361,34 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B42" s="16">
         <v>153</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>21</v>
@@ -3406,7 +3406,7 @@
         <v>21</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q42" s="11" t="s">
         <v>18</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" s="16">
         <v>154</v>
@@ -3426,25 +3426,25 @@
         <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>21</v>
@@ -3462,7 +3462,7 @@
         <v>21</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q43" s="11" t="s">
         <v>18</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" s="16">
         <v>155</v>
@@ -3482,25 +3482,25 @@
         <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>21</v>
@@ -3518,7 +3518,7 @@
         <v>21</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q44" s="11" t="s">
         <v>18</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45" s="16">
         <v>156</v>
@@ -3538,25 +3538,25 @@
         <v>22</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>21</v>
@@ -3574,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q45" s="11" t="s">
         <v>18</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" s="16">
         <v>157</v>
@@ -3594,25 +3594,25 @@
         <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>21</v>
@@ -3630,7 +3630,7 @@
         <v>21</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q46" s="11" t="s">
         <v>18</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47" s="16">
         <v>158</v>
@@ -3650,25 +3650,25 @@
         <v>22</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>21</v>
@@ -3686,7 +3686,7 @@
         <v>21</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q47" s="11" t="s">
         <v>18</v>
@@ -3697,34 +3697,34 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48" s="16">
         <v>159</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>21</v>
@@ -3742,7 +3742,7 @@
         <v>21</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>18</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" s="16">
         <v>160</v>
@@ -3762,25 +3762,25 @@
         <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>21</v>
@@ -3798,7 +3798,7 @@
         <v>21</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q49" s="11" t="s">
         <v>18</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50" s="16">
         <v>161</v>
@@ -3818,25 +3818,25 @@
         <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>21</v>
@@ -3854,7 +3854,7 @@
         <v>21</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>18</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" s="16">
         <v>162</v>
@@ -3874,25 +3874,25 @@
         <v>22</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>21</v>
@@ -3910,7 +3910,7 @@
         <v>21</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q51" s="11" t="s">
         <v>18</v>
@@ -3921,34 +3921,34 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52" s="16">
         <v>163</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>21</v>
@@ -3966,7 +3966,7 @@
         <v>21</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q52" s="11" t="s">
         <v>18</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" s="16">
         <v>164</v>
@@ -3986,25 +3986,25 @@
         <v>22</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>21</v>
@@ -4022,7 +4022,7 @@
         <v>21</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q53" s="11" t="s">
         <v>18</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" s="16">
         <v>165</v>
@@ -4042,25 +4042,25 @@
         <v>22</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>21</v>
@@ -4078,7 +4078,7 @@
         <v>21</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q54" s="11" t="s">
         <v>18</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B55" s="16">
         <v>166</v>
@@ -4098,25 +4098,25 @@
         <v>22</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>21</v>
@@ -4134,7 +4134,7 @@
         <v>21</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q55" s="11" t="s">
         <v>18</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B56" s="16">
         <v>167</v>
@@ -4154,25 +4154,25 @@
         <v>22</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>21</v>
@@ -4190,7 +4190,7 @@
         <v>21</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q56" s="11" t="s">
         <v>18</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B57" s="16">
         <v>168</v>
@@ -4210,25 +4210,25 @@
         <v>22</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>21</v>
@@ -4246,7 +4246,7 @@
         <v>21</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q57" s="11" t="s">
         <v>18</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B58" s="16">
         <v>169</v>
@@ -4266,25 +4266,25 @@
         <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>21</v>
@@ -4302,7 +4302,7 @@
         <v>21</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>18</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B59" s="16">
         <v>170</v>
@@ -4322,25 +4322,25 @@
         <v>22</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>21</v>
@@ -4358,7 +4358,7 @@
         <v>21</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q59" s="11" t="s">
         <v>18</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B60" s="16">
         <v>171</v>
@@ -4378,25 +4378,25 @@
         <v>22</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>21</v>
@@ -4414,7 +4414,7 @@
         <v>21</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q60" s="11" t="s">
         <v>18</v>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B61" s="16">
         <v>172</v>
@@ -4434,25 +4434,25 @@
         <v>22</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>21</v>
@@ -4470,7 +4470,7 @@
         <v>21</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q61" s="11" t="s">
         <v>18</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B62" s="16">
         <v>173</v>
@@ -4490,25 +4490,25 @@
         <v>22</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>21</v>
@@ -4526,7 +4526,7 @@
         <v>21</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q62" s="11" t="s">
         <v>18</v>
@@ -4537,34 +4537,34 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B63" s="16">
         <v>174</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>21</v>
@@ -4582,7 +4582,7 @@
         <v>21</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q63" s="11" t="s">
         <v>18</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B64" s="16">
         <v>176</v>
@@ -4602,25 +4602,25 @@
         <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>21</v>
@@ -4638,7 +4638,7 @@
         <v>21</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q64" s="11" t="s">
         <v>18</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B65" s="16">
         <v>177</v>
@@ -4658,25 +4658,25 @@
         <v>22</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>21</v>
@@ -4694,7 +4694,7 @@
         <v>21</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q65" s="11" t="s">
         <v>18</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B66" s="16">
         <v>178</v>
@@ -4714,25 +4714,25 @@
         <v>22</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>21</v>
@@ -4750,7 +4750,7 @@
         <v>21</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q66" s="11" t="s">
         <v>18</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B67" s="16">
         <v>179</v>
@@ -4770,25 +4770,25 @@
         <v>22</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>21</v>
@@ -4806,7 +4806,7 @@
         <v>21</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q67" s="11" t="s">
         <v>18</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B68" s="16">
         <v>180</v>
@@ -4826,25 +4826,25 @@
         <v>22</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>21</v>
@@ -4862,7 +4862,7 @@
         <v>21</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q68" s="11" t="s">
         <v>18</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B69" s="16">
         <v>181</v>
@@ -4882,25 +4882,25 @@
         <v>22</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>21</v>
@@ -4918,7 +4918,7 @@
         <v>21</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q69" s="11" t="s">
         <v>18</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B70" s="16">
         <v>182</v>
@@ -4938,25 +4938,25 @@
         <v>22</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>21</v>
@@ -4974,7 +4974,7 @@
         <v>21</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q70" s="11" t="s">
         <v>18</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B71" s="16">
         <v>183</v>
@@ -4994,25 +4994,25 @@
         <v>22</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>21</v>
@@ -5030,7 +5030,7 @@
         <v>21</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q71" s="11" t="s">
         <v>18</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B72" s="16">
         <v>184</v>
@@ -5050,25 +5050,25 @@
         <v>22</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>21</v>
@@ -5086,7 +5086,7 @@
         <v>21</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q72" s="11" t="s">
         <v>18</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B73" s="16">
         <v>185</v>
@@ -5106,25 +5106,25 @@
         <v>22</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>21</v>
@@ -5142,7 +5142,7 @@
         <v>21</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q73" s="11" t="s">
         <v>18</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B74" s="16">
         <v>186</v>
@@ -5162,25 +5162,25 @@
         <v>22</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>21</v>
@@ -5198,7 +5198,7 @@
         <v>21</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q74" s="11" t="s">
         <v>18</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B75" s="16">
         <v>187</v>
@@ -5218,25 +5218,25 @@
         <v>22</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>21</v>
@@ -5254,7 +5254,7 @@
         <v>21</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q75" s="11" t="s">
         <v>18</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B76" s="16">
         <v>188</v>
@@ -5274,25 +5274,25 @@
         <v>22</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>21</v>
@@ -5310,7 +5310,7 @@
         <v>21</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q76" s="11" t="s">
         <v>18</v>
@@ -5321,34 +5321,34 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B77" s="16">
         <v>189</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>21</v>
@@ -5366,7 +5366,7 @@
         <v>21</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q77" s="11" t="s">
         <v>18</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B78" s="16">
         <v>190</v>
@@ -5386,25 +5386,25 @@
         <v>22</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>21</v>
@@ -5422,7 +5422,7 @@
         <v>21</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q78" s="11" t="s">
         <v>18</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B79" s="16">
         <v>191</v>
@@ -5442,25 +5442,25 @@
         <v>22</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>21</v>
@@ -5478,7 +5478,7 @@
         <v>21</v>
       </c>
       <c r="P79" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q79" s="11" t="s">
         <v>18</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B80" s="16">
         <v>192</v>
@@ -5498,25 +5498,25 @@
         <v>22</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>21</v>
@@ -5534,7 +5534,7 @@
         <v>21</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q80" s="11" t="s">
         <v>18</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B81" s="16">
         <v>193</v>
@@ -5554,25 +5554,25 @@
         <v>22</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>21</v>
@@ -5590,7 +5590,7 @@
         <v>21</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q81" s="11" t="s">
         <v>18</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B82" s="16">
         <v>194</v>
@@ -5610,25 +5610,25 @@
         <v>22</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>21</v>
@@ -5646,7 +5646,7 @@
         <v>21</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q82" s="11" t="s">
         <v>18</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B83" s="16">
         <v>195</v>
@@ -5666,25 +5666,25 @@
         <v>22</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>21</v>
@@ -5702,7 +5702,7 @@
         <v>21</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q83" s="11" t="s">
         <v>18</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B84" s="16">
         <v>196</v>
@@ -5722,25 +5722,25 @@
         <v>22</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>21</v>
@@ -5758,7 +5758,7 @@
         <v>21</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q84" s="11" t="s">
         <v>18</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B85" s="16">
         <v>197</v>
@@ -5778,25 +5778,25 @@
         <v>22</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>21</v>
@@ -5814,7 +5814,7 @@
         <v>21</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q85" s="11" t="s">
         <v>18</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B86" s="16">
         <v>198</v>
@@ -5834,25 +5834,25 @@
         <v>22</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>21</v>
@@ -5870,7 +5870,7 @@
         <v>21</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q86" s="11" t="s">
         <v>18</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B87" s="16">
         <v>199</v>
@@ -5890,25 +5890,25 @@
         <v>22</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>21</v>
@@ -5926,7 +5926,7 @@
         <v>21</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q87" s="11" t="s">
         <v>18</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B88" s="16">
         <v>200</v>
@@ -5946,25 +5946,25 @@
         <v>22</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>21</v>
@@ -5982,7 +5982,7 @@
         <v>21</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q88" s="11" t="s">
         <v>18</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B89" s="16">
         <v>201</v>
@@ -6002,25 +6002,25 @@
         <v>22</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K89" s="8" t="s">
         <v>21</v>
@@ -6038,7 +6038,7 @@
         <v>21</v>
       </c>
       <c r="P89" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q89" s="11" t="s">
         <v>18</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B90" s="16">
         <v>202</v>
@@ -6058,25 +6058,25 @@
         <v>22</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>21</v>
@@ -6094,7 +6094,7 @@
         <v>21</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q90" s="11" t="s">
         <v>18</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B91" s="16">
         <v>203</v>
@@ -6114,25 +6114,25 @@
         <v>22</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>21</v>
@@ -6150,7 +6150,7 @@
         <v>21</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q91" s="11" t="s">
         <v>18</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B92" s="16">
         <v>204</v>
@@ -6170,25 +6170,25 @@
         <v>22</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>21</v>
@@ -6206,7 +6206,7 @@
         <v>21</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q92" s="11" t="s">
         <v>18</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B93" s="16">
         <v>205</v>
@@ -6226,25 +6226,25 @@
         <v>22</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>21</v>
@@ -6262,7 +6262,7 @@
         <v>21</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q93" s="11" t="s">
         <v>18</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B94" s="16">
         <v>206</v>
@@ -6282,25 +6282,25 @@
         <v>22</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K94" s="8" t="s">
         <v>21</v>
@@ -6318,7 +6318,7 @@
         <v>21</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q94" s="11" t="s">
         <v>18</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B95" s="16">
         <v>207</v>
@@ -6338,25 +6338,25 @@
         <v>22</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K95" s="8" t="s">
         <v>21</v>
@@ -6374,7 +6374,7 @@
         <v>21</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q95" s="11" t="s">
         <v>18</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B96" s="16">
         <v>208</v>
@@ -6394,25 +6394,25 @@
         <v>22</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K96" s="8" t="s">
         <v>21</v>
@@ -6430,7 +6430,7 @@
         <v>21</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q96" s="11" t="s">
         <v>18</v>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B97" s="16">
         <v>209</v>
@@ -6450,25 +6450,25 @@
         <v>22</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>21</v>
@@ -6486,7 +6486,7 @@
         <v>21</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q97" s="11" t="s">
         <v>18</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B98" s="16">
         <v>210</v>
@@ -6506,25 +6506,25 @@
         <v>22</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K98" s="8" t="s">
         <v>21</v>
@@ -6542,7 +6542,7 @@
         <v>21</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q98" s="11" t="s">
         <v>18</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B99" s="16">
         <v>211</v>
@@ -6562,25 +6562,25 @@
         <v>22</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>21</v>
@@ -6598,7 +6598,7 @@
         <v>21</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q99" s="11" t="s">
         <v>18</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B100" s="16">
         <v>212</v>
@@ -6618,25 +6618,25 @@
         <v>22</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>21</v>
@@ -6654,7 +6654,7 @@
         <v>21</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q100" s="11" t="s">
         <v>18</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B101" s="16">
         <v>213</v>
@@ -6674,25 +6674,25 @@
         <v>22</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>21</v>
@@ -6710,7 +6710,7 @@
         <v>21</v>
       </c>
       <c r="P101" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q101" s="11" t="s">
         <v>18</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B102" s="16">
         <v>214</v>
@@ -6730,25 +6730,25 @@
         <v>22</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K102" s="8" t="s">
         <v>21</v>
@@ -6766,7 +6766,7 @@
         <v>21</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q102" s="11" t="s">
         <v>18</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B103" s="16">
         <v>215</v>
@@ -6786,25 +6786,25 @@
         <v>22</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>21</v>
@@ -6822,7 +6822,7 @@
         <v>21</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q103" s="11" t="s">
         <v>18</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B104" s="16">
         <v>216</v>
@@ -6842,25 +6842,25 @@
         <v>22</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I104" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K104" s="8" t="s">
         <v>21</v>
@@ -6878,7 +6878,7 @@
         <v>21</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q104" s="11" t="s">
         <v>18</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B105" s="16">
         <v>217</v>
@@ -6898,25 +6898,25 @@
         <v>22</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>21</v>
@@ -6934,7 +6934,7 @@
         <v>21</v>
       </c>
       <c r="P105" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q105" s="11" t="s">
         <v>18</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B106" s="16">
         <v>218</v>
@@ -6954,25 +6954,25 @@
         <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K106" s="8" t="s">
         <v>21</v>
@@ -6990,7 +6990,7 @@
         <v>21</v>
       </c>
       <c r="P106" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q106" s="11" t="s">
         <v>18</v>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B107" s="16">
         <v>219</v>
@@ -7010,25 +7010,25 @@
         <v>22</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F107" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I107" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J107" s="17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K107" s="8" t="s">
         <v>21</v>
@@ -7046,7 +7046,7 @@
         <v>21</v>
       </c>
       <c r="P107" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q107" s="11" t="s">
         <v>18</v>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738842A2-6523-AB4B-8600-DFEA0470A20C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89301E-DA8F-8A42-802A-150D7B34E709}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7880" yWindow="2880" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="176">
   <si>
     <t>locus_numeric_id</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>proto.158-Macropus</t>
-  </si>
-  <si>
-    <t>proto.159-Vombatus</t>
   </si>
   <si>
     <t>proto.160-Macropus</t>
@@ -1042,11 +1039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8698D365-2C1A-1149-A6A3-1E01E9655E89}">
-  <dimension ref="A1:R108"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="A1:R106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1118,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1133,22 +1130,22 @@
         <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>20</v>
@@ -1166,7 +1163,7 @@
         <v>21</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>18</v>
@@ -1177,7 +1174,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -1186,25 +1183,25 @@
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>21</v>
@@ -1222,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>18</v>
@@ -1245,22 +1242,22 @@
         <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>21</v>
@@ -1278,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>18</v>
@@ -1289,7 +1286,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -1298,25 +1295,25 @@
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>21</v>
@@ -1334,7 +1331,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>18</v>
@@ -1345,7 +1342,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -1354,25 +1351,25 @@
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>21</v>
@@ -1390,7 +1387,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>18</v>
@@ -1401,7 +1398,7 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="16">
         <v>101</v>
@@ -1410,25 +1407,25 @@
         <v>22</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>21</v>
@@ -1446,7 +1443,7 @@
         <v>21</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>18</v>
@@ -1457,7 +1454,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="16">
         <v>102</v>
@@ -1466,25 +1463,25 @@
         <v>22</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>21</v>
@@ -1502,7 +1499,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="11" t="s">
         <v>18</v>
@@ -1513,7 +1510,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="16">
         <v>103</v>
@@ -1522,25 +1519,25 @@
         <v>22</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>21</v>
@@ -1558,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="11" t="s">
         <v>18</v>
@@ -1569,7 +1566,7 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="16">
         <v>104</v>
@@ -1578,25 +1575,25 @@
         <v>22</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>21</v>
@@ -1614,7 +1611,7 @@
         <v>21</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>18</v>
@@ -1625,7 +1622,7 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="16">
         <v>106</v>
@@ -1634,25 +1631,25 @@
         <v>22</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>21</v>
@@ -1670,7 +1667,7 @@
         <v>21</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>18</v>
@@ -1681,7 +1678,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="16">
         <v>107</v>
@@ -1690,25 +1687,25 @@
         <v>22</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>21</v>
@@ -1726,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="11" t="s">
         <v>18</v>
@@ -1737,34 +1734,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="16">
         <v>108</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>21</v>
@@ -1782,7 +1779,7 @@
         <v>21</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="11" t="s">
         <v>18</v>
@@ -1802,25 +1799,25 @@
         <v>22</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>21</v>
@@ -1838,7 +1835,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="11" t="s">
         <v>18</v>
@@ -1849,34 +1846,34 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="16">
         <v>120</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>21</v>
@@ -1894,7 +1891,7 @@
         <v>21</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>18</v>
@@ -1905,7 +1902,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="16">
         <v>121</v>
@@ -1914,25 +1911,25 @@
         <v>22</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>21</v>
@@ -1950,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>18</v>
@@ -1961,34 +1958,34 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="16">
         <v>122</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>21</v>
@@ -2006,7 +2003,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>18</v>
@@ -2017,7 +2014,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="16">
         <v>125</v>
@@ -2026,25 +2023,25 @@
         <v>22</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>21</v>
@@ -2062,7 +2059,7 @@
         <v>21</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="11" t="s">
         <v>18</v>
@@ -2073,34 +2070,34 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="16">
         <v>126</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>56</v>
-      </c>
       <c r="E19" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>21</v>
@@ -2118,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="11" t="s">
         <v>18</v>
@@ -2129,7 +2126,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="16">
         <v>127</v>
@@ -2138,25 +2135,25 @@
         <v>22</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>21</v>
@@ -2174,7 +2171,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="11" t="s">
         <v>18</v>
@@ -2194,25 +2191,25 @@
         <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>21</v>
@@ -2230,7 +2227,7 @@
         <v>21</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>18</v>
@@ -2250,25 +2247,25 @@
         <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>21</v>
@@ -2286,7 +2283,7 @@
         <v>21</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="11" t="s">
         <v>18</v>
@@ -2297,34 +2294,34 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="16">
         <v>130</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>21</v>
@@ -2342,7 +2339,7 @@
         <v>21</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="11" t="s">
         <v>18</v>
@@ -2353,34 +2350,34 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="16">
         <v>131</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>21</v>
@@ -2398,7 +2395,7 @@
         <v>21</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>18</v>
@@ -2418,25 +2415,25 @@
         <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>21</v>
@@ -2454,7 +2451,7 @@
         <v>21</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="11" t="s">
         <v>18</v>
@@ -2471,28 +2468,28 @@
         <v>133</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>21</v>
@@ -2510,7 +2507,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>18</v>
@@ -2530,25 +2527,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>21</v>
@@ -2566,7 +2563,7 @@
         <v>21</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>18</v>
@@ -2577,34 +2574,34 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="16">
         <v>135</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>21</v>
@@ -2622,7 +2619,7 @@
         <v>21</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>18</v>
@@ -2639,28 +2636,28 @@
         <v>136</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>56</v>
-      </c>
       <c r="E29" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>21</v>
@@ -2678,7 +2675,7 @@
         <v>21</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>18</v>
@@ -2698,25 +2695,25 @@
         <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>21</v>
@@ -2734,7 +2731,7 @@
         <v>21</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>18</v>
@@ -2754,25 +2751,25 @@
         <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>21</v>
@@ -2790,7 +2787,7 @@
         <v>21</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>18</v>
@@ -2801,7 +2798,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="16">
         <v>139</v>
@@ -2810,25 +2807,25 @@
         <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>21</v>
@@ -2846,7 +2843,7 @@
         <v>21</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>18</v>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="16">
         <v>140</v>
@@ -2866,25 +2863,25 @@
         <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>21</v>
@@ -2902,7 +2899,7 @@
         <v>21</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="11" t="s">
         <v>18</v>
@@ -2922,25 +2919,25 @@
         <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>21</v>
@@ -2958,7 +2955,7 @@
         <v>21</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>18</v>
@@ -2978,25 +2975,25 @@
         <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>21</v>
@@ -3014,7 +3011,7 @@
         <v>21</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>18</v>
@@ -3034,25 +3031,25 @@
         <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>21</v>
@@ -3070,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>18</v>
@@ -3081,7 +3078,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="16">
         <v>144</v>
@@ -3090,25 +3087,25 @@
         <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>21</v>
@@ -3126,7 +3123,7 @@
         <v>21</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q37" s="11" t="s">
         <v>18</v>
@@ -3137,7 +3134,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="16">
         <v>145</v>
@@ -3146,25 +3143,25 @@
         <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>21</v>
@@ -3182,7 +3179,7 @@
         <v>21</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>18</v>
@@ -3202,25 +3199,25 @@
         <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>21</v>
@@ -3238,7 +3235,7 @@
         <v>21</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q39" s="11" t="s">
         <v>18</v>
@@ -3249,34 +3246,34 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="16">
         <v>151</v>
       </c>
       <c r="C40" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>98</v>
-      </c>
       <c r="E40" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>21</v>
@@ -3294,7 +3291,7 @@
         <v>21</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>18</v>
@@ -3314,25 +3311,25 @@
         <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>21</v>
@@ -3350,7 +3347,7 @@
         <v>21</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q41" s="11" t="s">
         <v>18</v>
@@ -3367,28 +3364,28 @@
         <v>153</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>21</v>
@@ -3406,7 +3403,7 @@
         <v>21</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q42" s="11" t="s">
         <v>18</v>
@@ -3426,25 +3423,25 @@
         <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>21</v>
@@ -3462,7 +3459,7 @@
         <v>21</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q43" s="11" t="s">
         <v>18</v>
@@ -3482,25 +3479,25 @@
         <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>21</v>
@@ -3518,7 +3515,7 @@
         <v>21</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q44" s="11" t="s">
         <v>18</v>
@@ -3538,25 +3535,25 @@
         <v>22</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>21</v>
@@ -3574,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q45" s="11" t="s">
         <v>18</v>
@@ -3594,25 +3591,25 @@
         <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>21</v>
@@ -3630,7 +3627,7 @@
         <v>21</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q46" s="11" t="s">
         <v>18</v>
@@ -3650,25 +3647,25 @@
         <v>22</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>21</v>
@@ -3686,7 +3683,7 @@
         <v>21</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q47" s="11" t="s">
         <v>18</v>
@@ -3700,31 +3697,31 @@
         <v>46</v>
       </c>
       <c r="B48" s="16">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>21</v>
@@ -3742,7 +3739,7 @@
         <v>21</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>18</v>
@@ -3756,31 +3753,31 @@
         <v>47</v>
       </c>
       <c r="B49" s="16">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>21</v>
@@ -3798,7 +3795,7 @@
         <v>21</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q49" s="11" t="s">
         <v>18</v>
@@ -3812,31 +3809,31 @@
         <v>48</v>
       </c>
       <c r="B50" s="16">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>21</v>
@@ -3854,7 +3851,7 @@
         <v>21</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>18</v>
@@ -3868,31 +3865,31 @@
         <v>49</v>
       </c>
       <c r="B51" s="16">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>21</v>
@@ -3910,7 +3907,7 @@
         <v>21</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q51" s="11" t="s">
         <v>18</v>
@@ -3924,31 +3921,31 @@
         <v>50</v>
       </c>
       <c r="B52" s="16">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>21</v>
@@ -3966,7 +3963,7 @@
         <v>21</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q52" s="11" t="s">
         <v>18</v>
@@ -3980,7 +3977,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="16">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>22</v>
@@ -3989,22 +3986,22 @@
         <v>71</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>21</v>
@@ -4022,7 +4019,7 @@
         <v>21</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q53" s="11" t="s">
         <v>18</v>
@@ -4032,35 +4029,35 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>52</v>
+      <c r="A54" t="s">
+        <v>166</v>
       </c>
       <c r="B54" s="16">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>21</v>
@@ -4078,7 +4075,7 @@
         <v>21</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q54" s="11" t="s">
         <v>18</v>
@@ -4088,35 +4085,35 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="16">
         <v>167</v>
       </c>
-      <c r="B55" s="16">
-        <v>166</v>
-      </c>
       <c r="C55" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>21</v>
@@ -4134,7 +4131,7 @@
         <v>21</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q55" s="11" t="s">
         <v>18</v>
@@ -4148,31 +4145,31 @@
         <v>110</v>
       </c>
       <c r="B56" s="16">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>21</v>
@@ -4190,7 +4187,7 @@
         <v>21</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q56" s="11" t="s">
         <v>18</v>
@@ -4204,31 +4201,31 @@
         <v>111</v>
       </c>
       <c r="B57" s="16">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>21</v>
@@ -4246,7 +4243,7 @@
         <v>21</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q57" s="11" t="s">
         <v>18</v>
@@ -4257,34 +4254,34 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" s="16">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>21</v>
@@ -4302,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>18</v>
@@ -4313,34 +4310,34 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B59" s="16">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>21</v>
@@ -4358,7 +4355,7 @@
         <v>21</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q59" s="11" t="s">
         <v>18</v>
@@ -4372,31 +4369,31 @@
         <v>116</v>
       </c>
       <c r="B60" s="16">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>21</v>
@@ -4414,7 +4411,7 @@
         <v>21</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q60" s="11" t="s">
         <v>18</v>
@@ -4428,31 +4425,31 @@
         <v>117</v>
       </c>
       <c r="B61" s="16">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>21</v>
@@ -4470,7 +4467,7 @@
         <v>21</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q61" s="11" t="s">
         <v>18</v>
@@ -4484,31 +4481,31 @@
         <v>118</v>
       </c>
       <c r="B62" s="16">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>21</v>
@@ -4526,7 +4523,7 @@
         <v>21</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q62" s="11" t="s">
         <v>18</v>
@@ -4540,31 +4537,31 @@
         <v>119</v>
       </c>
       <c r="B63" s="16">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>21</v>
@@ -4582,7 +4579,7 @@
         <v>21</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q63" s="11" t="s">
         <v>18</v>
@@ -4596,31 +4593,31 @@
         <v>120</v>
       </c>
       <c r="B64" s="16">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>21</v>
@@ -4638,7 +4635,7 @@
         <v>21</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q64" s="11" t="s">
         <v>18</v>
@@ -4652,31 +4649,31 @@
         <v>121</v>
       </c>
       <c r="B65" s="16">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>21</v>
@@ -4694,7 +4691,7 @@
         <v>21</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q65" s="11" t="s">
         <v>18</v>
@@ -4708,31 +4705,31 @@
         <v>122</v>
       </c>
       <c r="B66" s="16">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>21</v>
@@ -4750,7 +4747,7 @@
         <v>21</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q66" s="11" t="s">
         <v>18</v>
@@ -4764,31 +4761,31 @@
         <v>123</v>
       </c>
       <c r="B67" s="16">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>21</v>
@@ -4806,7 +4803,7 @@
         <v>21</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q67" s="11" t="s">
         <v>18</v>
@@ -4820,31 +4817,31 @@
         <v>124</v>
       </c>
       <c r="B68" s="16">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>21</v>
@@ -4862,7 +4859,7 @@
         <v>21</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q68" s="11" t="s">
         <v>18</v>
@@ -4876,31 +4873,31 @@
         <v>125</v>
       </c>
       <c r="B69" s="16">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>21</v>
@@ -4918,7 +4915,7 @@
         <v>21</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q69" s="11" t="s">
         <v>18</v>
@@ -4932,31 +4929,31 @@
         <v>126</v>
       </c>
       <c r="B70" s="16">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>21</v>
@@ -4974,7 +4971,7 @@
         <v>21</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q70" s="11" t="s">
         <v>18</v>
@@ -4988,31 +4985,31 @@
         <v>127</v>
       </c>
       <c r="B71" s="16">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>21</v>
@@ -5030,7 +5027,7 @@
         <v>21</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q71" s="11" t="s">
         <v>18</v>
@@ -5044,31 +5041,31 @@
         <v>128</v>
       </c>
       <c r="B72" s="16">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>21</v>
@@ -5086,7 +5083,7 @@
         <v>21</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q72" s="11" t="s">
         <v>18</v>
@@ -5100,31 +5097,31 @@
         <v>129</v>
       </c>
       <c r="B73" s="16">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>21</v>
@@ -5142,7 +5139,7 @@
         <v>21</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q73" s="11" t="s">
         <v>18</v>
@@ -5156,31 +5153,31 @@
         <v>130</v>
       </c>
       <c r="B74" s="16">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>21</v>
@@ -5198,7 +5195,7 @@
         <v>21</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q74" s="11" t="s">
         <v>18</v>
@@ -5212,31 +5209,31 @@
         <v>131</v>
       </c>
       <c r="B75" s="16">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>21</v>
@@ -5254,7 +5251,7 @@
         <v>21</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q75" s="11" t="s">
         <v>18</v>
@@ -5265,34 +5262,34 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="B76" s="16">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>21</v>
@@ -5310,7 +5307,7 @@
         <v>21</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q76" s="11" t="s">
         <v>18</v>
@@ -5321,34 +5318,34 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="B77" s="16">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>21</v>
@@ -5366,7 +5363,7 @@
         <v>21</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q77" s="11" t="s">
         <v>18</v>
@@ -5380,31 +5377,31 @@
         <v>133</v>
       </c>
       <c r="B78" s="16">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>21</v>
@@ -5422,7 +5419,7 @@
         <v>21</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q78" s="11" t="s">
         <v>18</v>
@@ -5436,31 +5433,31 @@
         <v>134</v>
       </c>
       <c r="B79" s="16">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>21</v>
@@ -5478,7 +5475,7 @@
         <v>21</v>
       </c>
       <c r="P79" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q79" s="11" t="s">
         <v>18</v>
@@ -5492,31 +5489,31 @@
         <v>135</v>
       </c>
       <c r="B80" s="16">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>21</v>
@@ -5534,7 +5531,7 @@
         <v>21</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q80" s="11" t="s">
         <v>18</v>
@@ -5548,31 +5545,31 @@
         <v>136</v>
       </c>
       <c r="B81" s="16">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>21</v>
@@ -5590,7 +5587,7 @@
         <v>21</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q81" s="11" t="s">
         <v>18</v>
@@ -5604,31 +5601,31 @@
         <v>137</v>
       </c>
       <c r="B82" s="16">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>21</v>
@@ -5646,7 +5643,7 @@
         <v>21</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q82" s="11" t="s">
         <v>18</v>
@@ -5660,31 +5657,31 @@
         <v>138</v>
       </c>
       <c r="B83" s="16">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>21</v>
@@ -5702,101 +5699,101 @@
         <v>21</v>
       </c>
       <c r="P83" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R83" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="16">
+        <v>197</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P84" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R84" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="16">
+        <v>198</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="Q83" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R83" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="16">
-        <v>196</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M84" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N84" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O84" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P84" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R84" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" s="16">
-        <v>197</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="E85" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>21</v>
@@ -5814,7 +5811,7 @@
         <v>21</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q85" s="11" t="s">
         <v>18</v>
@@ -5828,31 +5825,31 @@
         <v>141</v>
       </c>
       <c r="B86" s="16">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>21</v>
@@ -5870,7 +5867,7 @@
         <v>21</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q86" s="11" t="s">
         <v>18</v>
@@ -5884,31 +5881,31 @@
         <v>142</v>
       </c>
       <c r="B87" s="16">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>21</v>
@@ -5926,7 +5923,7 @@
         <v>21</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q87" s="11" t="s">
         <v>18</v>
@@ -5940,7 +5937,7 @@
         <v>143</v>
       </c>
       <c r="B88" s="16">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>22</v>
@@ -5949,22 +5946,22 @@
         <v>80</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>21</v>
@@ -5982,7 +5979,7 @@
         <v>21</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q88" s="11" t="s">
         <v>18</v>
@@ -5996,31 +5993,31 @@
         <v>144</v>
       </c>
       <c r="B89" s="16">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K89" s="8" t="s">
         <v>21</v>
@@ -6038,7 +6035,7 @@
         <v>21</v>
       </c>
       <c r="P89" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q89" s="11" t="s">
         <v>18</v>
@@ -6052,7 +6049,7 @@
         <v>145</v>
       </c>
       <c r="B90" s="16">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C90" s="17" t="s">
         <v>22</v>
@@ -6061,22 +6058,22 @@
         <v>81</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>21</v>
@@ -6094,7 +6091,7 @@
         <v>21</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q90" s="11" t="s">
         <v>18</v>
@@ -6108,31 +6105,31 @@
         <v>146</v>
       </c>
       <c r="B91" s="16">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C91" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>21</v>
@@ -6150,7 +6147,7 @@
         <v>21</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q91" s="11" t="s">
         <v>18</v>
@@ -6164,31 +6161,31 @@
         <v>147</v>
       </c>
       <c r="B92" s="16">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>21</v>
@@ -6206,7 +6203,7 @@
         <v>21</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q92" s="11" t="s">
         <v>18</v>
@@ -6220,31 +6217,31 @@
         <v>148</v>
       </c>
       <c r="B93" s="16">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>21</v>
@@ -6262,7 +6259,7 @@
         <v>21</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q93" s="11" t="s">
         <v>18</v>
@@ -6276,31 +6273,31 @@
         <v>149</v>
       </c>
       <c r="B94" s="16">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K94" s="8" t="s">
         <v>21</v>
@@ -6318,7 +6315,7 @@
         <v>21</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q94" s="11" t="s">
         <v>18</v>
@@ -6332,7 +6329,7 @@
         <v>150</v>
       </c>
       <c r="B95" s="16">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C95" s="17" t="s">
         <v>22</v>
@@ -6341,22 +6338,22 @@
         <v>82</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K95" s="8" t="s">
         <v>21</v>
@@ -6374,7 +6371,7 @@
         <v>21</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q95" s="11" t="s">
         <v>18</v>
@@ -6388,31 +6385,31 @@
         <v>151</v>
       </c>
       <c r="B96" s="16">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C96" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K96" s="8" t="s">
         <v>21</v>
@@ -6430,7 +6427,7 @@
         <v>21</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q96" s="11" t="s">
         <v>18</v>
@@ -6441,34 +6438,34 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="B97" s="16">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C97" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>21</v>
@@ -6486,7 +6483,7 @@
         <v>21</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q97" s="11" t="s">
         <v>18</v>
@@ -6497,34 +6494,34 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="B98" s="16">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K98" s="8" t="s">
         <v>21</v>
@@ -6542,7 +6539,7 @@
         <v>21</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q98" s="11" t="s">
         <v>18</v>
@@ -6556,31 +6553,31 @@
         <v>153</v>
       </c>
       <c r="B99" s="16">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>21</v>
@@ -6598,7 +6595,7 @@
         <v>21</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q99" s="11" t="s">
         <v>18</v>
@@ -6612,31 +6609,31 @@
         <v>154</v>
       </c>
       <c r="B100" s="16">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C100" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>21</v>
@@ -6654,7 +6651,7 @@
         <v>21</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q100" s="11" t="s">
         <v>18</v>
@@ -6668,31 +6665,31 @@
         <v>155</v>
       </c>
       <c r="B101" s="16">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>21</v>
@@ -6710,7 +6707,7 @@
         <v>21</v>
       </c>
       <c r="P101" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q101" s="11" t="s">
         <v>18</v>
@@ -6724,31 +6721,31 @@
         <v>156</v>
       </c>
       <c r="B102" s="16">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C102" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K102" s="8" t="s">
         <v>21</v>
@@ -6766,7 +6763,7 @@
         <v>21</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q102" s="11" t="s">
         <v>18</v>
@@ -6780,31 +6777,31 @@
         <v>157</v>
       </c>
       <c r="B103" s="16">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>21</v>
@@ -6822,7 +6819,7 @@
         <v>21</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q103" s="11" t="s">
         <v>18</v>
@@ -6836,31 +6833,31 @@
         <v>158</v>
       </c>
       <c r="B104" s="16">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C104" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I104" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K104" s="8" t="s">
         <v>21</v>
@@ -6878,7 +6875,7 @@
         <v>21</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q104" s="11" t="s">
         <v>18</v>
@@ -6892,31 +6889,31 @@
         <v>159</v>
       </c>
       <c r="B105" s="16">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C105" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>21</v>
@@ -6934,7 +6931,7 @@
         <v>21</v>
       </c>
       <c r="P105" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q105" s="11" t="s">
         <v>18</v>
@@ -6948,31 +6945,31 @@
         <v>160</v>
       </c>
       <c r="B106" s="16">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K106" s="8" t="s">
         <v>21</v>
@@ -6990,7 +6987,7 @@
         <v>21</v>
       </c>
       <c r="P106" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q106" s="11" t="s">
         <v>18</v>
@@ -7000,67 +6997,11 @@
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B107" s="16">
-        <v>219</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="G107" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="H107" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="I107" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J107" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M107" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N107" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O107" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P107" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q107" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R107" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B108"/>
+      <c r="B107"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R107">
-    <sortCondition ref="B2:B107"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R106">
+    <sortCondition ref="B2:B106"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89301E-DA8F-8A42-802A-150D7B34E709}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E80037-08C4-1F44-A8B8-109252DE9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="2880" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
+    <workbookView xWindow="10760" yWindow="6520" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,12 +174,6 @@
     <t>proto.158-Macropus</t>
   </si>
   <si>
-    <t>proto.160-Macropus</t>
-  </si>
-  <si>
-    <t>proto.161-Macropus</t>
-  </si>
-  <si>
     <t>proto.162-Gymnobelideus</t>
   </si>
   <si>
@@ -562,6 +556,12 @@
   </si>
   <si>
     <t>proto.135-Octodontidae</t>
+  </si>
+  <si>
+    <t>proto.160-MacEug</t>
+  </si>
+  <si>
+    <t>proto.161-MacEug</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1042,8 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="A1:R106"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1130,22 +1130,22 @@
         <v>23</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>20</v>
@@ -1163,7 +1163,7 @@
         <v>21</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>18</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -1183,25 +1183,25 @@
         <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>21</v>
@@ -1219,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>18</v>
@@ -1242,22 +1242,22 @@
         <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>21</v>
@@ -1275,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>18</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="10">
         <v>4</v>
@@ -1295,25 +1295,25 @@
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>21</v>
@@ -1331,7 +1331,7 @@
         <v>21</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>18</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -1351,25 +1351,25 @@
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>21</v>
@@ -1387,7 +1387,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>18</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="16">
         <v>101</v>
@@ -1407,25 +1407,25 @@
         <v>22</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>21</v>
@@ -1443,7 +1443,7 @@
         <v>21</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="11" t="s">
         <v>18</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="16">
         <v>102</v>
@@ -1463,25 +1463,25 @@
         <v>22</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>21</v>
@@ -1499,7 +1499,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="11" t="s">
         <v>18</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="16">
         <v>103</v>
@@ -1519,25 +1519,25 @@
         <v>22</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>21</v>
@@ -1555,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="11" t="s">
         <v>18</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" s="16">
         <v>104</v>
@@ -1575,25 +1575,25 @@
         <v>22</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>21</v>
@@ -1611,7 +1611,7 @@
         <v>21</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="11" t="s">
         <v>18</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="16">
         <v>106</v>
@@ -1631,25 +1631,25 @@
         <v>22</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>21</v>
@@ -1667,7 +1667,7 @@
         <v>21</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>18</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="16">
         <v>107</v>
@@ -1687,25 +1687,25 @@
         <v>22</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>21</v>
@@ -1723,7 +1723,7 @@
         <v>21</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="11" t="s">
         <v>18</v>
@@ -1734,34 +1734,34 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="16">
         <v>108</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>21</v>
@@ -1779,7 +1779,7 @@
         <v>21</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="11" t="s">
         <v>18</v>
@@ -1799,25 +1799,25 @@
         <v>22</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>21</v>
@@ -1835,7 +1835,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="11" t="s">
         <v>18</v>
@@ -1846,34 +1846,34 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="16">
         <v>120</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>21</v>
@@ -1891,7 +1891,7 @@
         <v>21</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="11" t="s">
         <v>18</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="16">
         <v>121</v>
@@ -1911,25 +1911,25 @@
         <v>22</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>21</v>
@@ -1947,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>18</v>
@@ -1958,34 +1958,34 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="16">
         <v>122</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>21</v>
@@ -2003,7 +2003,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="11" t="s">
         <v>18</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B18" s="16">
         <v>125</v>
@@ -2023,25 +2023,25 @@
         <v>22</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>21</v>
@@ -2059,7 +2059,7 @@
         <v>21</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="11" t="s">
         <v>18</v>
@@ -2070,34 +2070,34 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B19" s="16">
         <v>126</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>21</v>
@@ -2115,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="11" t="s">
         <v>18</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B20" s="16">
         <v>127</v>
@@ -2135,25 +2135,25 @@
         <v>22</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>21</v>
@@ -2171,7 +2171,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="11" t="s">
         <v>18</v>
@@ -2191,25 +2191,25 @@
         <v>22</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>21</v>
@@ -2227,7 +2227,7 @@
         <v>21</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>18</v>
@@ -2247,25 +2247,25 @@
         <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>21</v>
@@ -2283,7 +2283,7 @@
         <v>21</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="11" t="s">
         <v>18</v>
@@ -2294,34 +2294,34 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="16">
         <v>130</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>21</v>
@@ -2339,7 +2339,7 @@
         <v>21</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="11" t="s">
         <v>18</v>
@@ -2350,34 +2350,34 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B24" s="16">
         <v>131</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>21</v>
@@ -2395,7 +2395,7 @@
         <v>21</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>18</v>
@@ -2415,25 +2415,25 @@
         <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>21</v>
@@ -2451,7 +2451,7 @@
         <v>21</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="11" t="s">
         <v>18</v>
@@ -2468,28 +2468,28 @@
         <v>133</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>21</v>
@@ -2507,7 +2507,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>18</v>
@@ -2527,25 +2527,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>21</v>
@@ -2563,7 +2563,7 @@
         <v>21</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>18</v>
@@ -2574,34 +2574,34 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B28" s="16">
         <v>135</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>21</v>
@@ -2619,7 +2619,7 @@
         <v>21</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>18</v>
@@ -2636,28 +2636,28 @@
         <v>136</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>21</v>
@@ -2675,7 +2675,7 @@
         <v>21</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>18</v>
@@ -2695,25 +2695,25 @@
         <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>21</v>
@@ -2731,7 +2731,7 @@
         <v>21</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="11" t="s">
         <v>18</v>
@@ -2751,25 +2751,25 @@
         <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>21</v>
@@ -2787,7 +2787,7 @@
         <v>21</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="11" t="s">
         <v>18</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" s="16">
         <v>139</v>
@@ -2807,25 +2807,25 @@
         <v>22</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>21</v>
@@ -2843,7 +2843,7 @@
         <v>21</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>18</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B33" s="16">
         <v>140</v>
@@ -2863,25 +2863,25 @@
         <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>21</v>
@@ -2899,7 +2899,7 @@
         <v>21</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="11" t="s">
         <v>18</v>
@@ -2919,25 +2919,25 @@
         <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>21</v>
@@ -2955,7 +2955,7 @@
         <v>21</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="11" t="s">
         <v>18</v>
@@ -2975,25 +2975,25 @@
         <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>21</v>
@@ -3011,7 +3011,7 @@
         <v>21</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q35" s="11" t="s">
         <v>18</v>
@@ -3031,25 +3031,25 @@
         <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>21</v>
@@ -3067,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="11" t="s">
         <v>18</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B37" s="16">
         <v>144</v>
@@ -3087,25 +3087,25 @@
         <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>21</v>
@@ -3123,7 +3123,7 @@
         <v>21</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q37" s="11" t="s">
         <v>18</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B38" s="16">
         <v>145</v>
@@ -3143,25 +3143,25 @@
         <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>21</v>
@@ -3179,7 +3179,7 @@
         <v>21</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="11" t="s">
         <v>18</v>
@@ -3199,25 +3199,25 @@
         <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>21</v>
@@ -3235,7 +3235,7 @@
         <v>21</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="11" t="s">
         <v>18</v>
@@ -3246,34 +3246,34 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B40" s="16">
         <v>151</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>21</v>
@@ -3291,7 +3291,7 @@
         <v>21</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q40" s="11" t="s">
         <v>18</v>
@@ -3311,25 +3311,25 @@
         <v>22</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>21</v>
@@ -3347,7 +3347,7 @@
         <v>21</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q41" s="11" t="s">
         <v>18</v>
@@ -3364,28 +3364,28 @@
         <v>153</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>21</v>
@@ -3403,7 +3403,7 @@
         <v>21</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q42" s="11" t="s">
         <v>18</v>
@@ -3423,25 +3423,25 @@
         <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>21</v>
@@ -3459,7 +3459,7 @@
         <v>21</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="11" t="s">
         <v>18</v>
@@ -3479,25 +3479,25 @@
         <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>21</v>
@@ -3515,7 +3515,7 @@
         <v>21</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q44" s="11" t="s">
         <v>18</v>
@@ -3535,25 +3535,25 @@
         <v>22</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>21</v>
@@ -3571,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q45" s="11" t="s">
         <v>18</v>
@@ -3591,25 +3591,25 @@
         <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>21</v>
@@ -3627,7 +3627,7 @@
         <v>21</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q46" s="11" t="s">
         <v>18</v>
@@ -3647,25 +3647,25 @@
         <v>22</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>21</v>
@@ -3683,7 +3683,7 @@
         <v>21</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q47" s="11" t="s">
         <v>18</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="B48" s="16">
         <v>160</v>
@@ -3703,25 +3703,25 @@
         <v>22</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>21</v>
@@ -3739,7 +3739,7 @@
         <v>21</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="11" t="s">
         <v>18</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="B49" s="16">
         <v>161</v>
@@ -3759,25 +3759,25 @@
         <v>22</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>21</v>
@@ -3795,7 +3795,7 @@
         <v>21</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q49" s="11" t="s">
         <v>18</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" s="16">
         <v>162</v>
@@ -3815,25 +3815,25 @@
         <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>21</v>
@@ -3851,7 +3851,7 @@
         <v>21</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q50" s="11" t="s">
         <v>18</v>
@@ -3862,34 +3862,34 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="16">
         <v>163</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>21</v>
@@ -3907,7 +3907,7 @@
         <v>21</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q51" s="11" t="s">
         <v>18</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" s="16">
         <v>164</v>
@@ -3927,25 +3927,25 @@
         <v>22</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K52" s="8" t="s">
         <v>21</v>
@@ -3963,7 +3963,7 @@
         <v>21</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q52" s="11" t="s">
         <v>18</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="16">
         <v>165</v>
@@ -3983,25 +3983,25 @@
         <v>22</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>21</v>
@@ -4019,7 +4019,7 @@
         <v>21</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q53" s="11" t="s">
         <v>18</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B54" s="16">
         <v>166</v>
@@ -4039,25 +4039,25 @@
         <v>22</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>21</v>
@@ -4075,7 +4075,7 @@
         <v>21</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q54" s="11" t="s">
         <v>18</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="16">
         <v>167</v>
@@ -4095,25 +4095,25 @@
         <v>22</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>21</v>
@@ -4131,7 +4131,7 @@
         <v>21</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q55" s="11" t="s">
         <v>18</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B56" s="16">
         <v>168</v>
@@ -4151,25 +4151,25 @@
         <v>22</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>21</v>
@@ -4187,7 +4187,7 @@
         <v>21</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q56" s="11" t="s">
         <v>18</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B57" s="16">
         <v>169</v>
@@ -4207,25 +4207,25 @@
         <v>22</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I57" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>21</v>
@@ -4243,7 +4243,7 @@
         <v>21</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q57" s="11" t="s">
         <v>18</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B58" s="16">
         <v>170</v>
@@ -4263,25 +4263,25 @@
         <v>22</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K58" s="8" t="s">
         <v>21</v>
@@ -4299,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q58" s="11" t="s">
         <v>18</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B59" s="16">
         <v>171</v>
@@ -4319,25 +4319,25 @@
         <v>22</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>21</v>
@@ -4355,7 +4355,7 @@
         <v>21</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q59" s="11" t="s">
         <v>18</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" s="16">
         <v>172</v>
@@ -4375,25 +4375,25 @@
         <v>22</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>21</v>
@@ -4411,7 +4411,7 @@
         <v>21</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q60" s="11" t="s">
         <v>18</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" s="16">
         <v>173</v>
@@ -4431,25 +4431,25 @@
         <v>22</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K61" s="8" t="s">
         <v>21</v>
@@ -4467,7 +4467,7 @@
         <v>21</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q61" s="11" t="s">
         <v>18</v>
@@ -4478,34 +4478,34 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B62" s="16">
         <v>174</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I62" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>21</v>
@@ -4523,7 +4523,7 @@
         <v>21</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q62" s="11" t="s">
         <v>18</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" s="16">
         <v>176</v>
@@ -4543,25 +4543,25 @@
         <v>22</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>21</v>
@@ -4579,7 +4579,7 @@
         <v>21</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q63" s="11" t="s">
         <v>18</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B64" s="16">
         <v>177</v>
@@ -4599,25 +4599,25 @@
         <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>21</v>
@@ -4635,7 +4635,7 @@
         <v>21</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q64" s="11" t="s">
         <v>18</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B65" s="16">
         <v>178</v>
@@ -4655,25 +4655,25 @@
         <v>22</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>21</v>
@@ -4691,7 +4691,7 @@
         <v>21</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q65" s="11" t="s">
         <v>18</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B66" s="16">
         <v>179</v>
@@ -4711,25 +4711,25 @@
         <v>22</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>21</v>
@@ -4747,7 +4747,7 @@
         <v>21</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q66" s="11" t="s">
         <v>18</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B67" s="16">
         <v>180</v>
@@ -4767,25 +4767,25 @@
         <v>22</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>21</v>
@@ -4803,7 +4803,7 @@
         <v>21</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q67" s="11" t="s">
         <v>18</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B68" s="16">
         <v>181</v>
@@ -4823,25 +4823,25 @@
         <v>22</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K68" s="8" t="s">
         <v>21</v>
@@ -4859,7 +4859,7 @@
         <v>21</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q68" s="11" t="s">
         <v>18</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B69" s="16">
         <v>182</v>
@@ -4879,25 +4879,25 @@
         <v>22</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>21</v>
@@ -4915,7 +4915,7 @@
         <v>21</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q69" s="11" t="s">
         <v>18</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B70" s="16">
         <v>183</v>
@@ -4935,25 +4935,25 @@
         <v>22</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>21</v>
@@ -4971,7 +4971,7 @@
         <v>21</v>
       </c>
       <c r="P70" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q70" s="11" t="s">
         <v>18</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B71" s="16">
         <v>184</v>
@@ -4991,25 +4991,25 @@
         <v>22</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J71" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>21</v>
@@ -5027,7 +5027,7 @@
         <v>21</v>
       </c>
       <c r="P71" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q71" s="11" t="s">
         <v>18</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B72" s="16">
         <v>185</v>
@@ -5047,25 +5047,25 @@
         <v>22</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J72" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K72" s="8" t="s">
         <v>21</v>
@@ -5083,7 +5083,7 @@
         <v>21</v>
       </c>
       <c r="P72" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q72" s="11" t="s">
         <v>18</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B73" s="16">
         <v>186</v>
@@ -5103,25 +5103,25 @@
         <v>22</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>21</v>
@@ -5139,7 +5139,7 @@
         <v>21</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q73" s="11" t="s">
         <v>18</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B74" s="16">
         <v>187</v>
@@ -5159,25 +5159,25 @@
         <v>22</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I74" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K74" s="8" t="s">
         <v>21</v>
@@ -5195,7 +5195,7 @@
         <v>21</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q74" s="11" t="s">
         <v>18</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B75" s="16">
         <v>188</v>
@@ -5215,25 +5215,25 @@
         <v>22</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K75" s="8" t="s">
         <v>21</v>
@@ -5251,7 +5251,7 @@
         <v>21</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q75" s="11" t="s">
         <v>18</v>
@@ -5262,34 +5262,34 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B76" s="16">
         <v>189</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>21</v>
@@ -5307,7 +5307,7 @@
         <v>21</v>
       </c>
       <c r="P76" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q76" s="11" t="s">
         <v>18</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B77" s="16">
         <v>190</v>
@@ -5327,25 +5327,25 @@
         <v>22</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I77" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>21</v>
@@ -5363,7 +5363,7 @@
         <v>21</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q77" s="11" t="s">
         <v>18</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B78" s="16">
         <v>191</v>
@@ -5383,25 +5383,25 @@
         <v>22</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>21</v>
@@ -5419,7 +5419,7 @@
         <v>21</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q78" s="11" t="s">
         <v>18</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B79" s="16">
         <v>192</v>
@@ -5439,25 +5439,25 @@
         <v>22</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>21</v>
@@ -5475,7 +5475,7 @@
         <v>21</v>
       </c>
       <c r="P79" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q79" s="11" t="s">
         <v>18</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="16">
         <v>193</v>
@@ -5495,25 +5495,25 @@
         <v>22</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I80" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>21</v>
@@ -5531,7 +5531,7 @@
         <v>21</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q80" s="11" t="s">
         <v>18</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B81" s="16">
         <v>194</v>
@@ -5551,25 +5551,25 @@
         <v>22</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>21</v>
@@ -5587,7 +5587,7 @@
         <v>21</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q81" s="11" t="s">
         <v>18</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B82" s="16">
         <v>195</v>
@@ -5607,25 +5607,25 @@
         <v>22</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>21</v>
@@ -5643,7 +5643,7 @@
         <v>21</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q82" s="11" t="s">
         <v>18</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B83" s="16">
         <v>196</v>
@@ -5663,25 +5663,25 @@
         <v>22</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>21</v>
@@ -5699,7 +5699,7 @@
         <v>21</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q83" s="11" t="s">
         <v>18</v>
@@ -5710,7 +5710,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B84" s="16">
         <v>197</v>
@@ -5719,25 +5719,25 @@
         <v>22</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I84" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>21</v>
@@ -5755,7 +5755,7 @@
         <v>21</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q84" s="11" t="s">
         <v>18</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B85" s="16">
         <v>198</v>
@@ -5775,25 +5775,25 @@
         <v>22</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I85" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>21</v>
@@ -5811,7 +5811,7 @@
         <v>21</v>
       </c>
       <c r="P85" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q85" s="11" t="s">
         <v>18</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B86" s="16">
         <v>199</v>
@@ -5831,25 +5831,25 @@
         <v>22</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>21</v>
@@ -5867,7 +5867,7 @@
         <v>21</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q86" s="11" t="s">
         <v>18</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B87" s="16">
         <v>200</v>
@@ -5887,25 +5887,25 @@
         <v>22</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I87" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>21</v>
@@ -5923,7 +5923,7 @@
         <v>21</v>
       </c>
       <c r="P87" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q87" s="11" t="s">
         <v>18</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B88" s="16">
         <v>201</v>
@@ -5943,25 +5943,25 @@
         <v>22</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>21</v>
@@ -5979,7 +5979,7 @@
         <v>21</v>
       </c>
       <c r="P88" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q88" s="11" t="s">
         <v>18</v>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B89" s="16">
         <v>202</v>
@@ -5999,25 +5999,25 @@
         <v>22</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K89" s="8" t="s">
         <v>21</v>
@@ -6035,7 +6035,7 @@
         <v>21</v>
       </c>
       <c r="P89" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q89" s="11" t="s">
         <v>18</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B90" s="16">
         <v>203</v>
@@ -6055,25 +6055,25 @@
         <v>22</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I90" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>21</v>
@@ -6091,7 +6091,7 @@
         <v>21</v>
       </c>
       <c r="P90" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q90" s="11" t="s">
         <v>18</v>
@@ -6102,7 +6102,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B91" s="16">
         <v>204</v>
@@ -6111,25 +6111,25 @@
         <v>22</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I91" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K91" s="8" t="s">
         <v>21</v>
@@ -6147,7 +6147,7 @@
         <v>21</v>
       </c>
       <c r="P91" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q91" s="11" t="s">
         <v>18</v>
@@ -6158,7 +6158,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B92" s="16">
         <v>205</v>
@@ -6167,25 +6167,25 @@
         <v>22</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I92" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K92" s="8" t="s">
         <v>21</v>
@@ -6203,7 +6203,7 @@
         <v>21</v>
       </c>
       <c r="P92" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q92" s="11" t="s">
         <v>18</v>
@@ -6214,7 +6214,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B93" s="16">
         <v>206</v>
@@ -6223,25 +6223,25 @@
         <v>22</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I93" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K93" s="8" t="s">
         <v>21</v>
@@ -6259,7 +6259,7 @@
         <v>21</v>
       </c>
       <c r="P93" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q93" s="11" t="s">
         <v>18</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B94" s="16">
         <v>207</v>
@@ -6279,25 +6279,25 @@
         <v>22</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I94" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K94" s="8" t="s">
         <v>21</v>
@@ -6315,7 +6315,7 @@
         <v>21</v>
       </c>
       <c r="P94" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q94" s="11" t="s">
         <v>18</v>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B95" s="16">
         <v>208</v>
@@ -6335,25 +6335,25 @@
         <v>22</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I95" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K95" s="8" t="s">
         <v>21</v>
@@ -6371,7 +6371,7 @@
         <v>21</v>
       </c>
       <c r="P95" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q95" s="11" t="s">
         <v>18</v>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B96" s="16">
         <v>209</v>
@@ -6391,25 +6391,25 @@
         <v>22</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I96" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K96" s="8" t="s">
         <v>21</v>
@@ -6427,7 +6427,7 @@
         <v>21</v>
       </c>
       <c r="P96" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q96" s="11" t="s">
         <v>18</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B97" s="16">
         <v>210</v>
@@ -6447,25 +6447,25 @@
         <v>22</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F97" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>21</v>
@@ -6483,7 +6483,7 @@
         <v>21</v>
       </c>
       <c r="P97" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q97" s="11" t="s">
         <v>18</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B98" s="16">
         <v>211</v>
@@ -6503,25 +6503,25 @@
         <v>22</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F98" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H98" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K98" s="8" t="s">
         <v>21</v>
@@ -6539,7 +6539,7 @@
         <v>21</v>
       </c>
       <c r="P98" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q98" s="11" t="s">
         <v>18</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B99" s="16">
         <v>212</v>
@@ -6559,25 +6559,25 @@
         <v>22</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H99" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>21</v>
@@ -6595,7 +6595,7 @@
         <v>21</v>
       </c>
       <c r="P99" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q99" s="11" t="s">
         <v>18</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B100" s="16">
         <v>213</v>
@@ -6615,25 +6615,25 @@
         <v>22</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H100" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I100" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>21</v>
@@ -6651,7 +6651,7 @@
         <v>21</v>
       </c>
       <c r="P100" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q100" s="11" t="s">
         <v>18</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B101" s="16">
         <v>214</v>
@@ -6671,25 +6671,25 @@
         <v>22</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H101" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I101" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>21</v>
@@ -6707,7 +6707,7 @@
         <v>21</v>
       </c>
       <c r="P101" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q101" s="11" t="s">
         <v>18</v>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B102" s="16">
         <v>215</v>
@@ -6727,25 +6727,25 @@
         <v>22</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F102" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H102" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I102" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K102" s="8" t="s">
         <v>21</v>
@@ -6763,7 +6763,7 @@
         <v>21</v>
       </c>
       <c r="P102" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q102" s="11" t="s">
         <v>18</v>
@@ -6774,7 +6774,7 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B103" s="16">
         <v>216</v>
@@ -6783,25 +6783,25 @@
         <v>22</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H103" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I103" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J103" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>21</v>
@@ -6819,7 +6819,7 @@
         <v>21</v>
       </c>
       <c r="P103" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q103" s="11" t="s">
         <v>18</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B104" s="16">
         <v>217</v>
@@ -6839,25 +6839,25 @@
         <v>22</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F104" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I104" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J104" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K104" s="8" t="s">
         <v>21</v>
@@ -6875,7 +6875,7 @@
         <v>21</v>
       </c>
       <c r="P104" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q104" s="11" t="s">
         <v>18</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B105" s="16">
         <v>218</v>
@@ -6895,25 +6895,25 @@
         <v>22</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I105" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J105" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>21</v>
@@ -6931,7 +6931,7 @@
         <v>21</v>
       </c>
       <c r="P105" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q105" s="11" t="s">
         <v>18</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B106" s="16">
         <v>219</v>
@@ -6951,25 +6951,25 @@
         <v>22</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F106" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I106" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J106" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K106" s="8" t="s">
         <v>21</v>
@@ -6987,7 +6987,7 @@
         <v>21</v>
       </c>
       <c r="P106" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q106" s="11" t="s">
         <v>18</v>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E80037-08C4-1F44-A8B8-109252DE9366}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE248C67-D4F0-4941-94AE-9A810B7CE946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="6520" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
+    <workbookView xWindow="7880" yWindow="2880" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1042,8 +1042,8 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE248C67-D4F0-4941-94AE-9A810B7CE946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="2880" windowWidth="43320" windowHeight="25920" xr2:uid="{C5AF922A-17B4-3E45-B32D-16E24B21D133}"/>
+    <workbookView xWindow="80" yWindow="300" windowWidth="25520" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="BTD" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="224">
   <si>
     <t>locus_numeric_id</t>
   </si>
@@ -562,13 +559,157 @@
   </si>
   <si>
     <t>proto.161-MacEug</t>
+  </si>
+  <si>
+    <t>ENSCPOG00000022174</t>
+  </si>
+  <si>
+    <t>ENSCPOG00000033273</t>
+  </si>
+  <si>
+    <t>ENSCPOG00000026716</t>
+  </si>
+  <si>
+    <t>AABR07048228.1</t>
+  </si>
+  <si>
+    <t>AABR07048231.1</t>
+  </si>
+  <si>
+    <t>PDZRN4</t>
+  </si>
+  <si>
+    <t>CCDC146</t>
+  </si>
+  <si>
+    <t>GM14461</t>
+  </si>
+  <si>
+    <t>UBE2E3</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>ENSMODG00000006365</t>
+  </si>
+  <si>
+    <t>ENSMODG00000004341</t>
+  </si>
+  <si>
+    <t>ENSMODG00000045240</t>
+  </si>
+  <si>
+    <t>ENSMODG00000007612</t>
+  </si>
+  <si>
+    <t>ENSMODG00000047647</t>
+  </si>
+  <si>
+    <t>ENSMODG00000035635</t>
+  </si>
+  <si>
+    <t>ENSMODG00000042352</t>
+  </si>
+  <si>
+    <t>ENSMODG00000036286</t>
+  </si>
+  <si>
+    <t>ENPP2</t>
+  </si>
+  <si>
+    <t>ENSPCIG00000033363</t>
+  </si>
+  <si>
+    <t>KLF6</t>
+  </si>
+  <si>
+    <t>BTBD1</t>
+  </si>
+  <si>
+    <t>VPS8</t>
+  </si>
+  <si>
+    <t>AGTPBP1</t>
+  </si>
+  <si>
+    <t>ENSPCIG00000024782</t>
+  </si>
+  <si>
+    <t>ENSPCIG00000032522</t>
+  </si>
+  <si>
+    <t>ENSPCIG00000015775</t>
+  </si>
+  <si>
+    <t>ITGA6</t>
+  </si>
+  <si>
+    <t>SFRP2</t>
+  </si>
+  <si>
+    <t>ENSPCIG00000029650</t>
+  </si>
+  <si>
+    <t>ENSPCIG00000031494</t>
+  </si>
+  <si>
+    <t>ENSPCIG00000011842</t>
+  </si>
+  <si>
+    <t>ENSSHAG00000023532</t>
+  </si>
+  <si>
+    <t>ENSSHAG00000027488</t>
+  </si>
+  <si>
+    <t>PCDH18</t>
+  </si>
+  <si>
+    <t>ENSSHAG00000017845</t>
+  </si>
+  <si>
+    <t>ENSSHAG00000026805</t>
+  </si>
+  <si>
+    <t>ENSSHAG00000020835</t>
+  </si>
+  <si>
+    <t>ENSSHAG00000028478</t>
+  </si>
+  <si>
+    <t>ENSSHAG00000002243</t>
+  </si>
+  <si>
+    <t>KLHL1</t>
+  </si>
+  <si>
+    <t>ME3</t>
+  </si>
+  <si>
+    <t>AGPAT5</t>
+  </si>
+  <si>
+    <t>ENSPCIG0000036639</t>
+  </si>
+  <si>
+    <t>ENSVURG00010023687</t>
+  </si>
+  <si>
+    <t>FZD8</t>
+  </si>
+  <si>
+    <t>NT5E</t>
+  </si>
+  <si>
+    <t>ENSVURG00010005697</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -603,6 +744,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -679,8 +836,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -719,7 +892,23 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -785,7 +974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -837,7 +1026,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1031,22 +1220,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8698D365-2C1A-1149-A6A3-1E01E9655E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M106" sqref="M106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
@@ -1054,13 +1243,14 @@
     <col min="4" max="4" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="13" max="14" width="24.1640625" customWidth="1"/>
     <col min="15" max="15" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="25.83203125" customWidth="1"/>
     <col min="17" max="17" width="17.5" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1116,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="14" t="s">
         <v>159</v>
       </c>
@@ -1154,10 +1344,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>21</v>
@@ -1172,7 +1362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="14" t="s">
         <v>97</v>
       </c>
@@ -1210,10 +1400,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>21</v>
@@ -1228,7 +1418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
@@ -1266,10 +1456,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>21</v>
@@ -1284,7 +1474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="14" t="s">
         <v>98</v>
       </c>
@@ -1322,10 +1512,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>21</v>
@@ -1340,7 +1530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="14" t="s">
         <v>167</v>
       </c>
@@ -1396,7 +1586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>160</v>
       </c>
@@ -1434,10 +1624,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>21</v>
@@ -1452,7 +1642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="15" t="s">
         <v>82</v>
       </c>
@@ -1508,7 +1698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="15" t="s">
         <v>168</v>
       </c>
@@ -1546,10 +1736,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>21</v>
@@ -1564,7 +1754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -1602,10 +1792,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>21</v>
@@ -1620,7 +1810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>100</v>
       </c>
@@ -1676,7 +1866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="15" t="s">
         <v>101</v>
       </c>
@@ -1732,7 +1922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
         <v>92</v>
       </c>
@@ -1788,7 +1978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
@@ -1844,7 +2034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="15" t="s">
         <v>83</v>
       </c>
@@ -1885,7 +2075,7 @@
         <v>21</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>21</v>
@@ -1900,7 +2090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="15" t="s">
         <v>84</v>
       </c>
@@ -1956,7 +2146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="15" t="s">
         <v>85</v>
       </c>
@@ -1994,10 +2184,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>21</v>
@@ -2012,7 +2202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="15" t="s">
         <v>170</v>
       </c>
@@ -2068,7 +2258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="15" t="s">
         <v>171</v>
       </c>
@@ -2124,7 +2314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="15" t="s">
         <v>162</v>
       </c>
@@ -2180,7 +2370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="15" t="s">
         <v>27</v>
       </c>
@@ -2236,7 +2426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="15" t="s">
         <v>28</v>
       </c>
@@ -2292,7 +2482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" s="15" t="s">
         <v>86</v>
       </c>
@@ -2348,7 +2538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="15" t="s">
         <v>172</v>
       </c>
@@ -2404,7 +2594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="15" t="s">
         <v>29</v>
       </c>
@@ -2460,7 +2650,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="15" t="s">
         <v>30</v>
       </c>
@@ -2516,7 +2706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="15" t="s">
         <v>31</v>
       </c>
@@ -2572,7 +2762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="15" t="s">
         <v>173</v>
       </c>
@@ -2628,7 +2818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="15" t="s">
         <v>32</v>
       </c>
@@ -2684,7 +2874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="15" t="s">
         <v>33</v>
       </c>
@@ -2740,7 +2930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
@@ -2796,7 +2986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="15" t="s">
         <v>102</v>
       </c>
@@ -2852,7 +3042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="15" t="s">
         <v>103</v>
       </c>
@@ -2908,7 +3098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="15" t="s">
         <v>35</v>
       </c>
@@ -2964,7 +3154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="15" t="s">
         <v>36</v>
       </c>
@@ -3020,7 +3210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" s="15" t="s">
         <v>37</v>
       </c>
@@ -3076,7 +3266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="15" t="s">
         <v>104</v>
       </c>
@@ -3132,7 +3322,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" s="15" t="s">
         <v>105</v>
       </c>
@@ -3188,7 +3378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
@@ -3244,7 +3434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="15" t="s">
         <v>93</v>
       </c>
@@ -3282,10 +3472,10 @@
         <v>21</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>21</v>
@@ -3300,7 +3490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="15" t="s">
         <v>39</v>
       </c>
@@ -3338,10 +3528,10 @@
         <v>21</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>21</v>
@@ -3356,7 +3546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="15" t="s">
         <v>40</v>
       </c>
@@ -3412,7 +3602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" s="15" t="s">
         <v>41</v>
       </c>
@@ -3468,7 +3658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="15" t="s">
         <v>42</v>
       </c>
@@ -3524,7 +3714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="15" t="s">
         <v>43</v>
       </c>
@@ -3580,7 +3770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="15" t="s">
         <v>44</v>
       </c>
@@ -3636,7 +3826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" s="15" t="s">
         <v>45</v>
       </c>
@@ -3674,10 +3864,10 @@
         <v>21</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>21</v>
@@ -3692,7 +3882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" s="15" t="s">
         <v>174</v>
       </c>
@@ -3748,7 +3938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="15" t="s">
         <v>175</v>
       </c>
@@ -3804,7 +3994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="15" t="s">
         <v>46</v>
       </c>
@@ -3860,7 +4050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="15" t="s">
         <v>47</v>
       </c>
@@ -3916,7 +4106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="15" t="s">
         <v>48</v>
       </c>
@@ -3954,7 +4144,7 @@
         <v>21</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="N52" s="9" t="s">
         <v>21</v>
@@ -3972,7 +4162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="15" t="s">
         <v>49</v>
       </c>
@@ -4010,10 +4200,10 @@
         <v>21</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>21</v>
@@ -4028,7 +4218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -4084,7 +4274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="15" t="s">
         <v>107</v>
       </c>
@@ -4122,10 +4312,10 @@
         <v>21</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>21</v>
@@ -4140,7 +4330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" s="15" t="s">
         <v>108</v>
       </c>
@@ -4196,7 +4386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" s="15" t="s">
         <v>109</v>
       </c>
@@ -4252,7 +4442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" s="15" t="s">
         <v>111</v>
       </c>
@@ -4308,7 +4498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" s="15" t="s">
         <v>113</v>
       </c>
@@ -4346,10 +4536,10 @@
         <v>21</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="O59" s="6" t="s">
         <v>21</v>
@@ -4364,7 +4554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" s="15" t="s">
         <v>114</v>
       </c>
@@ -4402,10 +4592,10 @@
         <v>21</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="N60" s="9" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="O60" s="6" t="s">
         <v>21</v>
@@ -4420,7 +4610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" s="15" t="s">
         <v>115</v>
       </c>
@@ -4476,7 +4666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" s="15" t="s">
         <v>116</v>
       </c>
@@ -4532,7 +4722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" s="15" t="s">
         <v>117</v>
       </c>
@@ -4588,7 +4778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" s="15" t="s">
         <v>118</v>
       </c>
@@ -4644,7 +4834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" s="15" t="s">
         <v>119</v>
       </c>
@@ -4700,7 +4890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" s="15" t="s">
         <v>120</v>
       </c>
@@ -4756,7 +4946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" s="15" t="s">
         <v>121</v>
       </c>
@@ -4794,10 +4984,10 @@
         <v>21</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>21</v>
@@ -4812,7 +5002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" s="15" t="s">
         <v>122</v>
       </c>
@@ -4850,10 +5040,10 @@
         <v>21</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>21</v>
@@ -4868,7 +5058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" s="15" t="s">
         <v>123</v>
       </c>
@@ -4906,10 +5096,10 @@
         <v>21</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>21</v>
@@ -4924,7 +5114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" s="15" t="s">
         <v>124</v>
       </c>
@@ -4962,10 +5152,10 @@
         <v>21</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>21</v>
@@ -4980,7 +5170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" s="15" t="s">
         <v>125</v>
       </c>
@@ -5018,10 +5208,10 @@
         <v>21</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="O71" s="6" t="s">
         <v>21</v>
@@ -5036,7 +5226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" s="15" t="s">
         <v>126</v>
       </c>
@@ -5074,10 +5264,10 @@
         <v>21</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>21</v>
@@ -5092,7 +5282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" s="15" t="s">
         <v>127</v>
       </c>
@@ -5130,10 +5320,10 @@
         <v>21</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="O73" s="6" t="s">
         <v>21</v>
@@ -5148,7 +5338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" s="15" t="s">
         <v>128</v>
       </c>
@@ -5186,10 +5376,10 @@
         <v>21</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="O74" s="6" t="s">
         <v>21</v>
@@ -5204,7 +5394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" s="15" t="s">
         <v>129</v>
       </c>
@@ -5242,10 +5432,10 @@
         <v>21</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="O75" s="6" t="s">
         <v>21</v>
@@ -5260,7 +5450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" s="15" t="s">
         <v>90</v>
       </c>
@@ -5316,7 +5506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" s="15" t="s">
         <v>130</v>
       </c>
@@ -5372,7 +5562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" s="15" t="s">
         <v>131</v>
       </c>
@@ -5428,7 +5618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" s="15" t="s">
         <v>132</v>
       </c>
@@ -5484,7 +5674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" s="15" t="s">
         <v>133</v>
       </c>
@@ -5540,7 +5730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" s="15" t="s">
         <v>134</v>
       </c>
@@ -5578,10 +5768,10 @@
         <v>21</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="O81" s="6" t="s">
         <v>21</v>
@@ -5596,7 +5786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" s="15" t="s">
         <v>135</v>
       </c>
@@ -5634,10 +5824,10 @@
         <v>21</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="O82" s="6" t="s">
         <v>21</v>
@@ -5652,7 +5842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" s="15" t="s">
         <v>136</v>
       </c>
@@ -5690,10 +5880,10 @@
         <v>21</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="O83" s="6" t="s">
         <v>21</v>
@@ -5708,7 +5898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>137</v>
       </c>
@@ -5764,7 +5954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="15" t="s">
         <v>138</v>
       </c>
@@ -5802,10 +5992,10 @@
         <v>21</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="O85" s="6" t="s">
         <v>21</v>
@@ -5820,7 +6010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" s="15" t="s">
         <v>139</v>
       </c>
@@ -5876,7 +6066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" s="15" t="s">
         <v>140</v>
       </c>
@@ -5932,7 +6122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" s="15" t="s">
         <v>141</v>
       </c>
@@ -5988,7 +6178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" s="15" t="s">
         <v>142</v>
       </c>
@@ -6044,7 +6234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" s="15" t="s">
         <v>143</v>
       </c>
@@ -6100,7 +6290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" s="15" t="s">
         <v>144</v>
       </c>
@@ -6156,7 +6346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" s="15" t="s">
         <v>145</v>
       </c>
@@ -6212,7 +6402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" s="15" t="s">
         <v>146</v>
       </c>
@@ -6268,7 +6458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" s="15" t="s">
         <v>147</v>
       </c>
@@ -6324,7 +6514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" s="15" t="s">
         <v>148</v>
       </c>
@@ -6380,7 +6570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" s="15" t="s">
         <v>149</v>
       </c>
@@ -6418,10 +6608,10 @@
         <v>21</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="N96" s="9" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="O96" s="6" t="s">
         <v>21</v>
@@ -6436,7 +6626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" s="15" t="s">
         <v>96</v>
       </c>
@@ -6492,7 +6682,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" s="15" t="s">
         <v>150</v>
       </c>
@@ -6548,7 +6738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" s="15" t="s">
         <v>151</v>
       </c>
@@ -6604,7 +6794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" s="15" t="s">
         <v>152</v>
       </c>
@@ -6660,7 +6850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" s="15" t="s">
         <v>153</v>
       </c>
@@ -6716,7 +6906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" s="15" t="s">
         <v>154</v>
       </c>
@@ -6772,7 +6962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" s="15" t="s">
         <v>155</v>
       </c>
@@ -6828,7 +7018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" s="15" t="s">
         <v>156</v>
       </c>
@@ -6866,10 +7056,10 @@
         <v>21</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="O104" s="6" t="s">
         <v>21</v>
@@ -6884,7 +7074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" s="15" t="s">
         <v>157</v>
       </c>
@@ -6922,10 +7112,10 @@
         <v>21</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="O105" s="6" t="s">
         <v>21</v>
@@ -6940,7 +7130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" s="15" t="s">
         <v>158</v>
       </c>
@@ -6996,27 +7186,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="B107"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R106">
+  <sortState ref="A2:R106">
     <sortCondition ref="B2:B106"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FC2845-766C-9F4D-8167-D5DB4EFAE8C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="263">
   <si>
     <t>locus_numeric_id</t>
   </si>
@@ -693,16 +693,133 @@
     <t>ENSPCIG0000036639</t>
   </si>
   <si>
-    <t>ENSVURG00010023687</t>
-  </si>
-  <si>
-    <t>FZD8</t>
-  </si>
-  <si>
     <t>NT5E</t>
   </si>
   <si>
     <t>ENSVURG00010005697</t>
+  </si>
+  <si>
+    <t>TRIML1</t>
+  </si>
+  <si>
+    <t>FRG1</t>
+  </si>
+  <si>
+    <t>MIPEP</t>
+  </si>
+  <si>
+    <t>AMER2</t>
+  </si>
+  <si>
+    <t>OR4C6</t>
+  </si>
+  <si>
+    <t>OR5AL1</t>
+  </si>
+  <si>
+    <t>CDC73</t>
+  </si>
+  <si>
+    <t>KCNT2</t>
+  </si>
+  <si>
+    <t>COL24A1</t>
+  </si>
+  <si>
+    <t>VPS13B</t>
+  </si>
+  <si>
+    <t>KCNJ6</t>
+  </si>
+  <si>
+    <t>ADGRL4</t>
+  </si>
+  <si>
+    <t>ADGRL2</t>
+  </si>
+  <si>
+    <t>ENSPCIG00000007563</t>
+  </si>
+  <si>
+    <t>CA10</t>
+  </si>
+  <si>
+    <t>BACH2</t>
+  </si>
+  <si>
+    <t>MAP3K</t>
+  </si>
+  <si>
+    <t>XKR5</t>
+  </si>
+  <si>
+    <t>MANCR</t>
+  </si>
+  <si>
+    <t>PHF2</t>
+  </si>
+  <si>
+    <t>BARX1</t>
+  </si>
+  <si>
+    <t>POT1-AS1</t>
+  </si>
+  <si>
+    <t>CES1C</t>
+  </si>
+  <si>
+    <t>CES1D</t>
+  </si>
+  <si>
+    <t>GEMIN8P2</t>
+  </si>
+  <si>
+    <t>KSR1</t>
+  </si>
+  <si>
+    <t>NOS2</t>
+  </si>
+  <si>
+    <t>TRNAG-CCC</t>
+  </si>
+  <si>
+    <t>CEMIP</t>
+  </si>
+  <si>
+    <t>LOC103197041</t>
+  </si>
+  <si>
+    <t>LOC103197042</t>
+  </si>
+  <si>
+    <t>EFHD1</t>
+  </si>
+  <si>
+    <t>ITMC2</t>
+  </si>
+  <si>
+    <t>ENSG00000280241</t>
+  </si>
+  <si>
+    <t>HAS2</t>
+  </si>
+  <si>
+    <t>CCDC115</t>
+  </si>
+  <si>
+    <t>OR13D1</t>
+  </si>
+  <si>
+    <t>NIPSNAP3A</t>
+  </si>
+  <si>
+    <t>ZPLD1</t>
+  </si>
+  <si>
+    <t>RPL7A</t>
+  </si>
+  <si>
+    <t>FRAT1</t>
   </si>
 </sst>
 </file>
@@ -836,8 +953,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -892,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -901,6 +1020,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -909,6 +1029,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1220,7 +1341,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1230,9 +1351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M106" sqref="M106"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2296,10 +2417,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>21</v>
@@ -2464,10 +2585,10 @@
         <v>21</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>21</v>
@@ -2520,10 +2641,10 @@
         <v>21</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>21</v>
@@ -2576,10 +2697,10 @@
         <v>21</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>21</v>
@@ -2632,10 +2753,10 @@
         <v>21</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>21</v>
@@ -2800,10 +2921,10 @@
         <v>21</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>21</v>
@@ -3416,10 +3537,10 @@
         <v>21</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>21</v>
@@ -3640,10 +3761,10 @@
         <v>21</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="O43" s="6" t="s">
         <v>21</v>
@@ -3696,10 +3817,10 @@
         <v>21</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>21</v>
+        <v>234</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>21</v>
@@ -3808,10 +3929,10 @@
         <v>21</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="O46" s="6" t="s">
         <v>21</v>
@@ -3976,10 +4097,10 @@
         <v>21</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>21</v>
@@ -4032,10 +4153,10 @@
         <v>21</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="O50" s="6" t="s">
         <v>21</v>
@@ -4088,10 +4209,10 @@
         <v>21</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="O51" s="6" t="s">
         <v>21</v>
@@ -4147,7 +4268,7 @@
         <v>218</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>21</v>
@@ -4312,10 +4433,10 @@
         <v>21</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>21</v>
@@ -4704,10 +4825,10 @@
         <v>21</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="N62" s="9" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="O62" s="6" t="s">
         <v>21</v>
@@ -4760,10 +4881,10 @@
         <v>21</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="O63" s="6" t="s">
         <v>21</v>
@@ -5488,10 +5609,10 @@
         <v>21</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="O76" s="6" t="s">
         <v>21</v>
@@ -5544,7 +5665,7 @@
         <v>21</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="N77" s="9" t="s">
         <v>21</v>
@@ -5712,10 +5833,10 @@
         <v>21</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="O80" s="6" t="s">
         <v>21</v>
@@ -5936,10 +6057,10 @@
         <v>21</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="O84" s="6" t="s">
         <v>21</v>
@@ -6048,10 +6169,10 @@
         <v>21</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>21</v>
@@ -6104,10 +6225,10 @@
         <v>21</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="O87" s="6" t="s">
         <v>21</v>
@@ -6160,10 +6281,10 @@
         <v>21</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="N88" s="9" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="O88" s="6" t="s">
         <v>21</v>
@@ -6216,10 +6337,10 @@
         <v>21</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="N89" s="9" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>21</v>
@@ -6272,10 +6393,10 @@
         <v>21</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="N90" s="9" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="O90" s="6" t="s">
         <v>21</v>
@@ -6328,10 +6449,10 @@
         <v>21</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N91" s="9" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="O91" s="6" t="s">
         <v>21</v>
@@ -6384,10 +6505,10 @@
         <v>21</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="N92" s="9" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>21</v>
@@ -6440,10 +6561,10 @@
         <v>21</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="O93" s="6" t="s">
         <v>21</v>
@@ -6496,10 +6617,10 @@
         <v>21</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="O94" s="6" t="s">
         <v>21</v>
@@ -6552,10 +6673,10 @@
         <v>21</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="N95" s="9" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="O95" s="6" t="s">
         <v>21</v>
@@ -6664,10 +6785,10 @@
         <v>21</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="O97" s="6" t="s">
         <v>21</v>
@@ -6944,10 +7065,10 @@
         <v>21</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="O102" s="6" t="s">
         <v>21</v>
@@ -7000,10 +7121,10 @@
         <v>21</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="N103" s="9" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="O103" s="6" t="s">
         <v>21</v>
@@ -7056,10 +7177,10 @@
         <v>21</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O104" s="6" t="s">
         <v>21</v>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="24526"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6121504-C426-6B4C-BE1E-C3BB8030EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="300" windowWidth="25520" windowHeight="13520"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="40300" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="BTD" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -825,7 +823,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1341,22 +1339,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
@@ -1371,7 +1369,7 @@
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>159</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>97</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>25</v>
       </c>
@@ -1595,7 +1593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>98</v>
       </c>
@@ -1651,7 +1649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>167</v>
       </c>
@@ -1707,7 +1705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>160</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>82</v>
       </c>
@@ -1819,7 +1817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>168</v>
       </c>
@@ -1875,7 +1873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -1931,7 +1929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>100</v>
       </c>
@@ -1987,7 +1985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>101</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>92</v>
       </c>
@@ -2099,7 +2097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
@@ -2155,7 +2153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>83</v>
       </c>
@@ -2211,7 +2209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>84</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>85</v>
       </c>
@@ -2323,7 +2321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>170</v>
       </c>
@@ -2379,7 +2377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>171</v>
       </c>
@@ -2435,7 +2433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>162</v>
       </c>
@@ -2491,7 +2489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>27</v>
       </c>
@@ -2547,7 +2545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>28</v>
       </c>
@@ -2603,7 +2601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>86</v>
       </c>
@@ -2659,7 +2657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>172</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>29</v>
       </c>
@@ -2771,7 +2769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>30</v>
       </c>
@@ -2827,7 +2825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>31</v>
       </c>
@@ -2883,7 +2881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>173</v>
       </c>
@@ -2939,7 +2937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>32</v>
       </c>
@@ -2995,7 +2993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>33</v>
       </c>
@@ -3051,7 +3049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
@@ -3107,7 +3105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>102</v>
       </c>
@@ -3163,7 +3161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>103</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>35</v>
       </c>
@@ -3275,7 +3273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>36</v>
       </c>
@@ -3331,7 +3329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>37</v>
       </c>
@@ -3387,7 +3385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>104</v>
       </c>
@@ -3443,7 +3441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>105</v>
       </c>
@@ -3499,7 +3497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>38</v>
       </c>
@@ -3555,7 +3553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>93</v>
       </c>
@@ -3611,7 +3609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>39</v>
       </c>
@@ -3667,7 +3665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>40</v>
       </c>
@@ -3723,7 +3721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>41</v>
       </c>
@@ -3779,7 +3777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>42</v>
       </c>
@@ -3835,7 +3833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>43</v>
       </c>
@@ -3891,7 +3889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>44</v>
       </c>
@@ -3947,7 +3945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>45</v>
       </c>
@@ -4003,7 +4001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>174</v>
       </c>
@@ -4059,7 +4057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>175</v>
       </c>
@@ -4115,7 +4113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>46</v>
       </c>
@@ -4171,7 +4169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>47</v>
       </c>
@@ -4227,7 +4225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>48</v>
       </c>
@@ -4283,7 +4281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>49</v>
       </c>
@@ -4339,7 +4337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>164</v>
       </c>
@@ -4395,7 +4393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>107</v>
       </c>
@@ -4451,7 +4449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>108</v>
       </c>
@@ -4507,7 +4505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>109</v>
       </c>
@@ -4563,7 +4561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>111</v>
       </c>
@@ -4619,7 +4617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>113</v>
       </c>
@@ -4675,7 +4673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>114</v>
       </c>
@@ -4731,7 +4729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>115</v>
       </c>
@@ -4787,7 +4785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>116</v>
       </c>
@@ -4843,7 +4841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>117</v>
       </c>
@@ -4899,7 +4897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>118</v>
       </c>
@@ -4955,7 +4953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>119</v>
       </c>
@@ -5011,7 +5009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>120</v>
       </c>
@@ -5067,7 +5065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>121</v>
       </c>
@@ -5123,7 +5121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>122</v>
       </c>
@@ -5179,7 +5177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>123</v>
       </c>
@@ -5235,7 +5233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>124</v>
       </c>
@@ -5291,7 +5289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>125</v>
       </c>
@@ -5347,7 +5345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>126</v>
       </c>
@@ -5403,7 +5401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>127</v>
       </c>
@@ -5459,7 +5457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>128</v>
       </c>
@@ -5515,7 +5513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>129</v>
       </c>
@@ -5571,7 +5569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>90</v>
       </c>
@@ -5627,7 +5625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>130</v>
       </c>
@@ -5683,7 +5681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>131</v>
       </c>
@@ -5739,7 +5737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>132</v>
       </c>
@@ -5795,7 +5793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>133</v>
       </c>
@@ -5851,7 +5849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>134</v>
       </c>
@@ -5907,7 +5905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>135</v>
       </c>
@@ -5963,7 +5961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>136</v>
       </c>
@@ -6019,7 +6017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>137</v>
       </c>
@@ -6075,7 +6073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>138</v>
       </c>
@@ -6131,7 +6129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
         <v>139</v>
       </c>
@@ -6187,7 +6185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
         <v>140</v>
       </c>
@@ -6243,7 +6241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
         <v>141</v>
       </c>
@@ -6299,7 +6297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
         <v>142</v>
       </c>
@@ -6355,7 +6353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>143</v>
       </c>
@@ -6411,7 +6409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
         <v>144</v>
       </c>
@@ -6467,7 +6465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
         <v>145</v>
       </c>
@@ -6523,7 +6521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>146</v>
       </c>
@@ -6579,7 +6577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>147</v>
       </c>
@@ -6635,7 +6633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>148</v>
       </c>
@@ -6691,7 +6689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>149</v>
       </c>
@@ -6747,7 +6745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
         <v>96</v>
       </c>
@@ -6803,7 +6801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
         <v>150</v>
       </c>
@@ -6859,7 +6857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
         <v>151</v>
       </c>
@@ -6915,7 +6913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="s">
         <v>152</v>
       </c>
@@ -6971,7 +6969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
         <v>153</v>
       </c>
@@ -7027,7 +7025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
         <v>154</v>
       </c>
@@ -7083,7 +7081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
         <v>155</v>
       </c>
@@ -7139,7 +7137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
         <v>156</v>
       </c>
@@ -7195,7 +7193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
         <v>157</v>
       </c>
@@ -7251,7 +7249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
         <v>158</v>
       </c>
@@ -7307,11 +7305,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B107"/>
     </row>
   </sheetData>
-  <sortState ref="A2:R106">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R106">
     <sortCondition ref="B2:B106"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7325,14 +7323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6121504-C426-6B4C-BE1E-C3BB8030EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DEC90E-047A-9440-9DBA-40083AEDE824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="40300" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6040" yWindow="500" windowWidth="40300" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1093,7 +1093,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1145,7 +1145,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1349,9 +1349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DEC90E-047A-9440-9DBA-40083AEDE824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80623175-E82F-5D4E-8790-606150A74F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6040" yWindow="500" windowWidth="40300" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1349,9 +1349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S54" sqref="S54"/>
+      <selection pane="topRight" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
